--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AT42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,125 +583,95 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>K575 EVM 15 avg (dB)</t>
+          <t>K575 EVM 20 avg (dB)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>K575 Time 15 avg (s)</t>
+          <t>K575 Time 20 avg (s)</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>K575 Channel Power 15 avg (dBm)</t>
+          <t>K575 Channel Power 20 avg (dBm)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 15 avg (dB)</t>
+          <t>K575 Lower Adjacent ACLR 20 avg (dB)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 15 avg (dB)</t>
+          <t>K575 Upper Adjacent ACLR 20 avg (dB)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 15 avg (s)</t>
+          <t>K575 ACLR Time 20 avg (s)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>K575 EVM 20 avg (dB)</t>
+          <t>K575 EVM 50 avg (dB)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>K575 Time 20 avg (s)</t>
+          <t>K575 Time 50 avg (s)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>K575 Channel Power 20 avg (dBm)</t>
+          <t>K575 Channel Power 50 avg (dBm)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 20 avg (dB)</t>
+          <t>K575 Lower Adjacent ACLR 50 avg (dB)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 20 avg (dB)</t>
+          <t>K575 Upper Adjacent ACLR 50 avg (dB)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 20 avg (s)</t>
+          <t>K575 ACLR Time 50 avg (s)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>K575 EVM 50 avg (dB)</t>
+          <t>K575 EVM 100 avg (dB)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>K575 Time 50 avg (s)</t>
+          <t>K575 Time 100 avg (s)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>K575 Channel Power 50 avg (dBm)</t>
+          <t>K575 Channel Power 100 avg (dBm)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 50 avg (dB)</t>
+          <t>K575 Lower Adjacent ACLR 100 avg (dB)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 50 avg (dB)</t>
+          <t>K575 Upper Adjacent ACLR 100 avg (dB)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 50 avg (s)</t>
+          <t>K575 ACLR Time 100 avg (s)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>K575 EVM 100 avg (dB)</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>K575 Time 100 avg (s)</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>K575 Channel Power 100 avg (dBm)</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>K575 Lower Adjacent ACLR 100 avg (dB)</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>K575 Upper Adjacent ACLR 100 avg (dB)</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>K575 ACLR Time 100 avg (s)</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Total Elapsed Time (s)</t>
         </is>
@@ -709,10 +679,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B2" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -721,156 +691,138 @@
         <v>-40</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>24.054</v>
+        <v>7.906</v>
       </c>
       <c r="G2" t="n">
-        <v>-40.05526</v>
+        <v>-39.94556</v>
       </c>
       <c r="H2" t="n">
-        <v>-39.96675</v>
+        <v>-39.91524</v>
       </c>
       <c r="I2" t="n">
-        <v>-39.81267548</v>
+        <v>-40.02529907</v>
       </c>
       <c r="J2" t="n">
-        <v>-49.9720726</v>
+        <v>-50.31016922</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05157947540283203</v>
+        <v>0.1958894729614258</v>
       </c>
       <c r="L2" t="n">
-        <v>-39.7162399292</v>
+        <v>-39.9678573608</v>
       </c>
       <c r="M2" t="n">
-        <v>-52.3385238647</v>
+        <v>-39.7563323975</v>
       </c>
       <c r="N2" t="n">
-        <v>-52.4122238159</v>
+        <v>-39.7653121948</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2204694747924805</v>
+        <v>0.2068743705749512</v>
       </c>
       <c r="P2" t="n">
-        <v>-51.894104</v>
+        <v>-49.18861771</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3310399055480957</v>
+        <v>1.613745927810669</v>
       </c>
       <c r="R2" t="n">
-        <v>-39.7092514038</v>
+        <v>-39.950138092</v>
       </c>
       <c r="S2" t="n">
-        <v>-59.1049957275</v>
+        <v>-54.7821769714</v>
       </c>
       <c r="T2" t="n">
-        <v>-59.3339538574</v>
+        <v>-54.8066825867</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5000622272491455</v>
+        <v>0.5725312232971191</v>
       </c>
       <c r="V2" t="n">
-        <v>-52.25517273</v>
+        <v>-50.09588623</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3063175678253174</v>
+        <v>2.639135599136353</v>
       </c>
       <c r="X2" t="n">
-        <v>-39.6960334778</v>
+        <v>-39.9470710754</v>
       </c>
       <c r="Y2" t="n">
-        <v>-58.9983177185</v>
+        <v>-54.7609062195</v>
       </c>
       <c r="Z2" t="n">
-        <v>-59.1646766663</v>
+        <v>-54.8246879578</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5000441074371338</v>
+        <v>0.5509812831878662</v>
       </c>
       <c r="AB2" t="n">
-        <v>-52.30094147</v>
+        <v>-50.73458862</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4065730571746826</v>
+        <v>4.811856746673584</v>
       </c>
       <c r="AD2" t="n">
-        <v>-39.7019042969</v>
+        <v>-39.9492835999</v>
       </c>
       <c r="AE2" t="n">
-        <v>-59.0712509155</v>
+        <v>-54.7654304504</v>
       </c>
       <c r="AF2" t="n">
-        <v>-59.1720352173</v>
+        <v>-54.7814064026</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.5195205211639404</v>
+        <v>0.551539421081543</v>
       </c>
       <c r="AH2" t="n">
-        <v>-52.48804474</v>
+        <v>-51.14699936</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.502232551574707</v>
+        <v>11.35921597480774</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-39.7021408081</v>
+        <v>-39.9483261108</v>
       </c>
       <c r="AK2" t="n">
-        <v>-59.0453262329</v>
+        <v>-54.7255249023</v>
       </c>
       <c r="AL2" t="n">
-        <v>-59.2235488892</v>
+        <v>-54.8086166382</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5210435390472412</v>
+        <v>0.5491602420806885</v>
       </c>
       <c r="AN2" t="n">
-        <v>-52.53016663</v>
+        <v>-51.26725769</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.116896152496338</v>
+        <v>22.08109140396118</v>
       </c>
       <c r="AP2" t="n">
-        <v>-39.7120819092</v>
+        <v>-39.9541511536</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-59.1069030762</v>
+        <v>-54.7714042664</v>
       </c>
       <c r="AR2" t="n">
-        <v>-59.2428359985</v>
+        <v>-54.792842865</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5049691200256348</v>
+        <v>0.5790674686431885</v>
       </c>
       <c r="AT2" t="n">
-        <v>-52.5027504</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>2.118482351303101</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>-39.6986122131</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-59.2330131531</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-59.1401557922</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.5051355361938477</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>10.084</v>
+        <v>49.192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B3" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C3" t="n">
         <v>2.1</v>
@@ -882,153 +834,135 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>7.918</v>
+        <v>7.904</v>
       </c>
       <c r="G3" t="n">
-        <v>-40.12985</v>
+        <v>-40.01076</v>
       </c>
       <c r="H3" t="n">
-        <v>-40.05188</v>
+        <v>-39.94282</v>
       </c>
       <c r="I3" t="n">
-        <v>-39.88558197</v>
+        <v>-40.05857849</v>
       </c>
       <c r="J3" t="n">
-        <v>-49.21915054</v>
+        <v>-49.70457077</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04986405372619629</v>
+        <v>0.1926896572113037</v>
       </c>
       <c r="L3" t="n">
-        <v>-39.7699546814</v>
+        <v>-39.994140625</v>
       </c>
       <c r="M3" t="n">
-        <v>-52.1320610046</v>
+        <v>-39.5280075073</v>
       </c>
       <c r="N3" t="n">
-        <v>-52.1402854919</v>
+        <v>-39.4379882812</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2127645015716553</v>
+        <v>0.2073848247528076</v>
       </c>
       <c r="P3" t="n">
-        <v>-49.9036026</v>
+        <v>-48.82575989</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3682317733764648</v>
+        <v>1.61134934425354</v>
       </c>
       <c r="R3" t="n">
-        <v>-39.7648391724</v>
+        <v>-39.9771080017</v>
       </c>
       <c r="S3" t="n">
-        <v>-59.5653610229</v>
+        <v>-54.5375785828</v>
       </c>
       <c r="T3" t="n">
-        <v>-59.2932815552</v>
+        <v>-54.4923362732</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5094301700592041</v>
+        <v>0.5520303249359131</v>
       </c>
       <c r="V3" t="n">
-        <v>-50.11131287</v>
+        <v>-49.6876297</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3067507743835449</v>
+        <v>2.655664205551147</v>
       </c>
       <c r="X3" t="n">
-        <v>-39.7712936401</v>
+        <v>-39.9776878357</v>
       </c>
       <c r="Y3" t="n">
-        <v>-59.0704803467</v>
+        <v>-54.5775871277</v>
       </c>
       <c r="Z3" t="n">
-        <v>-59.3021011353</v>
+        <v>-54.5103340149</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5219948291778564</v>
+        <v>0.5568327903747559</v>
       </c>
       <c r="AB3" t="n">
-        <v>-50.18092346</v>
+        <v>-50.26449585</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4260201454162598</v>
+        <v>4.827455282211304</v>
       </c>
       <c r="AD3" t="n">
-        <v>-39.7679367065</v>
+        <v>-39.976184845</v>
       </c>
       <c r="AE3" t="n">
-        <v>-59.0730819702</v>
+        <v>-54.5286750793</v>
       </c>
       <c r="AF3" t="n">
-        <v>-59.6642990112</v>
+        <v>-54.509059906</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5037837028503418</v>
+        <v>0.5564818382263184</v>
       </c>
       <c r="AH3" t="n">
-        <v>-50.2535553</v>
+        <v>-50.6805191</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.5012831687927246</v>
+        <v>11.31071972846985</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-39.7688980103</v>
+        <v>-39.9786834717</v>
       </c>
       <c r="AK3" t="n">
-        <v>-58.9895248413</v>
+        <v>-54.561050415</v>
       </c>
       <c r="AL3" t="n">
-        <v>-59.5124206543</v>
+        <v>-54.4988937378</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5115463733673096</v>
+        <v>0.5581376552581787</v>
       </c>
       <c r="AN3" t="n">
-        <v>-50.2679863</v>
+        <v>-50.82865906</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.124820709228516</v>
+        <v>22.13266277313232</v>
       </c>
       <c r="AP3" t="n">
-        <v>-39.7625007629</v>
+        <v>-39.9787864685</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-59.1160163879</v>
+        <v>-54.5523796082</v>
       </c>
       <c r="AR3" t="n">
-        <v>-59.3159141541</v>
+        <v>-54.4578895569</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5049757957458496</v>
+        <v>0.5527551174163818</v>
       </c>
       <c r="AT3" t="n">
-        <v>-50.32704163</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>2.107533693313599</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>-39.7796707153</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>-59.0140838623</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>-59.3462677002</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0.5204880237579346</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>10.167</v>
+        <v>50.127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B4" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C4" t="n">
         <v>2.2</v>
@@ -1040,153 +974,135 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>7.92</v>
+        <v>7.906</v>
       </c>
       <c r="G4" t="n">
-        <v>-40.06024</v>
+        <v>-40.02452</v>
       </c>
       <c r="H4" t="n">
-        <v>-40.04991</v>
+        <v>-39.97093</v>
       </c>
       <c r="I4" t="n">
-        <v>-39.89134216</v>
+        <v>-39.9881897</v>
       </c>
       <c r="J4" t="n">
-        <v>-48.22402954</v>
+        <v>-49.87552643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05266690254211426</v>
+        <v>0.201416015625</v>
       </c>
       <c r="L4" t="n">
-        <v>-39.7781219482</v>
+        <v>-39.9440879822</v>
       </c>
       <c r="M4" t="n">
-        <v>-51.8612365723</v>
+        <v>-39.135471344</v>
       </c>
       <c r="N4" t="n">
-        <v>-51.7485198975</v>
+        <v>-38.93516922</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2088940143585205</v>
+        <v>0.2082400321960449</v>
       </c>
       <c r="P4" t="n">
-        <v>-49.62660217</v>
+        <v>-48.82629776</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3715231418609619</v>
+        <v>1.674706220626831</v>
       </c>
       <c r="R4" t="n">
-        <v>-39.7705230713</v>
+        <v>-39.9206695557</v>
       </c>
       <c r="S4" t="n">
-        <v>-59.2004394531</v>
+        <v>-54.1641998291</v>
       </c>
       <c r="T4" t="n">
-        <v>-59.5001144409</v>
+        <v>-53.9222869873</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5092990398406982</v>
+        <v>0.5513319969177246</v>
       </c>
       <c r="V4" t="n">
-        <v>-49.88772964</v>
+        <v>-49.79286957</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3092873096466064</v>
+        <v>2.662152528762817</v>
       </c>
       <c r="X4" t="n">
-        <v>-39.7686729431</v>
+        <v>-39.9173278809</v>
       </c>
       <c r="Y4" t="n">
-        <v>-59.3670768738</v>
+        <v>-54.1549606323</v>
       </c>
       <c r="Z4" t="n">
-        <v>-59.3153419495</v>
+        <v>-53.9482650757</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5193357467651367</v>
+        <v>0.5517284870147705</v>
       </c>
       <c r="AB4" t="n">
-        <v>-49.99323273</v>
+        <v>-50.39369583</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4267258644104004</v>
+        <v>4.844696521759033</v>
       </c>
       <c r="AD4" t="n">
-        <v>-39.7652168274</v>
+        <v>-39.9354705811</v>
       </c>
       <c r="AE4" t="n">
-        <v>-59.1801109314</v>
+        <v>-54.1403427124</v>
       </c>
       <c r="AF4" t="n">
-        <v>-59.0912971497</v>
+        <v>-53.9451141357</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5145814418792725</v>
+        <v>0.5594782829284668</v>
       </c>
       <c r="AH4" t="n">
-        <v>-50.04992676</v>
+        <v>-50.85165024</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5236914157867432</v>
+        <v>11.34158515930176</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-39.7664680481</v>
+        <v>-39.9304580688</v>
       </c>
       <c r="AK4" t="n">
-        <v>-59.1801261902</v>
+        <v>-54.1602325439</v>
       </c>
       <c r="AL4" t="n">
-        <v>-59.4219245911</v>
+        <v>-53.9346237183</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5059971809387207</v>
+        <v>0.5510609149932861</v>
       </c>
       <c r="AN4" t="n">
-        <v>-50.11034012</v>
+        <v>-50.98819733</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.124645948410034</v>
+        <v>22.12632966041565</v>
       </c>
       <c r="AP4" t="n">
-        <v>-39.7602958679</v>
+        <v>-39.9204216003</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-59.1997032166</v>
+        <v>-54.1661872864</v>
       </c>
       <c r="AR4" t="n">
-        <v>-59.3019371033</v>
+        <v>-53.9868125916</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5049374103546143</v>
+        <v>0.5564208030700684</v>
       </c>
       <c r="AT4" t="n">
-        <v>-50.17843246</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2.10590648651123</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>-39.7648200989</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>-59.2597999573</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>-59.2904014587</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0.501903772354126</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>10.263</v>
+        <v>49.931</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B5" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C5" t="n">
         <v>2.3</v>
@@ -1195,156 +1111,138 @@
         <v>-40</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>23.809</v>
+        <v>7.903</v>
       </c>
       <c r="G5" t="n">
-        <v>-40.01294</v>
+        <v>-40.09539</v>
       </c>
       <c r="H5" t="n">
-        <v>-40.02822</v>
+        <v>-40.08672</v>
       </c>
       <c r="I5" t="n">
-        <v>-39.81681061</v>
+        <v>-40.1733551</v>
       </c>
       <c r="J5" t="n">
-        <v>-48.954216</v>
+        <v>-49.95409012</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0548255443572998</v>
+        <v>0.2040398120880127</v>
       </c>
       <c r="L5" t="n">
-        <v>-39.6865768433</v>
+        <v>-40.1131134033</v>
       </c>
       <c r="M5" t="n">
-        <v>-51.7013778687</v>
+        <v>-38.7540740967</v>
       </c>
       <c r="N5" t="n">
-        <v>-51.6810836792</v>
+        <v>-38.8549423218</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2237832546234131</v>
+        <v>0.2044661045074463</v>
       </c>
       <c r="P5" t="n">
-        <v>-50.19517899</v>
+        <v>-48.86165619</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3313632011413574</v>
+        <v>1.63886284828186</v>
       </c>
       <c r="R5" t="n">
-        <v>-39.6880989075</v>
+        <v>-40.0974273682</v>
       </c>
       <c r="S5" t="n">
-        <v>-59.1149177551</v>
+        <v>-53.8069915771</v>
       </c>
       <c r="T5" t="n">
-        <v>-59.406047821</v>
+        <v>-53.8274154663</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5004594326019287</v>
+        <v>0.5508253574371338</v>
       </c>
       <c r="V5" t="n">
-        <v>-50.45721054</v>
+        <v>-49.86503983</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2907187938690186</v>
+        <v>2.663865566253662</v>
       </c>
       <c r="X5" t="n">
-        <v>-39.6801376343</v>
+        <v>-40.0927581787</v>
       </c>
       <c r="Y5" t="n">
-        <v>-59.531211853</v>
+        <v>-53.8186187744</v>
       </c>
       <c r="Z5" t="n">
-        <v>-59.3580627441</v>
+        <v>-53.8838653564</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5016586780548096</v>
+        <v>0.555833101272583</v>
       </c>
       <c r="AB5" t="n">
-        <v>-50.55248642</v>
+        <v>-50.55797195</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.4119884967803955</v>
+        <v>4.81444525718689</v>
       </c>
       <c r="AD5" t="n">
-        <v>-39.6857948303</v>
+        <v>-40.0902099609</v>
       </c>
       <c r="AE5" t="n">
-        <v>-59.2215614319</v>
+        <v>-53.799156189</v>
       </c>
       <c r="AF5" t="n">
-        <v>-59.4124565125</v>
+        <v>-53.8673095703</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5249300003051758</v>
+        <v>0.5815889835357666</v>
       </c>
       <c r="AH5" t="n">
-        <v>-50.58749771</v>
+        <v>-51.08657074</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.5031147003173828</v>
+        <v>11.31375789642334</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-39.6802406311</v>
+        <v>-40.1036987305</v>
       </c>
       <c r="AK5" t="n">
-        <v>-59.3081855774</v>
+        <v>-53.7621612549</v>
       </c>
       <c r="AL5" t="n">
-        <v>-59.6845664978</v>
+        <v>-53.8434906006</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5214402675628662</v>
+        <v>0.5509152412414551</v>
       </c>
       <c r="AN5" t="n">
-        <v>-50.69504166</v>
+        <v>-51.28696442</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.099927663803101</v>
+        <v>22.17356944084167</v>
       </c>
       <c r="AP5" t="n">
-        <v>-39.6841125488</v>
+        <v>-40.0986289978</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-59.3687438965</v>
+        <v>-53.8018913269</v>
       </c>
       <c r="AR5" t="n">
-        <v>-59.6841049194</v>
+        <v>-53.8529701233</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.501584529876709</v>
+        <v>0.5486752986907959</v>
       </c>
       <c r="AT5" t="n">
-        <v>-50.70817566</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2.116841793060303</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>-39.6820793152</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>-59.4264564514</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>-59.5911521912</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0.5063161849975586</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>10.101</v>
+        <v>49.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B6" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C6" t="n">
         <v>2.4</v>
@@ -1353,156 +1251,138 @@
         <v>-40</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>23.794</v>
+        <v>7.898</v>
       </c>
       <c r="G6" t="n">
-        <v>-40.08093</v>
+        <v>-40.08884</v>
       </c>
       <c r="H6" t="n">
-        <v>-39.99093</v>
+        <v>-40.00919</v>
       </c>
       <c r="I6" t="n">
-        <v>-39.83346558</v>
+        <v>-40.07135773</v>
       </c>
       <c r="J6" t="n">
-        <v>-49.03212738</v>
+        <v>-49.69599152</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04842734336853027</v>
+        <v>0.192357063293457</v>
       </c>
       <c r="L6" t="n">
-        <v>-39.7264328003</v>
+        <v>-40.0031967163</v>
       </c>
       <c r="M6" t="n">
-        <v>-51.0430221558</v>
+        <v>-38.8125305176</v>
       </c>
       <c r="N6" t="n">
-        <v>-50.9414520264</v>
+        <v>-38.7043228149</v>
       </c>
       <c r="O6" t="n">
-        <v>0.211782693862915</v>
+        <v>0.2088370323181152</v>
       </c>
       <c r="P6" t="n">
-        <v>-51.04967117</v>
+        <v>-48.57061386</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3403973579406738</v>
+        <v>1.639378786087036</v>
       </c>
       <c r="R6" t="n">
-        <v>-39.7169876099</v>
+        <v>-39.9893264771</v>
       </c>
       <c r="S6" t="n">
-        <v>-59.0954818726</v>
+        <v>-53.796257019</v>
       </c>
       <c r="T6" t="n">
-        <v>-59.3463897705</v>
+        <v>-53.7090530396</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6397831439971924</v>
+        <v>0.5524904727935791</v>
       </c>
       <c r="V6" t="n">
-        <v>-51.4630928</v>
+        <v>-49.62036896</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2874832153320312</v>
+        <v>2.640942335128784</v>
       </c>
       <c r="X6" t="n">
-        <v>-39.7221832275</v>
+        <v>-39.9863471985</v>
       </c>
       <c r="Y6" t="n">
-        <v>-59.0807266235</v>
+        <v>-53.8280296326</v>
       </c>
       <c r="Z6" t="n">
-        <v>-58.987159729</v>
+        <v>-53.7267875671</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.631889820098877</v>
+        <v>0.5691781044006348</v>
       </c>
       <c r="AB6" t="n">
-        <v>-51.65240479</v>
+        <v>-50.38584137</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.4065558910369873</v>
+        <v>4.812644958496094</v>
       </c>
       <c r="AD6" t="n">
-        <v>-39.722038269</v>
+        <v>-39.9908485413</v>
       </c>
       <c r="AE6" t="n">
-        <v>-59.052520752</v>
+        <v>-53.7837486267</v>
       </c>
       <c r="AF6" t="n">
-        <v>-59.1300811768</v>
+        <v>-53.6800270081</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6417498588562012</v>
+        <v>0.5506787300109863</v>
       </c>
       <c r="AH6" t="n">
-        <v>-51.76656723</v>
+        <v>-50.85428238</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.4983727931976318</v>
+        <v>11.36546444892883</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-39.7183685303</v>
+        <v>-39.9897613525</v>
       </c>
       <c r="AK6" t="n">
-        <v>-58.7390060425</v>
+        <v>-53.8261795044</v>
       </c>
       <c r="AL6" t="n">
-        <v>-59.4487762451</v>
+        <v>-53.7221069336</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.6524946689605713</v>
+        <v>0.5675463676452637</v>
       </c>
       <c r="AN6" t="n">
-        <v>-51.88118744</v>
+        <v>-51.08151245</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.089635610580444</v>
+        <v>22.10097074508667</v>
       </c>
       <c r="AP6" t="n">
-        <v>-39.7145614624</v>
+        <v>-39.992767334</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-59.2921066284</v>
+        <v>-53.8178405762</v>
       </c>
       <c r="AR6" t="n">
-        <v>-59.0653762817</v>
+        <v>-53.7034683228</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.6317155361175537</v>
+        <v>0.5501117706298828</v>
       </c>
       <c r="AT6" t="n">
-        <v>-51.87859344</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>2.105440139770508</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>-39.7211990356</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>-59.0218658447</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>-58.9168319702</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0.6441390514373779</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>10.794</v>
+        <v>49.736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B7" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C7" t="n">
         <v>2.5</v>
@@ -1511,156 +1391,138 @@
         <v>-40</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>23.8</v>
+        <v>7.906</v>
       </c>
       <c r="G7" t="n">
-        <v>-40.05731</v>
+        <v>-40.11771</v>
       </c>
       <c r="H7" t="n">
-        <v>-39.98909</v>
+        <v>-40.06392</v>
       </c>
       <c r="I7" t="n">
-        <v>-39.72420502</v>
+        <v>-40.14324951</v>
       </c>
       <c r="J7" t="n">
-        <v>-47.80963516</v>
+        <v>-49.12155151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05653285980224609</v>
+        <v>0.2035863399505615</v>
       </c>
       <c r="L7" t="n">
-        <v>-39.6177902222</v>
+        <v>-40.2026596069</v>
       </c>
       <c r="M7" t="n">
-        <v>-50.3560409546</v>
+        <v>-37.2758102417</v>
       </c>
       <c r="N7" t="n">
-        <v>-50.2744522095</v>
+        <v>-37.2696380615</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2082436084747314</v>
+        <v>0.2063589096069336</v>
       </c>
       <c r="P7" t="n">
-        <v>-49.67406845</v>
+        <v>-47.90587997</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3505032062530518</v>
+        <v>1.630587100982666</v>
       </c>
       <c r="R7" t="n">
-        <v>-39.6276435852</v>
+        <v>-40.1891174316</v>
       </c>
       <c r="S7" t="n">
-        <v>-58.8349647522</v>
+        <v>-52.2752914429</v>
       </c>
       <c r="T7" t="n">
-        <v>-58.937412262</v>
+        <v>-52.2226486206</v>
       </c>
       <c r="U7" t="n">
-        <v>0.4998722076416016</v>
+        <v>0.5609426498413086</v>
       </c>
       <c r="V7" t="n">
-        <v>-50.08900452</v>
+        <v>-49.05772781</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3030903339385986</v>
+        <v>2.66122841835022</v>
       </c>
       <c r="X7" t="n">
-        <v>-39.62449646</v>
+        <v>-40.1869125366</v>
       </c>
       <c r="Y7" t="n">
-        <v>-58.7278137207</v>
+        <v>-52.3071289062</v>
       </c>
       <c r="Z7" t="n">
-        <v>-58.9426422119</v>
+        <v>-52.258430481</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5009279251098633</v>
+        <v>0.5593914985656738</v>
       </c>
       <c r="AB7" t="n">
-        <v>-50.22005463</v>
+        <v>-49.79190826</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.4025607109069824</v>
+        <v>4.812984704971313</v>
       </c>
       <c r="AD7" t="n">
-        <v>-39.6276130676</v>
+        <v>-40.1777687073</v>
       </c>
       <c r="AE7" t="n">
-        <v>-58.8844261169</v>
+        <v>-52.3211021423</v>
       </c>
       <c r="AF7" t="n">
-        <v>-59.1343574524</v>
+        <v>-52.2904090881</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.5087175369262695</v>
+        <v>0.548961877822876</v>
       </c>
       <c r="AH7" t="n">
-        <v>-50.19516754</v>
+        <v>-50.42164612</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.5179543495178223</v>
+        <v>11.35714364051819</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-39.6310768127</v>
+        <v>-40.1911621094</v>
       </c>
       <c r="AK7" t="n">
-        <v>-58.8788948059</v>
+        <v>-52.2915878296</v>
       </c>
       <c r="AL7" t="n">
-        <v>-59.315448761</v>
+        <v>-52.29637146</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.5238697528839111</v>
+        <v>0.5552389621734619</v>
       </c>
       <c r="AN7" t="n">
-        <v>-50.39832687</v>
+        <v>-50.64878464</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.099908351898193</v>
+        <v>22.20161199569702</v>
       </c>
       <c r="AP7" t="n">
-        <v>-39.630771637</v>
+        <v>-40.1854743958</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-58.8810005188</v>
+        <v>-52.2909355164</v>
       </c>
       <c r="AR7" t="n">
-        <v>-58.9450416565</v>
+        <v>-52.2928733826</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5012991428375244</v>
+        <v>0.5633935928344727</v>
       </c>
       <c r="AT7" t="n">
-        <v>-50.42234802</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>2.103331327438354</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>-39.6256484985</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>-59.0594177246</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>-59.4373016357</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0.5005965232849121</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>10.083</v>
+        <v>49.925</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B8" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C8" t="n">
         <v>2.6</v>
@@ -1669,156 +1531,138 @@
         <v>-40</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>23.806</v>
+        <v>7.906</v>
       </c>
       <c r="G8" t="n">
-        <v>-40.11139</v>
+        <v>-40.16945</v>
       </c>
       <c r="H8" t="n">
-        <v>-40.0162</v>
+        <v>-40.17495</v>
       </c>
       <c r="I8" t="n">
-        <v>-39.71157837</v>
+        <v>-40.19841766</v>
       </c>
       <c r="J8" t="n">
-        <v>-47.51507568</v>
+        <v>-49.53365707</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05070734024047852</v>
+        <v>0.2019891738891602</v>
       </c>
       <c r="L8" t="n">
-        <v>-39.5835723877</v>
+        <v>-40.2606658936</v>
       </c>
       <c r="M8" t="n">
-        <v>-49.9479827881</v>
+        <v>-37.1416625977</v>
       </c>
       <c r="N8" t="n">
-        <v>-50.4167709351</v>
+        <v>-38.4508743286</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2129156589508057</v>
+        <v>0.2082569599151611</v>
       </c>
       <c r="P8" t="n">
-        <v>-48.93776321</v>
+        <v>-47.91414642</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3668892383575439</v>
+        <v>1.667577743530273</v>
       </c>
       <c r="R8" t="n">
-        <v>-39.5826301575</v>
+        <v>-40.2366256714</v>
       </c>
       <c r="S8" t="n">
-        <v>-59.2815361023</v>
+        <v>-52.1543960571</v>
       </c>
       <c r="T8" t="n">
-        <v>-59.4660224915</v>
+        <v>-53.4567337036</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5139803886413574</v>
+        <v>0.5613183975219727</v>
       </c>
       <c r="V8" t="n">
-        <v>-49.22618866</v>
+        <v>-49.19833755</v>
       </c>
       <c r="W8" t="n">
-        <v>0.300023078918457</v>
+        <v>2.713690519332886</v>
       </c>
       <c r="X8" t="n">
-        <v>-39.5833282471</v>
+        <v>-40.2461280823</v>
       </c>
       <c r="Y8" t="n">
-        <v>-58.8901901245</v>
+        <v>-52.1952629089</v>
       </c>
       <c r="Z8" t="n">
-        <v>-58.7738723755</v>
+        <v>-53.4662437439</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5103147029876709</v>
+        <v>0.5573675632476807</v>
       </c>
       <c r="AB8" t="n">
-        <v>-49.3493576</v>
+        <v>-50.12033844</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4033069610595703</v>
+        <v>4.849117040634155</v>
       </c>
       <c r="AD8" t="n">
-        <v>-39.5883102417</v>
+        <v>-40.2328643799</v>
       </c>
       <c r="AE8" t="n">
-        <v>-58.5843048096</v>
+        <v>-52.2104263306</v>
       </c>
       <c r="AF8" t="n">
-        <v>-59.4077835083</v>
+        <v>-53.4685974121</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5098311901092529</v>
+        <v>0.5603024959564209</v>
       </c>
       <c r="AH8" t="n">
-        <v>-49.40616608</v>
+        <v>-50.7558403</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.5008401870727539</v>
+        <v>11.3285448551178</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-39.5810317993</v>
+        <v>-40.2415122986</v>
       </c>
       <c r="AK8" t="n">
-        <v>-59.0153961182</v>
+        <v>-52.1753883362</v>
       </c>
       <c r="AL8" t="n">
-        <v>-59.1332168579</v>
+        <v>-53.4503288269</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.5207467079162598</v>
+        <v>0.5688495635986328</v>
       </c>
       <c r="AN8" t="n">
-        <v>-49.4836998</v>
+        <v>-51.01512909</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.101243257522583</v>
+        <v>22.11381769180298</v>
       </c>
       <c r="AP8" t="n">
-        <v>-39.583065033</v>
+        <v>-40.2454910278</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-59.235408783</v>
+        <v>-52.1692428589</v>
       </c>
       <c r="AR8" t="n">
-        <v>-59.473865509</v>
+        <v>-53.4356231689</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5224790573120117</v>
+        <v>0.554358959197998</v>
       </c>
       <c r="AT8" t="n">
-        <v>-49.56103516</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>2.101279258728027</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>-39.5896606445</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>-59.0238189697</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>-59.4841918945</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0.541797399520874</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>10.203</v>
+        <v>49.943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B9" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C9" t="n">
         <v>2.7</v>
@@ -1830,153 +1674,135 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>7.916</v>
+        <v>7.897</v>
       </c>
       <c r="G9" t="n">
-        <v>-40.10221</v>
+        <v>-40.18092</v>
       </c>
       <c r="H9" t="n">
-        <v>-39.93969</v>
+        <v>-40.14658</v>
       </c>
       <c r="I9" t="n">
-        <v>-39.75469208</v>
+        <v>-40.32408142</v>
       </c>
       <c r="J9" t="n">
-        <v>-48.84594345</v>
+        <v>-49.347229</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04780697822570801</v>
+        <v>0.2014448642730713</v>
       </c>
       <c r="L9" t="n">
-        <v>-39.6309013367</v>
+        <v>-40.1874771118</v>
       </c>
       <c r="M9" t="n">
-        <v>-50.2924232483</v>
+        <v>-38.3603515625</v>
       </c>
       <c r="N9" t="n">
-        <v>-50.3400230408</v>
+        <v>-38.237121582</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2144169807434082</v>
+        <v>0.2090530395507812</v>
       </c>
       <c r="P9" t="n">
-        <v>-51.5</v>
+        <v>-48.1587944</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.361736536026001</v>
+        <v>1.629459857940674</v>
       </c>
       <c r="R9" t="n">
-        <v>-39.6274337769</v>
+        <v>-40.177947998</v>
       </c>
       <c r="S9" t="n">
-        <v>-58.4077224731</v>
+        <v>-53.3524703979</v>
       </c>
       <c r="T9" t="n">
-        <v>-58.5358581543</v>
+        <v>-53.2565383911</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5096988677978516</v>
+        <v>0.5539662837982178</v>
       </c>
       <c r="V9" t="n">
-        <v>-51.98355865</v>
+        <v>-49.31439972</v>
       </c>
       <c r="W9" t="n">
-        <v>0.30708909034729</v>
+        <v>2.714649677276611</v>
       </c>
       <c r="X9" t="n">
-        <v>-39.6277542114</v>
+        <v>-40.1816139221</v>
       </c>
       <c r="Y9" t="n">
-        <v>-58.4873275757</v>
+        <v>-53.3526268005</v>
       </c>
       <c r="Z9" t="n">
-        <v>-58.8256149292</v>
+        <v>-53.2593650818</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5418405532836914</v>
+        <v>0.5530765056610107</v>
       </c>
       <c r="AB9" t="n">
-        <v>-52.27063751</v>
+        <v>-50.07598877</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4253771305084229</v>
+        <v>4.787513494491577</v>
       </c>
       <c r="AD9" t="n">
-        <v>-39.6225013733</v>
+        <v>-40.1785812378</v>
       </c>
       <c r="AE9" t="n">
-        <v>-58.4243888855</v>
+        <v>-53.3865890503</v>
       </c>
       <c r="AF9" t="n">
-        <v>-58.5791664124</v>
+        <v>-53.3105392456</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5428812503814697</v>
+        <v>0.5489504337310791</v>
       </c>
       <c r="AH9" t="n">
-        <v>-52.24261856</v>
+        <v>-50.69449997</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5058250427246094</v>
+        <v>11.33921051025391</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-39.6317520142</v>
+        <v>-40.1839103699</v>
       </c>
       <c r="AK9" t="n">
-        <v>-58.5480728149</v>
+        <v>-53.357585907</v>
       </c>
       <c r="AL9" t="n">
-        <v>-58.753326416</v>
+        <v>-53.2628898621</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.5004308223724365</v>
+        <v>0.556513786315918</v>
       </c>
       <c r="AN9" t="n">
-        <v>-52.48500824</v>
+        <v>-50.85902786</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.108877182006836</v>
+        <v>22.17869925498962</v>
       </c>
       <c r="AP9" t="n">
-        <v>-39.6169815063</v>
+        <v>-40.1750183105</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-58.3620529175</v>
+        <v>-53.3528594971</v>
       </c>
       <c r="AR9" t="n">
-        <v>-58.9212188721</v>
+        <v>-53.251449585</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.502227783203125</v>
+        <v>0.5704019069671631</v>
       </c>
       <c r="AT9" t="n">
-        <v>-52.62245178</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>2.105638027191162</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>-39.6217803955</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>-58.7826004028</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>-59.0197982788</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0.5213911533355713</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>10.262</v>
+        <v>49.921</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B10" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C10" t="n">
         <v>2.8</v>
@@ -1988,153 +1814,135 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>7.916</v>
+        <v>7.896</v>
       </c>
       <c r="G10" t="n">
-        <v>-40.08089</v>
+        <v>-40.24881</v>
       </c>
       <c r="H10" t="n">
-        <v>-39.91936</v>
+        <v>-40.17882</v>
       </c>
       <c r="I10" t="n">
-        <v>-40.18044281</v>
+        <v>-40.23947906</v>
       </c>
       <c r="J10" t="n">
-        <v>-47.6076088</v>
+        <v>-48.67134857</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05692052841186523</v>
+        <v>0.2013840675354004</v>
       </c>
       <c r="L10" t="n">
-        <v>-40.0721817017</v>
+        <v>-40.1915931702</v>
       </c>
       <c r="M10" t="n">
-        <v>-50.148727417</v>
+        <v>-38.1163902283</v>
       </c>
       <c r="N10" t="n">
-        <v>-50.1393051147</v>
+        <v>-38.2331809998</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2238686084747314</v>
+        <v>0.2089855670928955</v>
       </c>
       <c r="P10" t="n">
-        <v>-48.92666245</v>
+        <v>-47.32250977</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3613090515136719</v>
+        <v>1.616644144058228</v>
       </c>
       <c r="R10" t="n">
-        <v>-40.0632133484</v>
+        <v>-40.1738166809</v>
       </c>
       <c r="S10" t="n">
-        <v>-58.7976036072</v>
+        <v>-53.1467933655</v>
       </c>
       <c r="T10" t="n">
-        <v>-59.1527748108</v>
+        <v>-53.2399330139</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5090470314025879</v>
+        <v>0.5621075630187988</v>
       </c>
       <c r="V10" t="n">
-        <v>-49.18136978</v>
+        <v>-48.36388016</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3063554763793945</v>
+        <v>2.682416677474976</v>
       </c>
       <c r="X10" t="n">
-        <v>-40.0610809326</v>
+        <v>-40.16771698</v>
       </c>
       <c r="Y10" t="n">
-        <v>-58.640411377</v>
+        <v>-53.1595840454</v>
       </c>
       <c r="Z10" t="n">
-        <v>-58.8793182373</v>
+        <v>-53.2324142456</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5015497207641602</v>
+        <v>0.5587708950042725</v>
       </c>
       <c r="AB10" t="n">
-        <v>-49.37524796</v>
+        <v>-49.06676865</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.4258959293365479</v>
+        <v>4.805847644805908</v>
       </c>
       <c r="AD10" t="n">
-        <v>-40.0563354492</v>
+        <v>-40.1827774048</v>
       </c>
       <c r="AE10" t="n">
-        <v>-58.8564682007</v>
+        <v>-53.1256332397</v>
       </c>
       <c r="AF10" t="n">
-        <v>-58.9194641113</v>
+        <v>-53.1909255981</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5029990673065186</v>
+        <v>0.5683567523956299</v>
       </c>
       <c r="AH10" t="n">
-        <v>-49.43585968</v>
+        <v>-49.54614639</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.5058465003967285</v>
+        <v>11.34271454811096</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-40.0589790344</v>
+        <v>-40.1772613525</v>
       </c>
       <c r="AK10" t="n">
-        <v>-58.7842063904</v>
+        <v>-53.150642395</v>
       </c>
       <c r="AL10" t="n">
-        <v>-59.249584198</v>
+        <v>-53.213180542</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5014150142669678</v>
+        <v>0.5500662326812744</v>
       </c>
       <c r="AN10" t="n">
-        <v>-49.47092056</v>
+        <v>-49.72285461</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.102044820785522</v>
+        <v>22.14330649375916</v>
       </c>
       <c r="AP10" t="n">
-        <v>-40.0668563843</v>
+        <v>-40.177444458</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-58.8288192749</v>
+        <v>-53.1608581543</v>
       </c>
       <c r="AR10" t="n">
-        <v>-59.1897659302</v>
+        <v>-53.2582092285</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5000379085540771</v>
+        <v>0.5684220790863037</v>
       </c>
       <c r="AT10" t="n">
-        <v>-49.53470612</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>2.106880664825439</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>-40.0730514526</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>-58.9292984009</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>-59.3748245239</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0.5010294914245605</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>10.135</v>
+        <v>49.856</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B11" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C11" t="n">
         <v>2.9</v>
@@ -2146,153 +1954,135 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>7.926</v>
+        <v>7.901</v>
       </c>
       <c r="G11" t="n">
-        <v>-40.13294</v>
+        <v>-40.31631</v>
       </c>
       <c r="H11" t="n">
-        <v>-40.0616</v>
+        <v>-40.23214</v>
       </c>
       <c r="I11" t="n">
-        <v>-39.88702393</v>
+        <v>-40.35002899</v>
       </c>
       <c r="J11" t="n">
-        <v>-47.37428284</v>
+        <v>-48.94418716</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04932713508605957</v>
+        <v>0.2009346485137939</v>
       </c>
       <c r="L11" t="n">
-        <v>-39.7686004639</v>
+        <v>-40.274143219</v>
       </c>
       <c r="M11" t="n">
-        <v>-50.0533294678</v>
+        <v>-38.5246925354</v>
       </c>
       <c r="N11" t="n">
-        <v>-49.9187927246</v>
+        <v>-38.4342079163</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2127199172973633</v>
+        <v>0.2078003883361816</v>
       </c>
       <c r="P11" t="n">
-        <v>-48.98561859</v>
+        <v>-47.68457413</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3779222965240479</v>
+        <v>1.608782768249512</v>
       </c>
       <c r="R11" t="n">
-        <v>-39.7535095215</v>
+        <v>-40.2640686035</v>
       </c>
       <c r="S11" t="n">
-        <v>-59.1874694824</v>
+        <v>-53.5067825317</v>
       </c>
       <c r="T11" t="n">
-        <v>-58.8063201904</v>
+        <v>-53.4496994019</v>
       </c>
       <c r="U11" t="n">
-        <v>0.500340461730957</v>
+        <v>0.5493330955505371</v>
       </c>
       <c r="V11" t="n">
-        <v>-49.32733154</v>
+        <v>-48.85943604</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3056747913360596</v>
+        <v>2.654137372970581</v>
       </c>
       <c r="X11" t="n">
-        <v>-39.7454376221</v>
+        <v>-40.2635421753</v>
       </c>
       <c r="Y11" t="n">
-        <v>-58.9001998901</v>
+        <v>-53.5149230957</v>
       </c>
       <c r="Z11" t="n">
-        <v>-58.7163238525</v>
+        <v>-53.4549179077</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5205099582672119</v>
+        <v>0.5517048835754395</v>
       </c>
       <c r="AB11" t="n">
-        <v>-49.48398972</v>
+        <v>-49.62239075</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4084846973419189</v>
+        <v>4.830134153366089</v>
       </c>
       <c r="AD11" t="n">
-        <v>-39.7476043701</v>
+        <v>-40.2549057007</v>
       </c>
       <c r="AE11" t="n">
-        <v>-59.0974884033</v>
+        <v>-53.5270080566</v>
       </c>
       <c r="AF11" t="n">
-        <v>-58.6089935303</v>
+        <v>-53.4631347656</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5193135738372803</v>
+        <v>0.5514698028564453</v>
       </c>
       <c r="AH11" t="n">
-        <v>-49.55625534</v>
+        <v>-50.25688553</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.5238771438598633</v>
+        <v>11.37553715705872</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-39.7491149902</v>
+        <v>-40.2712249756</v>
       </c>
       <c r="AK11" t="n">
-        <v>-58.9087524414</v>
+        <v>-53.4963302612</v>
       </c>
       <c r="AL11" t="n">
-        <v>-59.3388366699</v>
+        <v>-53.4628677368</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5058829784393311</v>
+        <v>0.5479717254638672</v>
       </c>
       <c r="AN11" t="n">
-        <v>-49.64120865</v>
+        <v>-50.46598053</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.110175609588623</v>
+        <v>22.08440518379211</v>
       </c>
       <c r="AP11" t="n">
-        <v>-39.7509231567</v>
+        <v>-40.2580947876</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-58.8931808472</v>
+        <v>-53.5545730591</v>
       </c>
       <c r="AR11" t="n">
-        <v>-59.2755661011</v>
+        <v>-53.4808883667</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5210258960723877</v>
+        <v>0.5528717041015625</v>
       </c>
       <c r="AT11" t="n">
-        <v>-49.64201355</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>2.107972383499146</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>-39.7550354004</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>-58.717880249</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>-59.0542449951</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0.5191676616668701</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>10.22</v>
+        <v>49.779</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B12" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -2304,153 +2094,135 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>7.925</v>
+        <v>7.912</v>
       </c>
       <c r="G12" t="n">
-        <v>-40.03451</v>
+        <v>-40.27487</v>
       </c>
       <c r="H12" t="n">
-        <v>-40.01827</v>
+        <v>-40.23865</v>
       </c>
       <c r="I12" t="n">
-        <v>-39.77935791</v>
+        <v>-40.43190765</v>
       </c>
       <c r="J12" t="n">
-        <v>-47.54044342</v>
+        <v>-48.73210907</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0448305606842041</v>
+        <v>0.1914894580841064</v>
       </c>
       <c r="L12" t="n">
-        <v>-39.6784744263</v>
+        <v>-40.2949104309</v>
       </c>
       <c r="M12" t="n">
-        <v>-49.3480300903</v>
+        <v>-38.2472496033</v>
       </c>
       <c r="N12" t="n">
-        <v>-49.9181518555</v>
+        <v>-39.7365989685</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2091126441955566</v>
+        <v>0.2115886211395264</v>
       </c>
       <c r="P12" t="n">
-        <v>-49.77919769</v>
+        <v>-47.32743835</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3595235347747803</v>
+        <v>1.634812116622925</v>
       </c>
       <c r="R12" t="n">
-        <v>-39.6721763611</v>
+        <v>-40.2963600159</v>
       </c>
       <c r="S12" t="n">
-        <v>-58.9393806458</v>
+        <v>-53.264705658</v>
       </c>
       <c r="T12" t="n">
-        <v>-58.8621101379</v>
+        <v>-54.6703224182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5112440586090088</v>
+        <v>0.5521106719970703</v>
       </c>
       <c r="V12" t="n">
-        <v>-50.24245834</v>
+        <v>-48.57595825</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3066813945770264</v>
+        <v>2.647436141967773</v>
       </c>
       <c r="X12" t="n">
-        <v>-39.6769294739</v>
+        <v>-40.2930297852</v>
       </c>
       <c r="Y12" t="n">
-        <v>-58.9629859924</v>
+        <v>-53.2634506226</v>
       </c>
       <c r="Z12" t="n">
-        <v>-59.0129814148</v>
+        <v>-54.6761474609</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5218198299407959</v>
+        <v>0.5512621402740479</v>
       </c>
       <c r="AB12" t="n">
-        <v>-50.48639297</v>
+        <v>-49.47264099</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.42836594581604</v>
+        <v>4.819665908813477</v>
       </c>
       <c r="AD12" t="n">
-        <v>-39.6769371033</v>
+        <v>-40.2925453186</v>
       </c>
       <c r="AE12" t="n">
-        <v>-58.9054374695</v>
+        <v>-53.2749595642</v>
       </c>
       <c r="AF12" t="n">
-        <v>-58.9234428406</v>
+        <v>-54.6724815369</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5039582252502441</v>
+        <v>0.5575375556945801</v>
       </c>
       <c r="AH12" t="n">
-        <v>-50.45654297</v>
+        <v>-50.11174011</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.5075216293334961</v>
+        <v>11.33319759368896</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-39.6657867432</v>
+        <v>-40.2890472412</v>
       </c>
       <c r="AK12" t="n">
-        <v>-58.9469223022</v>
+        <v>-53.2554626465</v>
       </c>
       <c r="AL12" t="n">
-        <v>-59.4329910278</v>
+        <v>-54.6923065186</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.5221798419952393</v>
+        <v>0.5582003593444824</v>
       </c>
       <c r="AN12" t="n">
-        <v>-50.71567154</v>
+        <v>-50.30156708</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.105698108673096</v>
+        <v>22.0959324836731</v>
       </c>
       <c r="AP12" t="n">
-        <v>-39.6729240417</v>
+        <v>-40.2857284546</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-58.8986320496</v>
+        <v>-53.2508926392</v>
       </c>
       <c r="AR12" t="n">
-        <v>-59.11977005</v>
+        <v>-54.7219009399</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5010786056518555</v>
+        <v>0.5632410049438477</v>
       </c>
       <c r="AT12" t="n">
-        <v>-50.75957489</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>2.123539924621582</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>-39.6809082031</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>-58.3178939819</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>-59.6580429077</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0.5056333541870117</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>10.203</v>
+        <v>49.798</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B13" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C13" t="n">
         <v>3.1</v>
@@ -2459,156 +2231,138 @@
         <v>-40</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>23.794</v>
+        <v>7.896</v>
       </c>
       <c r="G13" t="n">
-        <v>-40.10559</v>
+        <v>-40.36281</v>
       </c>
       <c r="H13" t="n">
-        <v>-39.98982</v>
+        <v>-40.23098</v>
       </c>
       <c r="I13" t="n">
-        <v>-39.79605865</v>
+        <v>-40.31678772</v>
       </c>
       <c r="J13" t="n">
-        <v>-48.1696701</v>
+        <v>-49.29539108</v>
       </c>
       <c r="K13" t="n">
-        <v>0.05661582946777344</v>
+        <v>0.1933236122131348</v>
       </c>
       <c r="L13" t="n">
-        <v>-39.7269515991</v>
+        <v>-40.2024879456</v>
       </c>
       <c r="M13" t="n">
-        <v>-49.6927185059</v>
+        <v>-40.1628074646</v>
       </c>
       <c r="N13" t="n">
-        <v>-49.625541687</v>
+        <v>-40.2460823059</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2178773880004883</v>
+        <v>0.209583044052124</v>
       </c>
       <c r="P13" t="n">
-        <v>-50.10765457</v>
+        <v>-47.77561569</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3506126403808594</v>
+        <v>1.613414287567139</v>
       </c>
       <c r="R13" t="n">
-        <v>-39.7114639282</v>
+        <v>-40.1938934326</v>
       </c>
       <c r="S13" t="n">
-        <v>-58.4960708618</v>
+        <v>-55.1274261475</v>
       </c>
       <c r="T13" t="n">
-        <v>-58.4155197144</v>
+        <v>-55.2768249512</v>
       </c>
       <c r="U13" t="n">
-        <v>0.500967264175415</v>
+        <v>0.5525600910186768</v>
       </c>
       <c r="V13" t="n">
-        <v>-50.64859009</v>
+        <v>-49.0853157</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3046727180480957</v>
+        <v>2.667211771011353</v>
       </c>
       <c r="X13" t="n">
-        <v>-39.7127189636</v>
+        <v>-40.1871833801</v>
       </c>
       <c r="Y13" t="n">
-        <v>-58.5650978088</v>
+        <v>-55.1478385925</v>
       </c>
       <c r="Z13" t="n">
-        <v>-58.637714386</v>
+        <v>-55.2391624451</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.5113298892974854</v>
+        <v>0.5539748668670654</v>
       </c>
       <c r="AB13" t="n">
-        <v>-50.79397583</v>
+        <v>-49.96434021</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.4090158939361572</v>
+        <v>4.812230348587036</v>
       </c>
       <c r="AD13" t="n">
-        <v>-39.7263183594</v>
+        <v>-40.1892166138</v>
       </c>
       <c r="AE13" t="n">
-        <v>-58.7216262817</v>
+        <v>-55.0998001099</v>
       </c>
       <c r="AF13" t="n">
-        <v>-58.7875137329</v>
+        <v>-55.2321548462</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.5112707614898682</v>
+        <v>0.5584707260131836</v>
       </c>
       <c r="AH13" t="n">
-        <v>-50.97247314</v>
+        <v>-50.66412354</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.5051243305206299</v>
+        <v>11.30003547668457</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-39.7247238159</v>
+        <v>-40.1951751709</v>
       </c>
       <c r="AK13" t="n">
-        <v>-58.4386444092</v>
+        <v>-55.1738586426</v>
       </c>
       <c r="AL13" t="n">
-        <v>-58.9328918457</v>
+        <v>-55.2708129883</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.5118899345397949</v>
+        <v>0.5539472103118896</v>
       </c>
       <c r="AN13" t="n">
-        <v>-50.9694519</v>
+        <v>-50.87543106</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.1047043800354</v>
+        <v>22.10389447212219</v>
       </c>
       <c r="AP13" t="n">
-        <v>-39.7043113708</v>
+        <v>-40.1938285828</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-58.4148979187</v>
+        <v>-55.1360969543</v>
       </c>
       <c r="AR13" t="n">
-        <v>-58.3264732361</v>
+        <v>-55.2443275452</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.5207805633544922</v>
+        <v>0.554354190826416</v>
       </c>
       <c r="AT13" t="n">
-        <v>-51.1552887</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>2.105848789215088</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>-39.7214355469</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>-58.6738052368</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>-58.6369857788</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0.5028963088989258</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>10.175</v>
+        <v>49.749</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B14" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C14" t="n">
         <v>3.2</v>
@@ -2620,153 +2374,135 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>7.918</v>
+        <v>7.902</v>
       </c>
       <c r="G14" t="n">
-        <v>-40.15365</v>
+        <v>-40.36923</v>
       </c>
       <c r="H14" t="n">
-        <v>-40.02913</v>
+        <v>-40.28445</v>
       </c>
       <c r="I14" t="n">
-        <v>-39.72200012</v>
+        <v>-40.3266983</v>
       </c>
       <c r="J14" t="n">
-        <v>-46.899086</v>
+        <v>-48.84399414</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04774641990661621</v>
+        <v>0.2031445503234863</v>
       </c>
       <c r="L14" t="n">
-        <v>-39.6697807312</v>
+        <v>-40.290512085</v>
       </c>
       <c r="M14" t="n">
-        <v>-48.8378791809</v>
+        <v>-39.0194015503</v>
       </c>
       <c r="N14" t="n">
-        <v>-49.1100578308</v>
+        <v>-39.9732971191</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2160038948059082</v>
+        <v>0.209787130355835</v>
       </c>
       <c r="P14" t="n">
-        <v>-49.39554596</v>
+        <v>-47.24938202</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.362220287322998</v>
+        <v>1.627721071243286</v>
       </c>
       <c r="R14" t="n">
-        <v>-39.6572914124</v>
+        <v>-40.2722206116</v>
       </c>
       <c r="S14" t="n">
-        <v>-58.8261299133</v>
+        <v>-54.0523414612</v>
       </c>
       <c r="T14" t="n">
-        <v>-58.9684333801</v>
+        <v>-55.0581016541</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5084550380706787</v>
+        <v>0.5568385124206543</v>
       </c>
       <c r="V14" t="n">
-        <v>-49.93726349</v>
+        <v>-48.6373558</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3074214458465576</v>
+        <v>2.638200521469116</v>
       </c>
       <c r="X14" t="n">
-        <v>-39.65001297</v>
+        <v>-40.2785263062</v>
       </c>
       <c r="Y14" t="n">
-        <v>-58.5715065002</v>
+        <v>-54.0101394653</v>
       </c>
       <c r="Z14" t="n">
-        <v>-58.8082847595</v>
+        <v>-55.0109329224</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5301520824432373</v>
+        <v>0.5595138072967529</v>
       </c>
       <c r="AB14" t="n">
-        <v>-50.08784866</v>
+        <v>-49.61194611</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.4064781665802002</v>
+        <v>4.817448616027832</v>
       </c>
       <c r="AD14" t="n">
-        <v>-39.6566467285</v>
+        <v>-40.2722587585</v>
       </c>
       <c r="AE14" t="n">
-        <v>-58.5703201294</v>
+        <v>-54.034488678</v>
       </c>
       <c r="AF14" t="n">
-        <v>-58.7727966309</v>
+        <v>-55.028842926</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.5089528560638428</v>
+        <v>0.5614879131317139</v>
       </c>
       <c r="AH14" t="n">
-        <v>-50.1515274</v>
+        <v>-50.40364075</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.5059266090393066</v>
+        <v>11.40328049659729</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-39.6558532715</v>
+        <v>-40.2775764465</v>
       </c>
       <c r="AK14" t="n">
-        <v>-58.7482452393</v>
+        <v>-53.9643516541</v>
       </c>
       <c r="AL14" t="n">
-        <v>-58.5636749268</v>
+        <v>-55.0038795471</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.5119636058807373</v>
+        <v>0.5584135055541992</v>
       </c>
       <c r="AN14" t="n">
-        <v>-50.28987885</v>
+        <v>-50.64231491</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.102601289749146</v>
+        <v>21.93080949783325</v>
       </c>
       <c r="AP14" t="n">
-        <v>-39.6596221924</v>
+        <v>-40.2761650085</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-59.0784683228</v>
+        <v>-54.031665802</v>
       </c>
       <c r="AR14" t="n">
-        <v>-58.9210128784</v>
+        <v>-55.0501060486</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5228602886199951</v>
+        <v>0.5638482570648193</v>
       </c>
       <c r="AT14" t="n">
-        <v>-50.35189056</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>2.103217840194702</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>-39.6608657837</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>-58.7596969604</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>-58.7471389771</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0.5116899013519287</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>10.28</v>
+        <v>49.774</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B15" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C15" t="n">
         <v>3.3</v>
@@ -2778,153 +2514,135 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>7.927</v>
+        <v>7.906</v>
       </c>
       <c r="G15" t="n">
-        <v>-40.01246</v>
+        <v>-40.39649</v>
       </c>
       <c r="H15" t="n">
-        <v>-39.9474</v>
+        <v>-40.31441</v>
       </c>
       <c r="I15" t="n">
-        <v>-39.73910522</v>
+        <v>-40.34705353</v>
       </c>
       <c r="J15" t="n">
-        <v>-47.45622635</v>
+        <v>-49.06555557</v>
       </c>
       <c r="K15" t="n">
-        <v>0.04592728614807129</v>
+        <v>0.1925680637359619</v>
       </c>
       <c r="L15" t="n">
-        <v>-39.6995582581</v>
+        <v>-40.3239021301</v>
       </c>
       <c r="M15" t="n">
-        <v>-48.9707756042</v>
+        <v>-40.1869163513</v>
       </c>
       <c r="N15" t="n">
-        <v>-48.8108329773</v>
+        <v>-40.0339622498</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2153084278106689</v>
+        <v>0.20953369140625</v>
       </c>
       <c r="P15" t="n">
-        <v>-49.17160034</v>
+        <v>-47.4397049</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3587057590484619</v>
+        <v>1.618484973907471</v>
       </c>
       <c r="R15" t="n">
-        <v>-39.6874694824</v>
+        <v>-40.3096237183</v>
       </c>
       <c r="S15" t="n">
-        <v>-58.7608337402</v>
+        <v>-55.1740646362</v>
       </c>
       <c r="T15" t="n">
-        <v>-58.8256454468</v>
+        <v>-55.0638198853</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5206561088562012</v>
+        <v>0.5575442314147949</v>
       </c>
       <c r="V15" t="n">
-        <v>-49.44584274</v>
+        <v>-48.897789</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2992148399353027</v>
+        <v>2.642779350280762</v>
       </c>
       <c r="X15" t="n">
-        <v>-39.6928291321</v>
+        <v>-40.3198318481</v>
       </c>
       <c r="Y15" t="n">
-        <v>-58.3823127747</v>
+        <v>-55.18775177</v>
       </c>
       <c r="Z15" t="n">
-        <v>-58.4153404236</v>
+        <v>-55.0720977783</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5109050273895264</v>
+        <v>0.5544943809509277</v>
       </c>
       <c r="AB15" t="n">
-        <v>-49.64988327</v>
+        <v>-49.9072876</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4189767837524414</v>
+        <v>4.825700759887695</v>
       </c>
       <c r="AD15" t="n">
-        <v>-39.6947288513</v>
+        <v>-40.3003158569</v>
       </c>
       <c r="AE15" t="n">
-        <v>-58.4703330994</v>
+        <v>-55.2200088501</v>
       </c>
       <c r="AF15" t="n">
-        <v>-58.7180595398</v>
+        <v>-55.0985412598</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.5020608901977539</v>
+        <v>0.550825834274292</v>
       </c>
       <c r="AH15" t="n">
-        <v>-49.74975967</v>
+        <v>-50.79263306</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.4991316795349121</v>
+        <v>11.35881900787354</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-39.6860542297</v>
+        <v>-40.3131332397</v>
       </c>
       <c r="AK15" t="n">
-        <v>-58.3460044861</v>
+        <v>-55.1694869995</v>
       </c>
       <c r="AL15" t="n">
-        <v>-58.4678764343</v>
+        <v>-55.0460662842</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.5020532608032227</v>
+        <v>0.5505175590515137</v>
       </c>
       <c r="AN15" t="n">
-        <v>-49.889431</v>
+        <v>-51.07418442</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.10026216506958</v>
+        <v>21.99752426147461</v>
       </c>
       <c r="AP15" t="n">
-        <v>-39.6962242126</v>
+        <v>-40.3135147095</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-58.2869148254</v>
+        <v>-55.2198257446</v>
       </c>
       <c r="AR15" t="n">
-        <v>-58.7358665466</v>
+        <v>-55.0700302124</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.5010647773742676</v>
+        <v>0.5511832237243652</v>
       </c>
       <c r="AT15" t="n">
-        <v>-49.97360992</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>2.100862264633179</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>-39.6965103149</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>-58.1295852661</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>-58.5592651367</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0.5215139389038086</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>10.082</v>
+        <v>49.617</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B16" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C16" t="n">
         <v>3.4</v>
@@ -2936,153 +2654,135 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>7.915</v>
+        <v>7.905</v>
       </c>
       <c r="G16" t="n">
-        <v>-40.04989</v>
+        <v>-40.40626</v>
       </c>
       <c r="H16" t="n">
-        <v>-39.91004</v>
+        <v>-40.35206</v>
       </c>
       <c r="I16" t="n">
-        <v>-39.75210571</v>
+        <v>-40.50247955</v>
       </c>
       <c r="J16" t="n">
-        <v>-47.70158768</v>
+        <v>-48.92414474</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0501253604888916</v>
+        <v>0.1966152191162109</v>
       </c>
       <c r="L16" t="n">
-        <v>-39.7017097473</v>
+        <v>-40.3725852966</v>
       </c>
       <c r="M16" t="n">
-        <v>-48.5532264709</v>
+        <v>-40.2195777893</v>
       </c>
       <c r="N16" t="n">
-        <v>-48.4865989685</v>
+        <v>-40.2536201477</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2150590419769287</v>
+        <v>0.2061223983764648</v>
       </c>
       <c r="P16" t="n">
-        <v>-51.08575439</v>
+        <v>-47.30867767</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3530542850494385</v>
+        <v>1.618187189102173</v>
       </c>
       <c r="R16" t="n">
-        <v>-39.7037849426</v>
+        <v>-40.3554725647</v>
       </c>
       <c r="S16" t="n">
-        <v>-58.6992454529</v>
+        <v>-55.2549552917</v>
       </c>
       <c r="T16" t="n">
-        <v>-58.2519111633</v>
+        <v>-55.2775688171</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5066595077514648</v>
+        <v>0.5518953800201416</v>
       </c>
       <c r="V16" t="n">
-        <v>-51.81158447</v>
+        <v>-48.81522751</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3016080856323242</v>
+        <v>2.628853559494019</v>
       </c>
       <c r="X16" t="n">
-        <v>-39.6931762695</v>
+        <v>-40.3695602417</v>
       </c>
       <c r="Y16" t="n">
-        <v>-57.8128967285</v>
+        <v>-55.2156906128</v>
       </c>
       <c r="Z16" t="n">
-        <v>-58.7241973877</v>
+        <v>-55.3248672485</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.5108299255371094</v>
+        <v>0.5509898662567139</v>
       </c>
       <c r="AB16" t="n">
-        <v>-52.19903946</v>
+        <v>-49.91514587</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.4023771286010742</v>
+        <v>4.808770895004272</v>
       </c>
       <c r="AD16" t="n">
-        <v>-39.695602417</v>
+        <v>-40.3674354553</v>
       </c>
       <c r="AE16" t="n">
-        <v>-58.3933105469</v>
+        <v>-55.2432899475</v>
       </c>
       <c r="AF16" t="n">
-        <v>-58.7060394287</v>
+        <v>-55.3261985779</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5200662612915039</v>
+        <v>0.5513184070587158</v>
       </c>
       <c r="AH16" t="n">
-        <v>-52.35756683</v>
+        <v>-50.75077438</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.5085339546203613</v>
+        <v>11.29425525665283</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-39.6848373413</v>
+        <v>-40.3615875244</v>
       </c>
       <c r="AK16" t="n">
-        <v>-58.5831985474</v>
+        <v>-55.2231292725</v>
       </c>
       <c r="AL16" t="n">
-        <v>-58.3812789917</v>
+        <v>-55.3104400635</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.521946907043457</v>
+        <v>0.5529477596282959</v>
       </c>
       <c r="AN16" t="n">
-        <v>-52.61056519</v>
+        <v>-51.08448029</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.100255012512207</v>
+        <v>22.15823197364807</v>
       </c>
       <c r="AP16" t="n">
-        <v>-39.6884078979</v>
+        <v>-40.362285614</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-58.2241897583</v>
+        <v>-55.2257728577</v>
       </c>
       <c r="AR16" t="n">
-        <v>-57.9285430908</v>
+        <v>-55.3163490295</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5107250213623047</v>
+        <v>0.5502870082855225</v>
       </c>
       <c r="AT16" t="n">
-        <v>-52.76829147</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>2.107765913009644</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>-39.6968421936</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>-58.6215629578</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>-58.2574424744</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0.5306777954101562</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>10.173</v>
+        <v>49.725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B17" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C17" t="n">
         <v>3.5</v>
@@ -3091,156 +2791,138 @@
         <v>-40</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>23.805</v>
+        <v>7.895</v>
       </c>
       <c r="G17" t="n">
-        <v>-40.18702</v>
+        <v>-40.47195</v>
       </c>
       <c r="H17" t="n">
-        <v>-40.04032</v>
+        <v>-40.37042</v>
       </c>
       <c r="I17" t="n">
-        <v>-39.6980896</v>
+        <v>-40.40019226</v>
       </c>
       <c r="J17" t="n">
-        <v>-46.56058502</v>
+        <v>-48.52023315</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05011940002441406</v>
+        <v>0.1967294216156006</v>
       </c>
       <c r="L17" t="n">
-        <v>-39.6275558472</v>
+        <v>-40.4434928894</v>
       </c>
       <c r="M17" t="n">
-        <v>-47.9611129761</v>
+        <v>-38.8313026428</v>
       </c>
       <c r="N17" t="n">
-        <v>-47.8044204712</v>
+        <v>-38.5206184387</v>
       </c>
       <c r="O17" t="n">
-        <v>0.208890438079834</v>
+        <v>0.2041919231414795</v>
       </c>
       <c r="P17" t="n">
-        <v>-49.10037231</v>
+        <v>-48.40102768</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3706748485565186</v>
+        <v>1.624842643737793</v>
       </c>
       <c r="R17" t="n">
-        <v>-39.6204566956</v>
+        <v>-40.4376945496</v>
       </c>
       <c r="S17" t="n">
-        <v>-58.2982749939</v>
+        <v>-53.8401451111</v>
       </c>
       <c r="T17" t="n">
-        <v>-58.5316886902</v>
+        <v>-53.5057563782</v>
       </c>
       <c r="U17" t="n">
-        <v>0.5006630420684814</v>
+        <v>0.5179088115692139</v>
       </c>
       <c r="V17" t="n">
-        <v>-49.61297989</v>
+        <v>-49.47530365</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3067951202392578</v>
+        <v>2.654870510101318</v>
       </c>
       <c r="X17" t="n">
-        <v>-39.6191329956</v>
+        <v>-40.4287338257</v>
       </c>
       <c r="Y17" t="n">
-        <v>-58.5940246582</v>
+        <v>-53.8743972778</v>
       </c>
       <c r="Z17" t="n">
-        <v>-58.3069076538</v>
+        <v>-53.5468597412</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.5121469497680664</v>
+        <v>0.515066385269165</v>
       </c>
       <c r="AB17" t="n">
-        <v>-49.81489563</v>
+        <v>-50.14390564</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4022858142852783</v>
+        <v>4.823652267456055</v>
       </c>
       <c r="AD17" t="n">
-        <v>-39.6298599243</v>
+        <v>-40.4372596741</v>
       </c>
       <c r="AE17" t="n">
-        <v>-58.2625961304</v>
+        <v>-53.7978172302</v>
       </c>
       <c r="AF17" t="n">
-        <v>-58.6477966309</v>
+        <v>-53.5400047302</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5086896419525146</v>
+        <v>0.5207703113555908</v>
       </c>
       <c r="AH17" t="n">
-        <v>-49.96047592</v>
+        <v>-50.61448669</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.4999806880950928</v>
+        <v>11.30822587013245</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-39.6197662354</v>
+        <v>-40.430557251</v>
       </c>
       <c r="AK17" t="n">
-        <v>-58.4368286133</v>
+        <v>-53.8108444214</v>
       </c>
       <c r="AL17" t="n">
-        <v>-58.1261749268</v>
+        <v>-53.5652160645</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.5012493133544922</v>
+        <v>0.5192689895629883</v>
       </c>
       <c r="AN17" t="n">
-        <v>-50.16265488</v>
+        <v>-50.79909515</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.099098682403564</v>
+        <v>22.10260009765625</v>
       </c>
       <c r="AP17" t="n">
-        <v>-39.6239776611</v>
+        <v>-40.4380073547</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-58.0832977295</v>
+        <v>-53.7965736389</v>
       </c>
       <c r="AR17" t="n">
-        <v>-58.1982727051</v>
+        <v>-53.546245575</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5022051334381104</v>
+        <v>0.5227651596069336</v>
       </c>
       <c r="AT17" t="n">
-        <v>-50.20601654</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>2.098606824874878</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>-39.6314849854</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>-58.6210327148</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>-57.7163696289</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0.5016560554504395</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>10.065</v>
+        <v>49.55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B18" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C18" t="n">
         <v>3.6</v>
@@ -3252,153 +2934,135 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>7.921</v>
+        <v>7.906</v>
       </c>
       <c r="G18" t="n">
-        <v>-40.07246</v>
+        <v>-40.45629</v>
       </c>
       <c r="H18" t="n">
-        <v>-39.96623</v>
+        <v>-40.42131</v>
       </c>
       <c r="I18" t="n">
-        <v>-39.68018341</v>
+        <v>-40.44972229</v>
       </c>
       <c r="J18" t="n">
-        <v>-46.27187729</v>
+        <v>-48.68042374</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04479742050170898</v>
+        <v>0.1942238807678223</v>
       </c>
       <c r="L18" t="n">
-        <v>-39.6434249878</v>
+        <v>-40.4422798157</v>
       </c>
       <c r="M18" t="n">
-        <v>-47.9167404175</v>
+        <v>-38.6617240906</v>
       </c>
       <c r="N18" t="n">
-        <v>-48.0090408325</v>
+        <v>-38.8995323181</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2132184505462646</v>
+        <v>0.2063870429992676</v>
       </c>
       <c r="P18" t="n">
-        <v>-48.48615265</v>
+        <v>-48.40487671</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3517622947692871</v>
+        <v>1.629452228546143</v>
       </c>
       <c r="R18" t="n">
-        <v>-39.6277046204</v>
+        <v>-40.4297103882</v>
       </c>
       <c r="S18" t="n">
-        <v>-58.1382484436</v>
+        <v>-53.7467269897</v>
       </c>
       <c r="T18" t="n">
-        <v>-57.9941673279</v>
+        <v>-53.918296814</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5120396614074707</v>
+        <v>0.5417990684509277</v>
       </c>
       <c r="V18" t="n">
-        <v>-49.01204681</v>
+        <v>-49.47375488</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2996234893798828</v>
+        <v>2.671161413192749</v>
       </c>
       <c r="X18" t="n">
-        <v>-39.6335678101</v>
+        <v>-40.4267311096</v>
       </c>
       <c r="Y18" t="n">
-        <v>-58.2066116333</v>
+        <v>-53.7197151184</v>
       </c>
       <c r="Z18" t="n">
-        <v>-57.8723526001</v>
+        <v>-53.9111213684</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5117838382720947</v>
+        <v>0.5184574127197266</v>
       </c>
       <c r="AB18" t="n">
-        <v>-49.15156937</v>
+        <v>-50.15616608</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.4188103675842285</v>
+        <v>4.851907253265381</v>
       </c>
       <c r="AD18" t="n">
-        <v>-39.630657196</v>
+        <v>-40.425907135</v>
       </c>
       <c r="AE18" t="n">
-        <v>-58.3033180237</v>
+        <v>-53.7302894592</v>
       </c>
       <c r="AF18" t="n">
-        <v>-57.8186912537</v>
+        <v>-53.9234733582</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.5116517543792725</v>
+        <v>0.5241000652313232</v>
       </c>
       <c r="AH18" t="n">
-        <v>-49.29334641</v>
+        <v>-50.66598892</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.5006535053253174</v>
+        <v>11.32173824310303</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-39.6321563721</v>
+        <v>-40.4258766174</v>
       </c>
       <c r="AK18" t="n">
-        <v>-58.0819168091</v>
+        <v>-53.6749992371</v>
       </c>
       <c r="AL18" t="n">
-        <v>-58.427116394</v>
+        <v>-53.9330406189</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.5024347305297852</v>
+        <v>0.5194313526153564</v>
       </c>
       <c r="AN18" t="n">
-        <v>-49.40188599</v>
+        <v>-50.85935593</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.099743127822876</v>
+        <v>22.17640233039856</v>
       </c>
       <c r="AP18" t="n">
-        <v>-39.634147644</v>
+        <v>-40.4283294678</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-58.3026046753</v>
+        <v>-53.7281646729</v>
       </c>
       <c r="AR18" t="n">
-        <v>-57.7940597534</v>
+        <v>-53.9167938232</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.52205491065979</v>
+        <v>0.530585765838623</v>
       </c>
       <c r="AT18" t="n">
-        <v>-49.45399857</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>2.101572036743164</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>-39.6364517212</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>-57.9715957642</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>-58.3332443237</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0.5016167163848877</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>10.125</v>
+        <v>49.669</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B19" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C19" t="n">
         <v>3.7</v>
@@ -3410,153 +3074,135 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>7.932</v>
+        <v>7.9</v>
       </c>
       <c r="G19" t="n">
-        <v>-40.15423</v>
+        <v>-40.52067</v>
       </c>
       <c r="H19" t="n">
-        <v>-40.06712</v>
+        <v>-40.40646</v>
       </c>
       <c r="I19" t="n">
-        <v>-39.79862976</v>
+        <v>-40.5226059</v>
       </c>
       <c r="J19" t="n">
-        <v>-47.12241745</v>
+        <v>-48.58109283</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04999136924743652</v>
+        <v>0.2003703117370605</v>
       </c>
       <c r="L19" t="n">
-        <v>-39.770149231</v>
+        <v>-40.4430084229</v>
       </c>
       <c r="M19" t="n">
-        <v>-47.8696594238</v>
+        <v>-39.154624939</v>
       </c>
       <c r="N19" t="n">
-        <v>-47.8317871094</v>
+        <v>-39.1442108154</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2113745212554932</v>
+        <v>0.2074503898620605</v>
       </c>
       <c r="P19" t="n">
-        <v>-50.30013657</v>
+        <v>-48.57956696</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3520472049713135</v>
+        <v>1.629811525344849</v>
       </c>
       <c r="R19" t="n">
-        <v>-39.7674674988</v>
+        <v>-40.4345359802</v>
       </c>
       <c r="S19" t="n">
-        <v>-58.2175483704</v>
+        <v>-54.1561546326</v>
       </c>
       <c r="T19" t="n">
-        <v>-58.5044288635</v>
+        <v>-54.1582221985</v>
       </c>
       <c r="U19" t="n">
-        <v>0.4694201946258545</v>
+        <v>0.5217483043670654</v>
       </c>
       <c r="V19" t="n">
-        <v>-51.0551033</v>
+        <v>-49.55849075</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3018956184387207</v>
+        <v>2.700085878372192</v>
       </c>
       <c r="X19" t="n">
-        <v>-39.762588501</v>
+        <v>-40.4298400879</v>
       </c>
       <c r="Y19" t="n">
-        <v>-57.7941436768</v>
+        <v>-54.1989440918</v>
       </c>
       <c r="Z19" t="n">
-        <v>-57.5793914795</v>
+        <v>-54.148979187</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5107612609863281</v>
+        <v>0.5194237232208252</v>
       </c>
       <c r="AB19" t="n">
-        <v>-51.24928284</v>
+        <v>-50.24305725</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.4199271202087402</v>
+        <v>4.82892918586731</v>
       </c>
       <c r="AD19" t="n">
-        <v>-39.7606773376</v>
+        <v>-40.4246063232</v>
       </c>
       <c r="AE19" t="n">
-        <v>-58.0011940002</v>
+        <v>-54.162651062</v>
       </c>
       <c r="AF19" t="n">
-        <v>-57.8567771912</v>
+        <v>-54.1545944214</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.5127823352813721</v>
+        <v>0.5200083255767822</v>
       </c>
       <c r="AH19" t="n">
-        <v>-51.37744904</v>
+        <v>-50.71399307</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.5008981227874756</v>
+        <v>11.34961557388306</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-39.7588577271</v>
+        <v>-40.4421577454</v>
       </c>
       <c r="AK19" t="n">
-        <v>-58.4112167358</v>
+        <v>-54.159236908</v>
       </c>
       <c r="AL19" t="n">
-        <v>-58.0910720825</v>
+        <v>-54.1360054016</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.5012993812561035</v>
+        <v>0.5215113162994385</v>
       </c>
       <c r="AN19" t="n">
-        <v>-51.62781525</v>
+        <v>-50.90328979</v>
       </c>
       <c r="AO19" t="n">
-        <v>1.099059581756592</v>
+        <v>22.13073539733887</v>
       </c>
       <c r="AP19" t="n">
-        <v>-39.7498588562</v>
+        <v>-40.4320526123</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-58.1787223816</v>
+        <v>-54.191116333</v>
       </c>
       <c r="AR19" t="n">
-        <v>-58.2268943787</v>
+        <v>-54.1308898926</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5220675468444824</v>
+        <v>0.5291273593902588</v>
       </c>
       <c r="AT19" t="n">
-        <v>-51.67892075</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>2.099376916885376</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>-39.7658119202</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>-58.2344017029</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>-58.457698822</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0.5009777545928955</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>9.964</v>
+        <v>49.625</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B20" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C20" t="n">
         <v>3.8</v>
@@ -3568,153 +3214,135 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>7.919</v>
+        <v>7.902</v>
       </c>
       <c r="G20" t="n">
-        <v>-40.154</v>
+        <v>-40.54263</v>
       </c>
       <c r="H20" t="n">
-        <v>-40.06763</v>
+        <v>-40.46782</v>
       </c>
       <c r="I20" t="n">
-        <v>-39.66223907</v>
+        <v>-40.47089386</v>
       </c>
       <c r="J20" t="n">
-        <v>-46.79001617</v>
+        <v>-48.31899643</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05636692047119141</v>
+        <v>0.2021932601928711</v>
       </c>
       <c r="L20" t="n">
-        <v>-39.6057281494</v>
+        <v>-40.4435119629</v>
       </c>
       <c r="M20" t="n">
-        <v>-47.6675720215</v>
+        <v>-39.5998535156</v>
       </c>
       <c r="N20" t="n">
-        <v>-47.2728271484</v>
+        <v>-38.6214904785</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2165498733520508</v>
+        <v>0.2084863185882568</v>
       </c>
       <c r="P20" t="n">
-        <v>-49.35897446</v>
+        <v>-48.36141586</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3512814044952393</v>
+        <v>1.605864524841309</v>
       </c>
       <c r="R20" t="n">
-        <v>-39.6050796509</v>
+        <v>-40.4230079651</v>
       </c>
       <c r="S20" t="n">
-        <v>-57.9162902832</v>
+        <v>-54.604763031</v>
       </c>
       <c r="T20" t="n">
-        <v>-58.2398452759</v>
+        <v>-53.6364555359</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5103533267974854</v>
+        <v>0.5234649181365967</v>
       </c>
       <c r="V20" t="n">
-        <v>-50.01722717</v>
+        <v>-49.35467529</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2991065979003906</v>
+        <v>2.633094072341919</v>
       </c>
       <c r="X20" t="n">
-        <v>-39.6003723145</v>
+        <v>-40.431427002</v>
       </c>
       <c r="Y20" t="n">
-        <v>-58.1211090088</v>
+        <v>-54.613243103</v>
       </c>
       <c r="Z20" t="n">
-        <v>-57.5073928833</v>
+        <v>-53.6207122803</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5124886035919189</v>
+        <v>0.5241565704345703</v>
       </c>
       <c r="AB20" t="n">
-        <v>-50.23927307</v>
+        <v>-50.01522064</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3981084823608398</v>
+        <v>4.816444635391235</v>
       </c>
       <c r="AD20" t="n">
-        <v>-39.5925712585</v>
+        <v>-40.4288291931</v>
       </c>
       <c r="AE20" t="n">
-        <v>-57.8430671692</v>
+        <v>-54.5929222107</v>
       </c>
       <c r="AF20" t="n">
-        <v>-58.3523445129</v>
+        <v>-53.646320343</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.5127630233764648</v>
+        <v>0.521782398223877</v>
       </c>
       <c r="AH20" t="n">
-        <v>-50.37459564</v>
+        <v>-50.4681015</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.4993281364440918</v>
+        <v>11.31505751609802</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-39.5970420837</v>
+        <v>-40.42445755</v>
       </c>
       <c r="AK20" t="n">
-        <v>-58.2585258484</v>
+        <v>-54.59998703</v>
       </c>
       <c r="AL20" t="n">
-        <v>-58.2663078308</v>
+        <v>-53.6531639099</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.5311262607574463</v>
+        <v>0.5307843685150146</v>
       </c>
       <c r="AN20" t="n">
-        <v>-50.56867599</v>
+        <v>-50.6422081</v>
       </c>
       <c r="AO20" t="n">
-        <v>1.107092142105103</v>
+        <v>22.15980648994446</v>
       </c>
       <c r="AP20" t="n">
-        <v>-39.6132621765</v>
+        <v>-40.4253425598</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-57.8177070618</v>
+        <v>-54.6129112244</v>
       </c>
       <c r="AR20" t="n">
-        <v>-57.695476532</v>
+        <v>-53.6449699402</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5219032764434814</v>
+        <v>0.5199563503265381</v>
       </c>
       <c r="AT20" t="n">
-        <v>-50.76758957</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>2.108443737030029</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-39.6027297974</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>-57.917678833</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>-58.6038589478</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0.5337870121002197</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>10.1</v>
+        <v>49.568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B21" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C21" t="n">
         <v>3.9</v>
@@ -3723,156 +3351,138 @@
         <v>-40</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>23.797</v>
+        <v>7.908</v>
       </c>
       <c r="G21" t="n">
-        <v>-40.02659</v>
+        <v>-40.57216</v>
       </c>
       <c r="H21" t="n">
-        <v>-40.02421</v>
+        <v>-40.49525</v>
       </c>
       <c r="I21" t="n">
-        <v>-40.16322327</v>
+        <v>-40.56466675</v>
       </c>
       <c r="J21" t="n">
-        <v>-45.90581512</v>
+        <v>-48.01364899</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04453086853027344</v>
+        <v>0.1983606815338135</v>
       </c>
       <c r="L21" t="n">
-        <v>-40.1375007629</v>
+        <v>-40.564250946</v>
       </c>
       <c r="M21" t="n">
-        <v>-47.021938324</v>
+        <v>-39.2131996155</v>
       </c>
       <c r="N21" t="n">
-        <v>-46.8889122009</v>
+        <v>-39.4120292664</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2203059196472168</v>
+        <v>0.2094306945800781</v>
       </c>
       <c r="P21" t="n">
-        <v>-48.95385361</v>
+        <v>-46.21287537</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.348463773727417</v>
+        <v>1.6082444190979</v>
       </c>
       <c r="R21" t="n">
-        <v>-40.1304550171</v>
+        <v>-40.5499839783</v>
       </c>
       <c r="S21" t="n">
-        <v>-58.2262420654</v>
+        <v>-54.2438011169</v>
       </c>
       <c r="T21" t="n">
-        <v>-58.5313949585</v>
+        <v>-54.4254570007</v>
       </c>
       <c r="U21" t="n">
-        <v>0.4909677505493164</v>
+        <v>0.5523538589477539</v>
       </c>
       <c r="V21" t="n">
-        <v>-49.6739502</v>
+        <v>-47.81501007</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3078866004943848</v>
+        <v>2.647534847259521</v>
       </c>
       <c r="X21" t="n">
-        <v>-40.1287460327</v>
+        <v>-40.547328949</v>
       </c>
       <c r="Y21" t="n">
-        <v>-58.0813064575</v>
+        <v>-54.2280006409</v>
       </c>
       <c r="Z21" t="n">
-        <v>-58.5624313354</v>
+        <v>-54.408946991</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5124630928039551</v>
+        <v>0.5685560703277588</v>
       </c>
       <c r="AB21" t="n">
-        <v>-49.93400192</v>
+        <v>-49.03985977</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.4101605415344238</v>
+        <v>4.831019639968872</v>
       </c>
       <c r="AD21" t="n">
-        <v>-40.1336517334</v>
+        <v>-40.5545654297</v>
       </c>
       <c r="AE21" t="n">
-        <v>-57.9659881592</v>
+        <v>-54.2394104004</v>
       </c>
       <c r="AF21" t="n">
-        <v>-57.8938446045</v>
+        <v>-54.382774353</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.518735408782959</v>
+        <v>0.5564231872558594</v>
       </c>
       <c r="AH21" t="n">
-        <v>-50.05304718</v>
+        <v>-50.09881973</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.4993901252746582</v>
+        <v>11.34636545181274</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-40.1374588013</v>
+        <v>-40.5500183105</v>
       </c>
       <c r="AK21" t="n">
-        <v>-58.0147323608</v>
+        <v>-54.2468795776</v>
       </c>
       <c r="AL21" t="n">
-        <v>-58.0967254639</v>
+        <v>-54.4339752197</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.5319356918334961</v>
+        <v>0.5702617168426514</v>
       </c>
       <c r="AN21" t="n">
-        <v>-50.32355499</v>
+        <v>-50.4690361</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.122947692871094</v>
+        <v>22.11848974227905</v>
       </c>
       <c r="AP21" t="n">
-        <v>-40.1320114136</v>
+        <v>-40.5595397949</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-57.7884750366</v>
+        <v>-54.2174987793</v>
       </c>
       <c r="AR21" t="n">
-        <v>-58.2788238525</v>
+        <v>-54.4011001587</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5050373077392578</v>
+        <v>0.5584056377410889</v>
       </c>
       <c r="AT21" t="n">
-        <v>-50.35495758</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>2.104034900665283</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>-40.1381454468</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>-58.0348739624</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>-57.9678192139</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.512040376663208</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>10.11</v>
+        <v>49.819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B22" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
@@ -3881,156 +3491,138 @@
         <v>-40</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>23.807</v>
+        <v>7.904</v>
       </c>
       <c r="G22" t="n">
-        <v>-40.1034</v>
+        <v>-40.5717</v>
       </c>
       <c r="H22" t="n">
-        <v>-40.03782</v>
+        <v>-40.48551</v>
       </c>
       <c r="I22" t="n">
-        <v>-39.79062653</v>
+        <v>-40.51560974</v>
       </c>
       <c r="J22" t="n">
-        <v>-45.50567627</v>
+        <v>-48.016922</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05416560173034668</v>
+        <v>0.1989333629608154</v>
       </c>
       <c r="L22" t="n">
-        <v>-39.7611656189</v>
+        <v>-40.5334663391</v>
       </c>
       <c r="M22" t="n">
-        <v>-46.3421974182</v>
+        <v>-39.0799369812</v>
       </c>
       <c r="N22" t="n">
-        <v>-47.7262382507</v>
+        <v>-40.8063468933</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2242622375488281</v>
+        <v>0.2114841938018799</v>
       </c>
       <c r="P22" t="n">
-        <v>-48.41698456</v>
+        <v>-47.92511749</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3764059543609619</v>
+        <v>1.609778642654419</v>
       </c>
       <c r="R22" t="n">
-        <v>-39.7615470886</v>
+        <v>-40.5066452026</v>
       </c>
       <c r="S22" t="n">
-        <v>-57.6322059631</v>
+        <v>-54.1150283813</v>
       </c>
       <c r="T22" t="n">
-        <v>-58.1017189026</v>
+        <v>-55.8133010864</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5642657279968262</v>
+        <v>0.5228595733642578</v>
       </c>
       <c r="V22" t="n">
-        <v>-49.23358154</v>
+        <v>-49.2305336</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3058245182037354</v>
+        <v>2.668753862380981</v>
       </c>
       <c r="X22" t="n">
-        <v>-39.7637138367</v>
+        <v>-40.5132102966</v>
       </c>
       <c r="Y22" t="n">
-        <v>-57.7560081482</v>
+        <v>-54.0814781189</v>
       </c>
       <c r="Z22" t="n">
-        <v>-57.6506919861</v>
+        <v>-55.7940788269</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5860650539398193</v>
+        <v>0.5380775928497314</v>
       </c>
       <c r="AB22" t="n">
-        <v>-49.32365799</v>
+        <v>-50.16103745</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4109456539154053</v>
+        <v>4.852776765823364</v>
       </c>
       <c r="AD22" t="n">
-        <v>-39.7552909851</v>
+        <v>-40.5133285522</v>
       </c>
       <c r="AE22" t="n">
-        <v>-57.7467689514</v>
+        <v>-54.0919113159</v>
       </c>
       <c r="AF22" t="n">
-        <v>-58.2952384949</v>
+        <v>-55.8076934814</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5858185291290283</v>
+        <v>0.5157387256622314</v>
       </c>
       <c r="AH22" t="n">
-        <v>-49.46866989</v>
+        <v>-50.87145996</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.5011577606201172</v>
+        <v>11.37870860099792</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-39.768032074</v>
+        <v>-40.5162467957</v>
       </c>
       <c r="AK22" t="n">
-        <v>-57.5146980286</v>
+        <v>-54.0794868469</v>
       </c>
       <c r="AL22" t="n">
-        <v>-57.6335334778</v>
+        <v>-55.8062934875</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.576298713684082</v>
+        <v>0.5192172527313232</v>
       </c>
       <c r="AN22" t="n">
-        <v>-49.86521912</v>
+        <v>-51.09989166</v>
       </c>
       <c r="AO22" t="n">
-        <v>1.106953620910645</v>
+        <v>22.23483037948608</v>
       </c>
       <c r="AP22" t="n">
-        <v>-39.7663650513</v>
+        <v>-40.5084609985</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-57.9606552124</v>
+        <v>-54.1015472412</v>
       </c>
       <c r="AR22" t="n">
-        <v>-57.7098007202</v>
+        <v>-55.8011398315</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5853686332702637</v>
+        <v>0.5227310657501221</v>
       </c>
       <c r="AT22" t="n">
-        <v>-49.95151138</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2.106725454330444</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>-39.7584381104</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>-57.6691894531</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>-57.6348114014</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0.5860795974731445</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>10.512</v>
+        <v>49.79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B23" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C23" t="n">
         <v>4.1</v>
@@ -4039,156 +3631,138 @@
         <v>-40</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>23.799</v>
+        <v>15.851</v>
       </c>
       <c r="G23" t="n">
-        <v>-40.07557</v>
+        <v>-39.6929</v>
       </c>
       <c r="H23" t="n">
-        <v>-40.00459</v>
+        <v>-39.61023</v>
       </c>
       <c r="I23" t="n">
-        <v>-39.63717651</v>
+        <v>-39.66984558</v>
       </c>
       <c r="J23" t="n">
-        <v>-47.14151001</v>
+        <v>-48.86896133</v>
       </c>
       <c r="K23" t="n">
-        <v>0.04533720016479492</v>
+        <v>0.1929166316986084</v>
       </c>
       <c r="L23" t="n">
-        <v>-39.6031417847</v>
+        <v>-39.5683326721</v>
       </c>
       <c r="M23" t="n">
-        <v>-47.9990463257</v>
+        <v>-41.3250007629</v>
       </c>
       <c r="N23" t="n">
-        <v>-47.9558029175</v>
+        <v>-41.268573761</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2175323963165283</v>
+        <v>0.2087404727935791</v>
       </c>
       <c r="P23" t="n">
-        <v>-50.3674736</v>
+        <v>-47.48975754</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3509471416473389</v>
+        <v>1.630509614944458</v>
       </c>
       <c r="R23" t="n">
-        <v>-39.5849533081</v>
+        <v>-39.5488739014</v>
       </c>
       <c r="S23" t="n">
-        <v>-57.1837234497</v>
+        <v>-56.3135223389</v>
       </c>
       <c r="T23" t="n">
-        <v>-58.4599533081</v>
+        <v>-56.2953948975</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4906225204467773</v>
+        <v>0.5536177158355713</v>
       </c>
       <c r="V23" t="n">
-        <v>-50.99842453</v>
+        <v>-48.7793541</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3081004619598389</v>
+        <v>2.661100149154663</v>
       </c>
       <c r="X23" t="n">
-        <v>-39.5863571167</v>
+        <v>-39.5457344055</v>
       </c>
       <c r="Y23" t="n">
-        <v>-57.6288986206</v>
+        <v>-56.371471405</v>
       </c>
       <c r="Z23" t="n">
-        <v>-58.1073913574</v>
+        <v>-56.2925376892</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.5222837924957275</v>
+        <v>0.5663673877716064</v>
       </c>
       <c r="AB23" t="n">
-        <v>-51.29932404</v>
+        <v>-49.7577858</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4081237316131592</v>
+        <v>4.800684213638306</v>
       </c>
       <c r="AD23" t="n">
-        <v>-39.6019821167</v>
+        <v>-39.5396347046</v>
       </c>
       <c r="AE23" t="n">
-        <v>-57.7168045044</v>
+        <v>-56.3577804565</v>
       </c>
       <c r="AF23" t="n">
-        <v>-57.5802688599</v>
+        <v>-56.3073120117</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.5286862850189209</v>
+        <v>0.5581827163696289</v>
       </c>
       <c r="AH23" t="n">
-        <v>-51.52610779</v>
+        <v>-50.52090073</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.5003015995025635</v>
+        <v>11.34048581123352</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-39.5941505432</v>
+        <v>-39.5540809631</v>
       </c>
       <c r="AK23" t="n">
-        <v>-57.4949760437</v>
+        <v>-56.3206596375</v>
       </c>
       <c r="AL23" t="n">
-        <v>-58.1908073425</v>
+        <v>-56.2709693909</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.5111489295959473</v>
+        <v>0.5575072765350342</v>
       </c>
       <c r="AN23" t="n">
-        <v>-51.7841568</v>
+        <v>-50.80457306</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.107278823852539</v>
+        <v>22.18776035308838</v>
       </c>
       <c r="AP23" t="n">
-        <v>-39.587387085</v>
+        <v>-39.5465965271</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-57.9138031006</v>
+        <v>-56.3813209534</v>
       </c>
       <c r="AR23" t="n">
-        <v>-58.0785064697</v>
+        <v>-56.3004798889</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5214569568634033</v>
+        <v>0.5530006885528564</v>
       </c>
       <c r="AT23" t="n">
-        <v>-51.91085815</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>2.106703996658325</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>-39.593914032</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>-57.6307106018</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>-57.6472358704</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0.5211853981018066</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>10.14</v>
+        <v>49.198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B24" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C24" t="n">
         <v>4.2</v>
@@ -4197,156 +3771,138 @@
         <v>-40</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>23.812</v>
+        <v>7.896</v>
       </c>
       <c r="G24" t="n">
-        <v>-40.08247</v>
+        <v>-40.65138</v>
       </c>
       <c r="H24" t="n">
-        <v>-40.01962</v>
+        <v>-40.49397</v>
       </c>
       <c r="I24" t="n">
-        <v>-39.61140442</v>
+        <v>-40.41648102</v>
       </c>
       <c r="J24" t="n">
-        <v>-45.93843842</v>
+        <v>-48.13695526</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05100107192993164</v>
+        <v>0.19783616065979</v>
       </c>
       <c r="L24" t="n">
-        <v>-39.5705528259</v>
+        <v>-40.4923095703</v>
       </c>
       <c r="M24" t="n">
-        <v>-47.2930183411</v>
+        <v>-39.8951873779</v>
       </c>
       <c r="N24" t="n">
-        <v>-47.0031929016</v>
+        <v>-38.329208374</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2152795791625977</v>
+        <v>0.2145540714263916</v>
       </c>
       <c r="P24" t="n">
-        <v>-48.90748596</v>
+        <v>-48.59755707</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3483676910400391</v>
+        <v>1.621852874755859</v>
       </c>
       <c r="R24" t="n">
-        <v>-39.5650558472</v>
+        <v>-40.4607810974</v>
       </c>
       <c r="S24" t="n">
-        <v>-57.9658584595</v>
+        <v>-54.9415092468</v>
       </c>
       <c r="T24" t="n">
-        <v>-57.4251022339</v>
+        <v>-53.3980293274</v>
       </c>
       <c r="U24" t="n">
-        <v>0.49090576171875</v>
+        <v>0.5219409465789795</v>
       </c>
       <c r="V24" t="n">
-        <v>-49.40605545</v>
+        <v>-49.42602158</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3060922622680664</v>
+        <v>2.649046659469604</v>
       </c>
       <c r="X24" t="n">
-        <v>-39.5790405273</v>
+        <v>-40.4675445557</v>
       </c>
       <c r="Y24" t="n">
-        <v>-57.578704834</v>
+        <v>-54.9016265869</v>
       </c>
       <c r="Z24" t="n">
-        <v>-57.3234176636</v>
+        <v>-53.3768768311</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.5124719142913818</v>
+        <v>0.5283505916595459</v>
       </c>
       <c r="AB24" t="n">
-        <v>-49.59321976</v>
+        <v>-49.95497894</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4015829563140869</v>
+        <v>4.819461107254028</v>
       </c>
       <c r="AD24" t="n">
-        <v>-39.5663146973</v>
+        <v>-40.463973999</v>
       </c>
       <c r="AE24" t="n">
-        <v>-57.7131881714</v>
+        <v>-54.9508209229</v>
       </c>
       <c r="AF24" t="n">
-        <v>-57.2522583008</v>
+        <v>-53.3508224487</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.5300629138946533</v>
+        <v>0.5467727184295654</v>
       </c>
       <c r="AH24" t="n">
-        <v>-49.73947906</v>
+        <v>-50.33283997</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.505850076675415</v>
+        <v>11.3533821105957</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-39.555606842</v>
+        <v>-40.4688072205</v>
       </c>
       <c r="AK24" t="n">
-        <v>-57.5881080627</v>
+        <v>-54.8960990906</v>
       </c>
       <c r="AL24" t="n">
-        <v>-57.9965400696</v>
+        <v>-53.3786430359</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.5335369110107422</v>
+        <v>0.5248267650604248</v>
       </c>
       <c r="AN24" t="n">
-        <v>-49.93208313</v>
+        <v>-50.42314148</v>
       </c>
       <c r="AO24" t="n">
-        <v>1.10715126991272</v>
+        <v>22.13779711723328</v>
       </c>
       <c r="AP24" t="n">
-        <v>-39.5588226318</v>
+        <v>-40.4568939209</v>
       </c>
       <c r="AQ24" t="n">
-        <v>-58.1191635132</v>
+        <v>-54.9058914185</v>
       </c>
       <c r="AR24" t="n">
-        <v>-57.2940216064</v>
+        <v>-53.4150161743</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5233325958251953</v>
+        <v>0.5300354957580566</v>
       </c>
       <c r="AT24" t="n">
-        <v>-50.1133728</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>2.107764005661011</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>-39.568359375</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>-57.8279724121</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>-58.1100082397</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0.5122582912445068</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>10.202</v>
+        <v>49.041</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B25" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C25" t="n">
         <v>4.3</v>
@@ -4355,156 +3911,138 @@
         <v>-40</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>23.825</v>
+        <v>15.865</v>
       </c>
       <c r="G25" t="n">
-        <v>-40.1397</v>
+        <v>-39.71885</v>
       </c>
       <c r="H25" t="n">
-        <v>-40.0246</v>
+        <v>-39.60424</v>
       </c>
       <c r="I25" t="n">
-        <v>-39.87995911</v>
+        <v>-39.81484985</v>
       </c>
       <c r="J25" t="n">
-        <v>-45.95109558</v>
+        <v>-48.75088501</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0523223876953125</v>
+        <v>0.1922576427459717</v>
       </c>
       <c r="L25" t="n">
-        <v>-39.8325958252</v>
+        <v>-39.5703735352</v>
       </c>
       <c r="M25" t="n">
-        <v>-47.1511077881</v>
+        <v>-40.3065795898</v>
       </c>
       <c r="N25" t="n">
-        <v>-47.311416626</v>
+        <v>-40.1730422974</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2106802463531494</v>
+        <v>0.2076916694641113</v>
       </c>
       <c r="P25" t="n">
-        <v>-48.47282028</v>
+        <v>-47.18206406</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3607995510101318</v>
+        <v>1.629793405532837</v>
       </c>
       <c r="R25" t="n">
-        <v>-39.8273277283</v>
+        <v>-39.5571212769</v>
       </c>
       <c r="S25" t="n">
-        <v>-56.7570838928</v>
+        <v>-55.2983932495</v>
       </c>
       <c r="T25" t="n">
-        <v>-57.551738739</v>
+        <v>-55.2359619141</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4702062606811523</v>
+        <v>0.5509445667266846</v>
       </c>
       <c r="V25" t="n">
-        <v>-49.02700043</v>
+        <v>-48.57463837</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3079383373260498</v>
+        <v>2.660095930099487</v>
       </c>
       <c r="X25" t="n">
-        <v>-39.8318405151</v>
+        <v>-39.5542259216</v>
       </c>
       <c r="Y25" t="n">
-        <v>-56.3437805176</v>
+        <v>-55.3039588928</v>
       </c>
       <c r="Z25" t="n">
-        <v>-58.017364502</v>
+        <v>-55.1987800598</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.5224857330322266</v>
+        <v>0.5661499500274658</v>
       </c>
       <c r="AB25" t="n">
-        <v>-49.10262299</v>
+        <v>-49.63101196</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.4243183135986328</v>
+        <v>4.828916549682617</v>
       </c>
       <c r="AD25" t="n">
-        <v>-39.8378562927</v>
+        <v>-39.5635032654</v>
       </c>
       <c r="AE25" t="n">
-        <v>-56.3156242371</v>
+        <v>-55.3150138855</v>
       </c>
       <c r="AF25" t="n">
-        <v>-57.3335533142</v>
+        <v>-55.195514679</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.5132627487182617</v>
+        <v>0.551365852355957</v>
       </c>
       <c r="AH25" t="n">
-        <v>-49.35121918</v>
+        <v>-50.4250412</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.5060899257659912</v>
+        <v>11.3124086856842</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-39.8422012329</v>
+        <v>-39.5529670715</v>
       </c>
       <c r="AK25" t="n">
-        <v>-57.1687545776</v>
+        <v>-55.3067893982</v>
       </c>
       <c r="AL25" t="n">
-        <v>-57.2322769165</v>
+        <v>-55.1916694641</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.5014204978942871</v>
+        <v>0.5474731922149658</v>
       </c>
       <c r="AN25" t="n">
-        <v>-49.47437286</v>
+        <v>-50.68983459</v>
       </c>
       <c r="AO25" t="n">
-        <v>1.106991052627563</v>
+        <v>22.13804006576538</v>
       </c>
       <c r="AP25" t="n">
-        <v>-39.8182144165</v>
+        <v>-39.5645065308</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-57.4078292847</v>
+        <v>-55.2973098755</v>
       </c>
       <c r="AR25" t="n">
-        <v>-57.5795669556</v>
+        <v>-55.1879348755</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.5206108093261719</v>
+        <v>0.550553560256958</v>
       </c>
       <c r="AT25" t="n">
-        <v>-49.45797348</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>2.107080698013306</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>-39.8401298523</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>-56.7293434143</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>-57.5423698425</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0.5211024284362793</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>10.1</v>
+        <v>49.477</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B26" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C26" t="n">
         <v>4.4</v>
@@ -4513,156 +4051,138 @@
         <v>-40</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>23.788</v>
+        <v>15.85</v>
       </c>
       <c r="G26" t="n">
-        <v>-40.24553</v>
+        <v>-39.75991</v>
       </c>
       <c r="H26" t="n">
-        <v>-40.02371</v>
+        <v>-39.63918</v>
       </c>
       <c r="I26" t="n">
-        <v>-39.82844543</v>
+        <v>-39.78252411</v>
       </c>
       <c r="J26" t="n">
-        <v>-46.83811951</v>
+        <v>-48.700737</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04991602897644043</v>
+        <v>0.2001829147338867</v>
       </c>
       <c r="L26" t="n">
-        <v>-39.7940101624</v>
+        <v>-39.6647644043</v>
       </c>
       <c r="M26" t="n">
-        <v>-47.5175285339</v>
+        <v>-39.6084136963</v>
       </c>
       <c r="N26" t="n">
-        <v>-47.5105857849</v>
+        <v>-39.6214752197</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2091293334960938</v>
+        <v>0.2100203037261963</v>
       </c>
       <c r="P26" t="n">
-        <v>-50.48654556</v>
+        <v>-47.33185577</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.3726286888122559</v>
+        <v>1.618933439254761</v>
       </c>
       <c r="R26" t="n">
-        <v>-39.7770462036</v>
+        <v>-39.6534767151</v>
       </c>
       <c r="S26" t="n">
-        <v>-57.3703384399</v>
+        <v>-54.6467552185</v>
       </c>
       <c r="T26" t="n">
-        <v>-57.0640640259</v>
+        <v>-54.67760849</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5490925312042236</v>
+        <v>0.5711514949798584</v>
       </c>
       <c r="V26" t="n">
-        <v>-51.33768082</v>
+        <v>-48.68835068</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3085856437683105</v>
+        <v>2.668880939483643</v>
       </c>
       <c r="X26" t="n">
-        <v>-39.7836952209</v>
+        <v>-39.6525726318</v>
       </c>
       <c r="Y26" t="n">
-        <v>-57.2546958923</v>
+        <v>-54.6345443726</v>
       </c>
       <c r="Z26" t="n">
-        <v>-57.6062278748</v>
+        <v>-54.6782684326</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5310039520263672</v>
+        <v>0.5577282905578613</v>
       </c>
       <c r="AB26" t="n">
-        <v>-51.61460114</v>
+        <v>-49.75276566</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.4104025363922119</v>
+        <v>4.827221155166626</v>
       </c>
       <c r="AD26" t="n">
-        <v>-39.7769622803</v>
+        <v>-39.6541557312</v>
       </c>
       <c r="AE26" t="n">
-        <v>-57.3324890137</v>
+        <v>-54.6384315491</v>
       </c>
       <c r="AF26" t="n">
-        <v>-57.3461456299</v>
+        <v>-54.7074241638</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.5289063453674316</v>
+        <v>0.5695531368255615</v>
       </c>
       <c r="AH26" t="n">
-        <v>-51.82136154</v>
+        <v>-50.50837708</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.5080814361572266</v>
+        <v>11.29939436912537</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-39.7846069336</v>
+        <v>-39.6513519287</v>
       </c>
       <c r="AK26" t="n">
-        <v>-57.5200042725</v>
+        <v>-54.6415863037</v>
       </c>
       <c r="AL26" t="n">
-        <v>-58.1241836548</v>
+        <v>-54.69896698</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.5017411708831787</v>
+        <v>0.5671596527099609</v>
       </c>
       <c r="AN26" t="n">
-        <v>-52.31047058</v>
+        <v>-50.75652313</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.099983692169189</v>
+        <v>22.1975245475769</v>
       </c>
       <c r="AP26" t="n">
-        <v>-39.7775115967</v>
+        <v>-39.6538887024</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-57.4588775635</v>
+        <v>-54.637638092</v>
       </c>
       <c r="AR26" t="n">
-        <v>-57.8967132568</v>
+        <v>-54.6758842468</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5028226375579834</v>
+        <v>0.5568969249725342</v>
       </c>
       <c r="AT26" t="n">
-        <v>-52.36092377</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>2.099285364151001</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>-39.7756309509</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>-56.6183738708</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>-56.97914505</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0.5406010150909424</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>10.211</v>
+        <v>49.307</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B27" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C27" t="n">
         <v>4.5</v>
@@ -4671,156 +4191,138 @@
         <v>-40</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>7.917</v>
+        <v>15.851</v>
       </c>
       <c r="G27" t="n">
-        <v>-39.9495</v>
+        <v>-39.7939</v>
       </c>
       <c r="H27" t="n">
-        <v>-40.0236</v>
+        <v>-39.64656</v>
       </c>
       <c r="I27" t="n">
-        <v>-39.61309814</v>
+        <v>-39.55980682</v>
       </c>
       <c r="J27" t="n">
-        <v>-46.34371185</v>
+        <v>-48.63582611</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04654526710510254</v>
+        <v>0.1903886795043945</v>
       </c>
       <c r="L27" t="n">
-        <v>-39.5696296692</v>
+        <v>-39.6884078979</v>
       </c>
       <c r="M27" t="n">
-        <v>-47.5105934143</v>
+        <v>-39.0187225342</v>
       </c>
       <c r="N27" t="n">
-        <v>-47.4471321106</v>
+        <v>-39.0927352905</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2175135612487793</v>
+        <v>0.2108809947967529</v>
       </c>
       <c r="P27" t="n">
-        <v>-48.93061829</v>
+        <v>-47.04323196</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.3678970336914062</v>
+        <v>1.63098669052124</v>
       </c>
       <c r="R27" t="n">
-        <v>-39.5761032104</v>
+        <v>-39.6893081665</v>
       </c>
       <c r="S27" t="n">
-        <v>-57.8207855225</v>
+        <v>-54.027015686</v>
       </c>
       <c r="T27" t="n">
-        <v>-57.2333145142</v>
+        <v>-54.0570297241</v>
       </c>
       <c r="U27" t="n">
-        <v>0.502061128616333</v>
+        <v>0.5725171566009521</v>
       </c>
       <c r="V27" t="n">
-        <v>-49.60436249</v>
+        <v>-48.42919159</v>
       </c>
       <c r="W27" t="n">
-        <v>0.306901216506958</v>
+        <v>2.650654792785645</v>
       </c>
       <c r="X27" t="n">
-        <v>-39.5685348511</v>
+        <v>-39.6591873169</v>
       </c>
       <c r="Y27" t="n">
-        <v>-57.3254623413</v>
+        <v>-54.0957641602</v>
       </c>
       <c r="Z27" t="n">
-        <v>-57.4569320679</v>
+        <v>-54.137878418</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.5117411613464355</v>
+        <v>0.5498769283294678</v>
       </c>
       <c r="AB27" t="n">
-        <v>-49.75169373</v>
+        <v>-49.46476364</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.4101858139038086</v>
+        <v>4.857983589172363</v>
       </c>
       <c r="AD27" t="n">
-        <v>-39.5654602051</v>
+        <v>-39.6792984009</v>
       </c>
       <c r="AE27" t="n">
-        <v>-57.8002471924</v>
+        <v>-54.0983352661</v>
       </c>
       <c r="AF27" t="n">
-        <v>-57.7878341675</v>
+        <v>-54.103843689</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.5172286033630371</v>
+        <v>0.5553874969482422</v>
       </c>
       <c r="AH27" t="n">
-        <v>-49.89465714</v>
+        <v>-50.25110626</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.5090484619140625</v>
+        <v>11.282470703125</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-39.5682983398</v>
+        <v>-39.6762123108</v>
       </c>
       <c r="AK27" t="n">
-        <v>-57.3678970337</v>
+        <v>-54.0542182922</v>
       </c>
       <c r="AL27" t="n">
-        <v>-56.7682876587</v>
+        <v>-54.0940742493</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.5196559429168701</v>
+        <v>0.5476582050323486</v>
       </c>
       <c r="AN27" t="n">
-        <v>-50.18537903</v>
+        <v>-50.51397705</v>
       </c>
       <c r="AO27" t="n">
-        <v>1.108962535858154</v>
+        <v>22.23444485664368</v>
       </c>
       <c r="AP27" t="n">
-        <v>-39.5693664551</v>
+        <v>-39.6780548096</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-58.1173706055</v>
+        <v>-54.0518493652</v>
       </c>
       <c r="AR27" t="n">
-        <v>-57.8987426758</v>
+        <v>-54.0951843262</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5200228691101074</v>
+        <v>0.5496408939361572</v>
       </c>
       <c r="AT27" t="n">
-        <v>-50.20453644</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>2.107693672180176</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>-39.5674438477</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>-57.5052642822</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>-57.7710571289</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0.5221242904663086</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>10.19</v>
+        <v>49.503</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B28" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C28" t="n">
         <v>4.6</v>
@@ -4829,156 +4331,138 @@
         <v>-40</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>23.818</v>
+        <v>15.85</v>
       </c>
       <c r="G28" t="n">
-        <v>-40.04463</v>
+        <v>-39.79627</v>
       </c>
       <c r="H28" t="n">
-        <v>-39.99373</v>
+        <v>-39.6908</v>
       </c>
       <c r="I28" t="n">
-        <v>-39.81790161</v>
+        <v>-39.86437225</v>
       </c>
       <c r="J28" t="n">
-        <v>-45.9907074</v>
+        <v>-48.77695465</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05289196968078613</v>
+        <v>0.2072687149047852</v>
       </c>
       <c r="L28" t="n">
-        <v>-39.7756614685</v>
+        <v>-39.7337036133</v>
       </c>
       <c r="M28" t="n">
-        <v>-47.4325523376</v>
+        <v>-40.4618453979</v>
       </c>
       <c r="N28" t="n">
-        <v>-47.5907478333</v>
+        <v>-40.719291687</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2105982303619385</v>
+        <v>0.2133095264434814</v>
       </c>
       <c r="P28" t="n">
-        <v>-48.81592178</v>
+        <v>-47.25280762</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.3509964942932129</v>
+        <v>1.634882211685181</v>
       </c>
       <c r="R28" t="n">
-        <v>-39.7700576782</v>
+        <v>-39.7275238037</v>
       </c>
       <c r="S28" t="n">
-        <v>-57.2704162598</v>
+        <v>-55.5128707886</v>
       </c>
       <c r="T28" t="n">
-        <v>-57.1371002197</v>
+        <v>-55.6777420044</v>
       </c>
       <c r="U28" t="n">
-        <v>0.4894118309020996</v>
+        <v>0.5570650100708008</v>
       </c>
       <c r="V28" t="n">
-        <v>-49.35225677</v>
+        <v>-48.63879395</v>
       </c>
       <c r="W28" t="n">
-        <v>0.29947829246521</v>
+        <v>2.649725675582886</v>
       </c>
       <c r="X28" t="n">
-        <v>-39.7742233276</v>
+        <v>-39.7223625183</v>
       </c>
       <c r="Y28" t="n">
-        <v>-57.0773162842</v>
+        <v>-55.4752845764</v>
       </c>
       <c r="Z28" t="n">
-        <v>-56.8875961304</v>
+        <v>-55.7008247375</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.5108308792114258</v>
+        <v>0.5576684474945068</v>
       </c>
       <c r="AB28" t="n">
-        <v>-49.61902618</v>
+        <v>-49.58131409</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.4017684459686279</v>
+        <v>4.819054126739502</v>
       </c>
       <c r="AD28" t="n">
-        <v>-39.7739334106</v>
+        <v>-39.7212905884</v>
       </c>
       <c r="AE28" t="n">
-        <v>-56.9865188599</v>
+        <v>-55.5377426147</v>
       </c>
       <c r="AF28" t="n">
-        <v>-56.8389663696</v>
+        <v>-55.7158813477</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.5093169212341309</v>
+        <v>0.5489239692687988</v>
       </c>
       <c r="AH28" t="n">
-        <v>-49.68933487</v>
+        <v>-50.41080856</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.5096960067749023</v>
+        <v>11.3517005443573</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-39.7668914795</v>
+        <v>-39.7243156433</v>
       </c>
       <c r="AK28" t="n">
-        <v>-56.9867248535</v>
+        <v>-55.4978675842</v>
       </c>
       <c r="AL28" t="n">
-        <v>-57.5623168945</v>
+        <v>-55.7052268982</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.5112261772155762</v>
+        <v>0.5473058223724365</v>
       </c>
       <c r="AN28" t="n">
-        <v>-49.89219666</v>
+        <v>-50.69502258</v>
       </c>
       <c r="AO28" t="n">
-        <v>1.104947090148926</v>
+        <v>22.13862991333008</v>
       </c>
       <c r="AP28" t="n">
-        <v>-39.7694664001</v>
+        <v>-39.7181129456</v>
       </c>
       <c r="AQ28" t="n">
-        <v>-57.0292472839</v>
+        <v>-55.5214347839</v>
       </c>
       <c r="AR28" t="n">
-        <v>-57.348285675</v>
+        <v>-55.6854438782</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.5224840641021729</v>
+        <v>0.5593326091766357</v>
       </c>
       <c r="AT28" t="n">
-        <v>-49.92563629</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>2.107178926467896</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>-39.7636184692</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>-57.1203994751</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>-57.3155441284</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0.5199840068817139</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>10.09</v>
+        <v>49.208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B29" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C29" t="n">
         <v>4.7</v>
@@ -4987,156 +4471,138 @@
         <v>-40</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>23.797</v>
+        <v>15.851</v>
       </c>
       <c r="G29" t="n">
-        <v>-40.25572</v>
+        <v>-39.80979</v>
       </c>
       <c r="H29" t="n">
-        <v>-39.98734</v>
+        <v>-39.66952</v>
       </c>
       <c r="I29" t="n">
-        <v>-39.92028809</v>
+        <v>-39.93252563</v>
       </c>
       <c r="J29" t="n">
-        <v>-46.38515854</v>
+        <v>-48.82125092</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05044460296630859</v>
+        <v>0.1935269832611084</v>
       </c>
       <c r="L29" t="n">
-        <v>-39.8642921448</v>
+        <v>-39.755569458</v>
       </c>
       <c r="M29" t="n">
-        <v>-47.4483985901</v>
+        <v>-40.9615325928</v>
       </c>
       <c r="N29" t="n">
-        <v>-47.494556427</v>
+        <v>-41.0054016113</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2100000381469727</v>
+        <v>0.2088987827301025</v>
       </c>
       <c r="P29" t="n">
-        <v>-49.29060364</v>
+        <v>-47.43895721</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.3542745113372803</v>
+        <v>1.619207382202148</v>
       </c>
       <c r="R29" t="n">
-        <v>-39.8670730591</v>
+        <v>-39.7359466553</v>
       </c>
       <c r="S29" t="n">
-        <v>-56.9244537354</v>
+        <v>-56.008026123</v>
       </c>
       <c r="T29" t="n">
-        <v>-57.6002731323</v>
+        <v>-56.0052108765</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5066828727722168</v>
+        <v>0.5514841079711914</v>
       </c>
       <c r="V29" t="n">
-        <v>-49.84259796</v>
+        <v>-48.81008911</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3105461597442627</v>
+        <v>2.725957870483398</v>
       </c>
       <c r="X29" t="n">
-        <v>-39.8589019775</v>
+        <v>-39.7431907654</v>
       </c>
       <c r="Y29" t="n">
-        <v>-56.9376220703</v>
+        <v>-55.9912834167</v>
       </c>
       <c r="Z29" t="n">
-        <v>-57.3952331543</v>
+        <v>-56.0137672424</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.5091996192932129</v>
+        <v>0.5521340370178223</v>
       </c>
       <c r="AB29" t="n">
-        <v>-50.12584686</v>
+        <v>-49.74048615</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.4270942211151123</v>
+        <v>4.813787937164307</v>
       </c>
       <c r="AD29" t="n">
-        <v>-39.857460022</v>
+        <v>-39.7414169312</v>
       </c>
       <c r="AE29" t="n">
-        <v>-57.6095123291</v>
+        <v>-55.9644470215</v>
       </c>
       <c r="AF29" t="n">
-        <v>-57.5848236084</v>
+        <v>-56.0510787964</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.5439133644104004</v>
+        <v>0.5577363967895508</v>
       </c>
       <c r="AH29" t="n">
-        <v>-50.2297287</v>
+        <v>-50.44164276</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.5165908336639404</v>
+        <v>11.2718722820282</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-39.8698616028</v>
+        <v>-39.735710144</v>
       </c>
       <c r="AK29" t="n">
-        <v>-57.558757782</v>
+        <v>-55.9828414917</v>
       </c>
       <c r="AL29" t="n">
-        <v>-57.6129570007</v>
+        <v>-56.0654067993</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.520704984664917</v>
+        <v>0.5541617870330811</v>
       </c>
       <c r="AN29" t="n">
-        <v>-50.51504135</v>
+        <v>-42.43836212</v>
       </c>
       <c r="AO29" t="n">
-        <v>1.147448301315308</v>
+        <v>22.1279354095459</v>
       </c>
       <c r="AP29" t="n">
-        <v>-39.8611793518</v>
+        <v>-39.7329368591</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-57.3998298645</v>
+        <v>-55.9687232971</v>
       </c>
       <c r="AR29" t="n">
-        <v>-57.5771598816</v>
+        <v>-56.0377693176</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5212485790252686</v>
+        <v>0.5584836006164551</v>
       </c>
       <c r="AT29" t="n">
-        <v>-50.53402328</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>2.129946708679199</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>-39.8655700684</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>-57.1717224121</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>-57.4952545166</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0.5329122543334961</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>10.236</v>
+        <v>49.405</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B30" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C30" t="n">
         <v>4.8</v>
@@ -5145,156 +4611,138 @@
         <v>-40</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>23.79</v>
+        <v>15.855</v>
       </c>
       <c r="G30" t="n">
-        <v>-40.12123</v>
+        <v>-39.79661</v>
       </c>
       <c r="H30" t="n">
-        <v>-40.00033</v>
+        <v>-39.73264</v>
       </c>
       <c r="I30" t="n">
-        <v>-39.52626801</v>
+        <v>-39.73049164</v>
       </c>
       <c r="J30" t="n">
-        <v>-46.82791138</v>
+        <v>-48.68385696</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0498659610748291</v>
+        <v>0.2021617889404297</v>
       </c>
       <c r="L30" t="n">
-        <v>-39.4780349731</v>
+        <v>-39.8034591675</v>
       </c>
       <c r="M30" t="n">
-        <v>-47.5941543579</v>
+        <v>-40.9255599976</v>
       </c>
       <c r="N30" t="n">
-        <v>-47.451499939</v>
+        <v>-39.8759002686</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2141549587249756</v>
+        <v>0.2094073295593262</v>
       </c>
       <c r="P30" t="n">
-        <v>-50.04804993</v>
+        <v>-47.12751007</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.3620522022247314</v>
+        <v>1.635041952133179</v>
       </c>
       <c r="R30" t="n">
-        <v>-39.460357666</v>
+        <v>-39.7859687805</v>
       </c>
       <c r="S30" t="n">
-        <v>-57.5802612305</v>
+        <v>-55.9484443665</v>
       </c>
       <c r="T30" t="n">
-        <v>-58.0311431885</v>
+        <v>-54.8752555847</v>
       </c>
       <c r="U30" t="n">
-        <v>0.5087227821350098</v>
+        <v>0.561790943145752</v>
       </c>
       <c r="V30" t="n">
-        <v>-50.74153137</v>
+        <v>-48.48748016</v>
       </c>
       <c r="W30" t="n">
-        <v>0.3080563545227051</v>
+        <v>2.633556842803955</v>
       </c>
       <c r="X30" t="n">
-        <v>-39.4734382629</v>
+        <v>-39.7893180847</v>
       </c>
       <c r="Y30" t="n">
-        <v>-57.5085945129</v>
+        <v>-55.9623680115</v>
       </c>
       <c r="Z30" t="n">
-        <v>-58.0477409363</v>
+        <v>-54.8930702209</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.5232491493225098</v>
+        <v>0.5629575252532959</v>
       </c>
       <c r="AB30" t="n">
-        <v>-51.05968475</v>
+        <v>-49.56409454</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.4233417510986328</v>
+        <v>4.890947580337524</v>
       </c>
       <c r="AD30" t="n">
-        <v>-39.4670715332</v>
+        <v>-39.786819458</v>
       </c>
       <c r="AE30" t="n">
-        <v>-57.4955749512</v>
+        <v>-55.9173583984</v>
       </c>
       <c r="AF30" t="n">
-        <v>-58.0666046143</v>
+        <v>-54.9022750854</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.512516975402832</v>
+        <v>0.5707604885101318</v>
       </c>
       <c r="AH30" t="n">
-        <v>-51.27058411</v>
+        <v>-50.33826828</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.5075943470001221</v>
+        <v>11.32891511917114</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-39.4692611694</v>
+        <v>-39.7840270996</v>
       </c>
       <c r="AK30" t="n">
-        <v>-57.3046340942</v>
+        <v>-55.9597549438</v>
       </c>
       <c r="AL30" t="n">
-        <v>-57.9942626953</v>
+        <v>-54.9079818726</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.5216805934906006</v>
+        <v>0.5604913234710693</v>
       </c>
       <c r="AN30" t="n">
-        <v>-51.42465591</v>
+        <v>-50.57381439</v>
       </c>
       <c r="AO30" t="n">
-        <v>1.107050895690918</v>
+        <v>22.14575600624084</v>
       </c>
       <c r="AP30" t="n">
-        <v>-39.4620857239</v>
+        <v>-39.7871932983</v>
       </c>
       <c r="AQ30" t="n">
-        <v>-58.0961112976</v>
+        <v>-55.9533157349</v>
       </c>
       <c r="AR30" t="n">
-        <v>-57.7919807434</v>
+        <v>-54.8964691162</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5306937694549561</v>
+        <v>0.5677192211151123</v>
       </c>
       <c r="AT30" t="n">
-        <v>-51.64608765</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>2.106084585189819</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>-39.4702758789</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>-57.2764358521</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>-58.1278381348</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0.5316739082336426</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>10.249</v>
+        <v>49.432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B31" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C31" t="n">
         <v>4.9</v>
@@ -5303,156 +4751,138 @@
         <v>-40</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>23.842</v>
+        <v>15.852</v>
       </c>
       <c r="G31" t="n">
-        <v>-40.0572</v>
+        <v>-39.80635</v>
       </c>
       <c r="H31" t="n">
-        <v>-40.02109</v>
+        <v>-39.6804</v>
       </c>
       <c r="I31" t="n">
-        <v>-39.68468475</v>
+        <v>-39.65577698</v>
       </c>
       <c r="J31" t="n">
-        <v>-45.56228256</v>
+        <v>-48.31613922</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04984951019287109</v>
+        <v>0.1986417770385742</v>
       </c>
       <c r="L31" t="n">
-        <v>-39.6226921082</v>
+        <v>-39.7329368591</v>
       </c>
       <c r="M31" t="n">
-        <v>-46.880191803</v>
+        <v>-38.8144416809</v>
       </c>
       <c r="N31" t="n">
-        <v>-46.8656196594</v>
+        <v>-38.6615028381</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2143471240997314</v>
+        <v>0.2119410037994385</v>
       </c>
       <c r="P31" t="n">
-        <v>-48.66413498</v>
+        <v>-46.81318665</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.3717851638793945</v>
+        <v>1.617200613021851</v>
       </c>
       <c r="R31" t="n">
-        <v>-39.6093215942</v>
+        <v>-39.7349090576</v>
       </c>
       <c r="S31" t="n">
-        <v>-56.5856018066</v>
+        <v>-53.8088912964</v>
       </c>
       <c r="T31" t="n">
-        <v>-55.9519577026</v>
+        <v>-53.6531600952</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5087127685546875</v>
+        <v>0.5531654357910156</v>
       </c>
       <c r="V31" t="n">
-        <v>-49.19758606</v>
+        <v>-48.14034271</v>
       </c>
       <c r="W31" t="n">
-        <v>0.3002259731292725</v>
+        <v>2.659058094024658</v>
       </c>
       <c r="X31" t="n">
-        <v>-39.6172332764</v>
+        <v>-39.7182006836</v>
       </c>
       <c r="Y31" t="n">
-        <v>-56.972946167</v>
+        <v>-53.8661727905</v>
       </c>
       <c r="Z31" t="n">
-        <v>-56.3000030518</v>
+        <v>-53.6636505127</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.5110635757446289</v>
+        <v>0.549299955368042</v>
       </c>
       <c r="AB31" t="n">
-        <v>-49.40554047</v>
+        <v>-49.16921234</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4117343425750732</v>
+        <v>4.844877243041992</v>
       </c>
       <c r="AD31" t="n">
-        <v>-39.6187820435</v>
+        <v>-39.7185630798</v>
       </c>
       <c r="AE31" t="n">
-        <v>-56.8065261841</v>
+        <v>-53.8344230652</v>
       </c>
       <c r="AF31" t="n">
-        <v>-56.1900787354</v>
+        <v>-53.6904335022</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.5286166667938232</v>
+        <v>0.549368143081665</v>
       </c>
       <c r="AH31" t="n">
-        <v>-49.47908401</v>
+        <v>-49.91958237</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.5077569484710693</v>
+        <v>11.33065009117126</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-39.6151008606</v>
+        <v>-39.7182121277</v>
       </c>
       <c r="AK31" t="n">
-        <v>-56.3833503723</v>
+        <v>-53.8254432678</v>
       </c>
       <c r="AL31" t="n">
-        <v>-55.8522911072</v>
+        <v>-53.639705658</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.5215728282928467</v>
+        <v>0.5710208415985107</v>
       </c>
       <c r="AN31" t="n">
-        <v>-49.79904556</v>
+        <v>-50.18671036</v>
       </c>
       <c r="AO31" t="n">
-        <v>1.099461555480957</v>
+        <v>22.14340591430664</v>
       </c>
       <c r="AP31" t="n">
-        <v>-39.6219215393</v>
+        <v>-39.7160415649</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-57.2297935486</v>
+        <v>-53.8605728149</v>
       </c>
       <c r="AR31" t="n">
-        <v>-56.3096199036</v>
+        <v>-53.6734771729</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5109286308288574</v>
+        <v>0.5581276416778564</v>
       </c>
       <c r="AT31" t="n">
-        <v>-49.80023193</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>2.107031345367432</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>-39.6194610596</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>-56.6575317383</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>-56.202835083</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0.5105447769165039</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>10.114</v>
+        <v>49.503</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
       <c r="B32" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
       <c r="C32" t="n">
         <v>5</v>
@@ -5461,148 +4891,1530 @@
         <v>-40</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>23.838</v>
+        <v>15.841</v>
       </c>
       <c r="G32" t="n">
-        <v>-40.07939</v>
+        <v>-39.81934</v>
       </c>
       <c r="H32" t="n">
-        <v>-39.99244</v>
+        <v>-39.76658</v>
       </c>
       <c r="I32" t="n">
-        <v>-39.72517395</v>
+        <v>-39.95845032</v>
       </c>
       <c r="J32" t="n">
-        <v>-45.93815613</v>
+        <v>-48.49613571</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0475761890411377</v>
+        <v>0.2009198665618896</v>
       </c>
       <c r="L32" t="n">
-        <v>-39.6344909668</v>
+        <v>-39.8294830322</v>
       </c>
       <c r="M32" t="n">
-        <v>-47.0682220459</v>
+        <v>-38.0104827881</v>
       </c>
       <c r="N32" t="n">
-        <v>-47.6073684692</v>
+        <v>-41.8806152344</v>
       </c>
       <c r="O32" t="n">
-        <v>0.2143268585205078</v>
+        <v>0.207423210144043</v>
       </c>
       <c r="P32" t="n">
-        <v>-48.24988556</v>
+        <v>-47.08616638</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.369675874710083</v>
+        <v>1.618685722351074</v>
       </c>
       <c r="R32" t="n">
-        <v>-39.6431846619</v>
+        <v>-39.8043174744</v>
       </c>
       <c r="S32" t="n">
-        <v>-56.8932609558</v>
+        <v>-53.0287361145</v>
       </c>
       <c r="T32" t="n">
-        <v>-57.4307746887</v>
+        <v>-56.9250984192</v>
       </c>
       <c r="U32" t="n">
-        <v>0.5117249488830566</v>
+        <v>0.5513455867767334</v>
       </c>
       <c r="V32" t="n">
-        <v>-48.78173447</v>
+        <v>-48.50292969</v>
       </c>
       <c r="W32" t="n">
-        <v>0.306649923324585</v>
+        <v>2.65212607383728</v>
       </c>
       <c r="X32" t="n">
-        <v>-39.6322593689</v>
+        <v>-39.819316864</v>
       </c>
       <c r="Y32" t="n">
-        <v>-57.0581703186</v>
+        <v>-53.0210075378</v>
       </c>
       <c r="Z32" t="n">
-        <v>-57.0292701721</v>
+        <v>-56.8845710754</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.511519193649292</v>
+        <v>0.5599071979522705</v>
       </c>
       <c r="AB32" t="n">
-        <v>-49.00648117</v>
+        <v>-49.5124054</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.4115884304046631</v>
+        <v>4.827005386352539</v>
       </c>
       <c r="AD32" t="n">
-        <v>-39.6306877136</v>
+        <v>-39.8135414124</v>
       </c>
       <c r="AE32" t="n">
-        <v>-57.0039253235</v>
+        <v>-52.982585907</v>
       </c>
       <c r="AF32" t="n">
-        <v>-57.0567207336</v>
+        <v>-56.9066734314</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.5286598205566406</v>
+        <v>0.5565245151519775</v>
       </c>
       <c r="AH32" t="n">
-        <v>-49.01327133</v>
+        <v>-50.29605484</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.5061607360839844</v>
+        <v>11.31997418403625</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-39.6313323975</v>
+        <v>-39.804901123</v>
       </c>
       <c r="AK32" t="n">
-        <v>-56.8329086304</v>
+        <v>-53.0184173584</v>
       </c>
       <c r="AL32" t="n">
-        <v>-57.422203064</v>
+        <v>-56.9230194092</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.5116643905639648</v>
+        <v>0.5617337226867676</v>
       </c>
       <c r="AN32" t="n">
-        <v>-49.16958618</v>
+        <v>-50.57286835</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.109555006027222</v>
+        <v>22.18299984931946</v>
       </c>
       <c r="AP32" t="n">
-        <v>-39.6182060242</v>
+        <v>-39.8055267334</v>
       </c>
       <c r="AQ32" t="n">
-        <v>-56.7661857605</v>
+        <v>-53.054725647</v>
       </c>
       <c r="AR32" t="n">
-        <v>-57.5778999329</v>
+        <v>-56.9287414551</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5219712257385254</v>
+        <v>0.5602138042449951</v>
       </c>
       <c r="AT32" t="n">
-        <v>-49.35507202</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>2.106518507003784</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>-39.6360855103</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>-56.8001022339</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>-57.2117462158</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0.5122568607330322</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>10.174</v>
+        <v>49.887</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15.856</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-39.83723</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-39.70234</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-39.84358215</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-48.92909622</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1958036422729492</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-39.7166633606</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-41.9846992493</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-42.1071434021</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.2068636417388916</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-47.36196518</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.621240139007568</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-39.7080459595</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-57.0419692993</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-57.0992050171</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.5502631664276123</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-48.82695007</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.651756763458252</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-39.7054138184</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-57.0270767212</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-57.0971755981</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.5557129383087158</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-49.89271545</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>4.916976928710938</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-39.7013130188</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>-57.058971405</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>-57.1379737854</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.5488870143890381</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-50.76583862</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>11.31013751029968</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>-39.7087173462</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>-57.0447463989</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>-57.1410751343</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.5500085353851318</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-51.05987167</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>22.16895270347595</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>-39.7055511475</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>-57.0416946411</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>-57.1049041748</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.5598323345184326</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15.839</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-39.93581</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-39.77335</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-39.84257507</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-48.55767822</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1927523612976074</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-39.7139053345</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-42.5134811401</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-42.4216384888</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.2660431861877441</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-46.93512344</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.633060455322266</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-39.6927719116</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-57.5699691772</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-57.4636001587</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.5514335632324219</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-48.3556366</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.638985633850098</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-39.6961174011</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-57.540851593</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-57.4335212708</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.5547919273376465</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-49.4712677</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>4.83503794670105</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-39.6899604797</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-57.5562019348</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-57.4606971741</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.5690240859985352</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-50.26692963</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>11.26365375518799</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-39.6872062683</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-57.5213050842</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-57.457408905</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.5582067966461182</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-50.58620453</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>22.14184522628784</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-39.6904907227</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-57.5618591309</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-57.4489898682</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>0.5708215236663818</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>49.238</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>15.842</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-39.90959</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-39.83928</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-39.94747162</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-48.61087418</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.2022607326507568</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-39.7602806091</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-41.7894630432</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-41.6839942932</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.2070841789245605</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-46.95433044</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.624803304672241</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-39.7605285645</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-56.8005523682</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-56.6373748779</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5543131828308105</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-48.50809097</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.649574518203735</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-39.7422714233</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-56.7973022461</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-56.7053985596</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.5488204956054688</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-49.58217239</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>4.872591495513916</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-39.7466392517</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-56.8228340149</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>-56.6863746643</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.5672190189361572</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-50.49110031</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>11.37329435348511</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>-39.7531394958</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>-56.7980613708</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>-56.7157402039</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.5562782287597656</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-50.78656006</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>22.24257397651672</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>-39.7442512512</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>-56.8083381653</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>-56.7096748352</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.5494005680084229</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>49.604</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>15.841</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-39.95487</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-39.82526</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-39.9727478</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-48.59211731</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1995892524719238</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-39.8224067688</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-41.7035636902</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-41.8441734314</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.2509491443634033</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-46.93243027</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.616730928421021</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-39.8211860657</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-56.7430229187</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-56.8269767761</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.5713770389556885</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-48.48189545</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.661936283111572</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-39.8084182739</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-56.7395248413</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-56.8181762695</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.5584511756896973</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-49.75278854</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4.836736679077148</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-39.809135437</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-56.7404632568</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>-56.8368301392</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.555091381072998</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-50.66970825</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>11.35626363754272</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>-39.8094978333</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>-56.7304878235</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>-56.8568077087</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.5569489002227783</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>-50.99954224</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>22.21858143806458</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>-39.8096237183</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>-56.7862854004</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>-56.8171615601</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.552138090133667</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>49.799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B37" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15.858</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-39.96942</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-39.81828</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-39.94126129</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-48.0872879</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.193354606628418</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-39.8026504517</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-41.7871017456</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-41.8657302856</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.2080585956573486</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-46.33155441</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.621760368347168</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-39.7988166809</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-56.8374900818</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-56.8529853821</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.5505890846252441</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-47.94748688</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.668477535247803</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-39.7923049927</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-56.8343505859</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-56.8641433716</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.5582606792449951</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-49.15771103</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4.874156713485718</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>-39.7986907959</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>-56.8520431519</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>-56.8867797852</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.5505471229553223</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-50.14852524</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>11.33129954338074</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>-39.7904167175</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>-56.8523139954</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>-56.8688926697</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.5497756004333496</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-50.61790848</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>22.19848346710205</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>-39.7830123901</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>-56.8343276978</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>-56.8696975708</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.5497009754180908</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>49.607</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B38" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15.841</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-39.90894</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-39.75351</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-39.98446655</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-48.25080872</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1928939819335938</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-39.7455406189</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-41.82239151</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-41.9035453796</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.2082741260528564</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-46.40196991</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.614795923233032</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-39.7282333374</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-56.8625411987</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-56.9315109253</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.5724165439605713</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-48.02236557</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.677461385726929</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-39.7275085449</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-56.8753051758</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-56.8962173462</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.551722526550293</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-49.16057587</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>4.850651502609253</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-39.7329483032</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>-56.8308563232</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>-56.9296340942</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.5506258010864258</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-50.07809448</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>11.33037853240967</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>-39.7252578735</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>-56.8817138672</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-56.9051818848</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.5515151023864746</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-50.43697357</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>22.18142914772034</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>-39.7234954834</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>-56.8809738159</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>-56.9533233643</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.5518181324005127</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>49.616</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B39" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>15.851</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-40.05827</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-39.91038</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-40.04183197</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-48.64674377</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1941936016082764</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-39.8873176575</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-41.9636192322</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-41.9599266052</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.2068288326263428</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-46.93261719</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.627446413040161</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-39.8769454956</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-56.975769043</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-56.9566726685</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.5511696338653564</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-48.44045639</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2.640430212020874</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-39.8735618591</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-57.0033149719</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-56.9370918274</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.5593502521514893</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-49.63652039</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>4.81317400932312</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>-39.8835334778</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>-56.9759178162</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>-56.9458427429</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.5503911972045898</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-50.54674149</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>11.29971480369568</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>-39.8802871704</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>-56.9800567627</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>-56.9966278076</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.5713038444519043</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-50.88630295</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>22.27783989906311</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>-39.8787994385</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>-56.9951248169</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>-56.9517822266</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.5538816452026367</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>49.435</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B40" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15.863</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-40.05242</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-39.86447</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-39.97886658</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-48.46015167</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1991946697235107</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-39.8664894104</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-41.4854774475</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-41.4398231506</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.2055881023406982</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-46.85699844</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.634900808334351</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-39.8554382324</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-56.5327911377</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-56.4506454468</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.5563478469848633</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-48.34237671</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2.722587585449219</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-39.8763046265</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-56.4659805298</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-56.4358901978</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.5544602870941162</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>-49.51402283</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>4.811914443969727</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>-39.8815612793</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>-56.4581680298</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>-56.4166107178</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.5598142147064209</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-50.35144043</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>11.36025094985962</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>-39.862285614</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>-56.4743156433</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>-56.4194908142</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.5606486797332764</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-50.7299614</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>22.06775951385498</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>-39.8683509827</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>-56.4659233093</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>-56.3995628357</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.5531833171844482</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>49.457</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B41" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15.852</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-40.07186</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-39.9225</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-40.23074341</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-48.37924194</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1989021301269531</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-39.9262695312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-41.1832733154</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-41.267288208</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.2068531513214111</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-46.71594238</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.620197296142578</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-39.9291419983</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-56.2000236511</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-56.2567558289</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5515248775482178</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-48.16389084</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2.661081552505493</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-39.9137382507</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-56.1897773743</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-56.267665863</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5504980087280273</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-49.30111694</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>4.829947233200073</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>-39.9220657349</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>-56.2154769897</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-56.257522583</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5489118099212646</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-50.26028061</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>11.29602122306824</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>-39.9093399048</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>-56.2346496582</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>-56.2359848022</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.5581448078155518</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>-50.58631516</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>22.1540219783783</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>-39.9067840576</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>-56.196105957</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>-56.2596893311</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.5488145351409912</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>49.332</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4.299450159072876</v>
+      </c>
+      <c r="B42" t="n">
+        <v>7.686664342880249</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>15.879</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-40.06804</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-39.89359</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-39.95522308</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-48.60898972</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1977643966674805</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-39.8982849121</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-41.6622924805</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-41.7955093384</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.2052054405212402</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-46.78353119</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.616084337234497</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-39.8929672241</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-56.7120895386</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-56.7818374634</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5547657012939453</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-48.3346405</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.673156499862671</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-39.8862686157</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-56.7018966675</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-56.7797927856</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.5590474605560303</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>-49.44614792</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>4.830100774765015</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>-39.8904342651</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>-56.6906433105</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>-56.8108520508</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.5501530170440674</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-50.35076523</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>11.33582377433777</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>-39.8925094604</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>-56.6821975708</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>-56.7719497681</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.5494256019592285</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>-50.68456268</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>22.19405078887939</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>-39.8864402771</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>-56.6762733459</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>-56.8471565247</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.5521533489227295</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>49.448</v>
       </c>
     </row>
   </sheetData>
@@ -5616,7 +6428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5643,7 +6455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -5653,7 +6465,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.291154861450195</v>
+        <v>4.299450159072876</v>
       </c>
     </row>
     <row r="4">
@@ -5663,7 +6475,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6.176253318786621</v>
+        <v>7.686664342880249</v>
       </c>
     </row>
     <row r="5">
@@ -5673,7 +6485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5693,7 +6505,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.193548387096774</v>
+        <v>1.463414634146341</v>
       </c>
     </row>
     <row r="8">
@@ -5703,7 +6515,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-45.50567627</v>
+        <v>-48.01364899</v>
       </c>
     </row>
     <row r="9">
@@ -5713,7 +6525,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-49.9720726</v>
+        <v>-50.31016922</v>
       </c>
     </row>
     <row r="10">
@@ -5723,7 +6535,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-47.20627852387096</v>
+        <v>-48.81613475439024</v>
       </c>
     </row>
     <row r="11">
@@ -5733,7 +6545,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05692052841186523</v>
+        <v>0.2072687149047852</v>
       </c>
     </row>
     <row r="12">
@@ -5743,7 +6555,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04453086853027344</v>
+        <v>0.1903886795043945</v>
       </c>
     </row>
     <row r="13">
@@ -5753,7 +6565,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.05031049636102492</v>
+        <v>0.1977193530012921</v>
       </c>
     </row>
     <row r="14">
@@ -5763,7 +6575,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-39.4780349731</v>
+        <v>-39.5683326721</v>
       </c>
     </row>
     <row r="15">
@@ -5773,7 +6585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-40.1375007629</v>
+        <v>-40.564250946</v>
       </c>
     </row>
     <row r="16">
@@ -5783,7 +6595,7 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-39.71346689040644</v>
+        <v>-40.03591444434146</v>
       </c>
     </row>
     <row r="17">
@@ -5793,7 +6605,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-46.3421974182</v>
+        <v>-37.1416625977</v>
       </c>
     </row>
     <row r="18">
@@ -5803,7 +6615,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-52.3385238647</v>
+        <v>-42.5134811401</v>
       </c>
     </row>
     <row r="19">
@@ -5813,7 +6625,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-48.83714159073549</v>
+        <v>-39.87817187425853</v>
       </c>
     </row>
     <row r="20">
@@ -5823,7 +6635,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-46.8656196594</v>
+        <v>-37.2696380615</v>
       </c>
     </row>
     <row r="21">
@@ -5833,7 +6645,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-52.4122238159</v>
+        <v>-42.4216384888</v>
       </c>
     </row>
     <row r="22">
@@ -5843,7 +6655,7 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-48.89468519149356</v>
+        <v>-40.02163575334634</v>
       </c>
     </row>
     <row r="23">
@@ -5853,7 +6665,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2242622375488281</v>
+        <v>0.2660431861877441</v>
       </c>
     </row>
     <row r="24">
@@ -5863,7 +6675,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2082436084747314</v>
+        <v>0.2041919231414795</v>
       </c>
     </row>
     <row r="25">
@@ -5873,7 +6685,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.2145607702193722</v>
+        <v>0.2108516693115234</v>
       </c>
     </row>
     <row r="26">
@@ -5883,7 +6695,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-48.24988556</v>
+        <v>-46.21287537</v>
       </c>
     </row>
     <row r="27">
@@ -5893,7 +6705,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-51.894104</v>
+        <v>-49.18861771</v>
       </c>
     </row>
     <row r="28">
@@ -5903,7 +6715,7 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-49.58332381677419</v>
+        <v>-47.55644160926829</v>
       </c>
     </row>
     <row r="29">
@@ -5913,7 +6725,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3779222965240479</v>
+        <v>1.674706220626831</v>
       </c>
     </row>
     <row r="30">
@@ -5923,7 +6735,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3310399055480957</v>
+        <v>1.605864524841309</v>
       </c>
     </row>
     <row r="31">
@@ -5933,7 +6745,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.3582287757627426</v>
+        <v>1.625361518162053</v>
       </c>
     </row>
     <row r="32">
@@ -5943,7 +6755,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-39.460357666</v>
+        <v>-39.5488739014</v>
       </c>
     </row>
     <row r="33">
@@ -5953,7 +6765,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-40.1304550171</v>
+        <v>-40.5499839783</v>
       </c>
     </row>
     <row r="34">
@@ -5963,7 +6775,7 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-39.70740349062903</v>
+        <v>-40.02311455331707</v>
       </c>
     </row>
     <row r="35">
@@ -5973,7 +6785,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-56.5856018066</v>
+        <v>-52.1543960571</v>
       </c>
     </row>
     <row r="36">
@@ -5983,7 +6795,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-59.5653610229</v>
+        <v>-57.5699691772</v>
       </c>
     </row>
     <row r="37">
@@ -5993,7 +6805,7 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-58.22879828175807</v>
+        <v>-54.9003276359683</v>
       </c>
     </row>
     <row r="38">
@@ -6003,7 +6815,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-55.9519577026</v>
+        <v>-52.2226486206</v>
       </c>
     </row>
     <row r="39">
@@ -6013,7 +6825,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-59.5001144409</v>
+        <v>-57.4636001587</v>
       </c>
     </row>
     <row r="40">
@@ -6023,7 +6835,7 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-58.35130519251613</v>
+        <v>-55.03037829516341</v>
       </c>
     </row>
     <row r="41">
@@ -6033,7 +6845,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6397831439971924</v>
+        <v>0.5725312232971191</v>
       </c>
     </row>
     <row r="42">
@@ -6043,7 +6855,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4694201946258545</v>
+        <v>0.5179088115692139</v>
       </c>
     </row>
     <row r="43">
@@ -6053,7 +6865,7 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.5101873567027431</v>
+        <v>0.5518825461224812</v>
       </c>
     </row>
     <row r="44">
@@ -6063,7 +6875,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-48.78173447</v>
+        <v>-47.81501007</v>
       </c>
     </row>
     <row r="45">
@@ -6073,7 +6885,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-52.25517273</v>
+        <v>-50.09588623</v>
       </c>
     </row>
     <row r="46">
@@ -6083,7 +6895,7 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-50.09554290709678</v>
+        <v>-48.84575541439025</v>
       </c>
     </row>
     <row r="47">
@@ -6093,7 +6905,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3105461597442627</v>
+        <v>2.725957870483398</v>
       </c>
     </row>
     <row r="48">
@@ -6103,7 +6915,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2874832153320312</v>
+        <v>2.628853559494019</v>
       </c>
     </row>
     <row r="49">
@@ -6113,7 +6925,7 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.3040675963124921</v>
+        <v>2.662036971348088</v>
       </c>
     </row>
     <row r="50">
@@ -6123,7 +6935,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-39.4734382629</v>
+        <v>-39.5457344055</v>
       </c>
     </row>
     <row r="51">
@@ -6133,7 +6945,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-40.1287460327</v>
+        <v>-40.547328949</v>
       </c>
     </row>
     <row r="52">
@@ -6143,7 +6955,7 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-39.70708810129354</v>
+        <v>-40.02161146954634</v>
       </c>
     </row>
     <row r="53">
@@ -6153,7 +6965,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-56.3437805176</v>
+        <v>-52.1952629089</v>
       </c>
     </row>
     <row r="54">
@@ -6163,7 +6975,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-59.531211853</v>
+        <v>-57.540851593</v>
       </c>
     </row>
     <row r="55">
@@ -6173,7 +6985,7 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-58.13638551773226</v>
+        <v>-54.90266195157072</v>
       </c>
     </row>
     <row r="56">
@@ -6183,7 +6995,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-56.3000030518</v>
+        <v>-52.258430481</v>
       </c>
     </row>
     <row r="57">
@@ -6193,7 +7005,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-59.3580627441</v>
+        <v>-57.4335212708</v>
       </c>
     </row>
     <row r="58">
@@ -6203,7 +7015,7 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-58.24238635648387</v>
+        <v>-55.03401258514878</v>
       </c>
     </row>
     <row r="59">
@@ -6213,7 +7025,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.631889820098877</v>
+        <v>0.5691781044006348</v>
       </c>
     </row>
     <row r="60">
@@ -6223,7 +7035,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5000441074371338</v>
+        <v>0.515066385269165</v>
       </c>
     </row>
     <row r="61">
@@ -6233,727 +7045,547 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.5208600182687083</v>
+        <v>0.5517169266212277</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>K575 EVM 15 avg (dB) - Max</t>
+          <t>K575 EVM 20 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-49.00648117</v>
+        <v>-49.03985977</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>K575 EVM 15 avg (dB) - Min</t>
+          <t>K575 EVM 20 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-52.30094147</v>
+        <v>-50.73458862</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>K575 EVM 15 avg (dB) - Mean</t>
+          <t>K575 EVM 20 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-50.28668188354839</v>
+        <v>-49.77288911414634</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>K575 Time 15 avg (s) - Max</t>
+          <t>K575 Time 20 avg (s) - Max</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.42836594581604</v>
+        <v>4.916976928710938</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>K575 Time 15 avg (s) - Min</t>
+          <t>K575 Time 20 avg (s) - Min</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3981084823608398</v>
+        <v>4.787513494491577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>K575 Time 15 avg (s) - Mean</t>
+          <t>K575 Time 20 avg (s) - Mean</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.4128735911461615</v>
+        <v>4.831377285282787</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>K575 Channel Power 15 avg (dBm) - Max</t>
+          <t>K575 Channel Power 20 avg (dBm) - Max</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-39.4670715332</v>
+        <v>-39.5396347046</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>K575 Channel Power 15 avg (dBm) - Min</t>
+          <t>K575 Channel Power 20 avg (dBm) - Min</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-40.1336517334</v>
+        <v>-40.5545654297</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>K575 Channel Power 15 avg (dBm) - Mean</t>
+          <t>K575 Channel Power 20 avg (dBm) - Mean</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-39.70757121423871</v>
+        <v>-40.02228397276585</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 15 avg (dB) - Max</t>
+          <t>K575 Lower Adjacent ACLR 20 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-56.3156242371</v>
+        <v>-52.2104263306</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 15 avg (dB) - Min</t>
+          <t>K575 Lower Adjacent ACLR 20 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-59.2215614319</v>
+        <v>-57.5562019348</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 15 avg (dB) - Mean</t>
+          <t>K575 Lower Adjacent ACLR 20 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-58.17451526273548</v>
+        <v>-54.89937014695366</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 15 avg (dB) - Max</t>
+          <t>K575 Upper Adjacent ACLR 20 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-56.1900787354</v>
+        <v>-52.2904090881</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 15 avg (dB) - Min</t>
+          <t>K575 Upper Adjacent ACLR 20 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-59.6642990112</v>
+        <v>-57.4606971741</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 15 avg (dB) - Mean</t>
+          <t>K575 Upper Adjacent ACLR 20 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-58.28805591215485</v>
+        <v>-55.03951170386341</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 15 avg (s) - Max</t>
+          <t>K575 ACLR Time 20 avg (s) - Max</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.6417498588562012</v>
+        <v>0.5815889835357666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 15 avg (s) - Min</t>
+          <t>K575 ACLR Time 20 avg (s) - Min</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5020608901977539</v>
+        <v>0.5157387256622314</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 15 avg (s) - Mean</t>
+          <t>K575 ACLR Time 20 avg (s) - Mean</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.523426725018409</v>
+        <v>0.5519881015870629</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>K575 EVM 20 avg (dB) - Max</t>
+          <t>K575 EVM 50 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-49.01327133</v>
+        <v>-49.54614639</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>K575 EVM 20 avg (dB) - Min</t>
+          <t>K575 EVM 50 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-52.48804474</v>
+        <v>-51.14699936</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>K575 EVM 20 avg (dB) - Mean</t>
+          <t>K575 EVM 50 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-50.39393357290322</v>
+        <v>-50.48353288243903</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>K575 Time 20 avg (s) - Max</t>
+          <t>K575 Time 50 avg (s) - Max</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5238771438598633</v>
+        <v>11.40328049659729</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>K575 Time 20 avg (s) - Min</t>
+          <t>K575 Time 50 avg (s) - Min</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4983727931976318</v>
+        <v>11.26365375518799</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>K575 Time 20 avg (s) - Mean</t>
+          <t>K575 Time 50 avg (s) - Mean</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>0.5060598311885711</v>
+        <v>11.33149475586124</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>K575 Channel Power 20 avg (dBm) - Max</t>
+          <t>K575 Channel Power 50 avg (dBm) - Max</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-39.4692611694</v>
+        <v>-39.5529670715</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>K575 Channel Power 20 avg (dBm) - Min</t>
+          <t>K575 Channel Power 50 avg (dBm) - Min</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-40.1374588013</v>
+        <v>-40.5500183105</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>K575 Channel Power 20 avg (dBm) - Mean</t>
+          <t>K575 Channel Power 50 avg (dBm) - Mean</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-39.70696615403871</v>
+        <v>-40.02270917193658</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 20 avg (dB) - Max</t>
+          <t>K575 Lower Adjacent ACLR 50 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-56.3833503723</v>
+        <v>-52.1753883362</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 20 avg (dB) - Min</t>
+          <t>K575 Lower Adjacent ACLR 50 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-59.3081855774</v>
+        <v>-57.5213050842</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 20 avg (dB) - Mean</t>
+          <t>K575 Lower Adjacent ACLR 50 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-58.17369485670645</v>
+        <v>-54.89190078362927</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 20 avg (dB) - Max</t>
+          <t>K575 Upper Adjacent ACLR 50 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-55.8522911072</v>
+        <v>-52.29637146</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 20 avg (dB) - Min</t>
+          <t>K575 Upper Adjacent ACLR 50 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-59.6845664978</v>
+        <v>-57.457408905</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 20 avg (dB) - Mean</t>
+          <t>K575 Upper Adjacent ACLR 50 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-58.3954006318129</v>
+        <v>-55.03876569795366</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 20 avg (s) - Max</t>
+          <t>K575 ACLR Time 50 avg (s) - Max</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.6524946689605713</v>
+        <v>0.5713038444519043</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 20 avg (s) - Min</t>
+          <t>K575 ACLR Time 50 avg (s) - Min</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5004308223724365</v>
+        <v>0.5192172527313232</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 20 avg (s) - Mean</t>
+          <t>K575 ACLR Time 50 avg (s) - Mean</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.5204386249665292</v>
+        <v>0.5515013845955453</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>K575 EVM 50 avg (dB) - Max</t>
+          <t>K575 EVM 100 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-49.16958618</v>
+        <v>-42.43836212</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>K575 EVM 50 avg (dB) - Min</t>
+          <t>K575 EVM 100 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-52.61056519</v>
+        <v>-51.28696442</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>K575 EVM 50 avg (dB) - Mean</t>
+          <t>K575 EVM 100 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-50.57663480741935</v>
+        <v>-50.53522565902439</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>K575 Time 50 avg (s) - Max</t>
+          <t>K575 Time 100 avg (s) - Max</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1.147448301315308</v>
+        <v>22.27783989906311</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>K575 Time 50 avg (s) - Min</t>
+          <t>K575 Time 100 avg (s) - Min</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1.089635610580444</v>
+        <v>21.93080949783325</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>K575 Time 50 avg (s) - Mean</t>
+          <t>K575 Time 100 avg (s) - Mean</t>
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>1.107271655913322</v>
+        <v>22.14696473028602</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>K575 Channel Power 50 avg (dBm) - Max</t>
+          <t>K575 Channel Power 100 avg (dBm) - Max</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-39.4620857239</v>
+        <v>-39.5465965271</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>K575 Channel Power 50 avg (dBm) - Min</t>
+          <t>K575 Channel Power 100 avg (dBm) - Min</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-40.1320114136</v>
+        <v>-40.5595397949</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>K575 Channel Power 50 avg (dBm) - Mean</t>
+          <t>K575 Channel Power 100 avg (dBm) - Mean</t>
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-39.70540077454839</v>
+        <v>-40.02112402567074</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 50 avg (dB) - Max</t>
+          <t>K575 Lower Adjacent ACLR 100 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-56.7661857605</v>
+        <v>-52.1692428589</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 50 avg (dB) - Min</t>
+          <t>K575 Lower Adjacent ACLR 100 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-59.3687438965</v>
+        <v>-57.5618591309</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>K575 Lower Adjacent ACLR 50 avg (dB) - Mean</t>
+          <t>K575 Lower Adjacent ACLR 100 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-58.28570039811613</v>
+        <v>-54.90316893415365</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 50 avg (dB) - Max</t>
+          <t>K575 Upper Adjacent ACLR 100 avg (dB) - Max</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-56.3096199036</v>
+        <v>-52.2928733826</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 50 avg (dB) - Min</t>
+          <t>K575 Upper Adjacent ACLR 100 avg (dB) - Min</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-59.6841049194</v>
+        <v>-57.4489898682</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>K575 Upper Adjacent ACLR 50 avg (dB) - Mean</t>
+          <t>K575 Upper Adjacent ACLR 100 avg (dB) - Mean</t>
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-58.34526185066128</v>
+        <v>-55.03939568125122</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 50 avg (s) - Max</t>
+          <t>K575 ACLR Time 100 avg (s) - Max</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.6317155361175537</v>
+        <v>0.5790674686431885</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 50 avg (s) - Min</t>
+          <t>K575 ACLR Time 100 avg (s) - Min</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.5000379085540771</v>
+        <v>0.5199563503265381</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>K575 ACLR Time 50 avg (s) - Mean</t>
+          <t>K575 ACLR Time 100 avg (s) - Mean</t>
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>0.5195474316996913</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>K575 EVM 100 avg (dB) - Max</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>-49.35507202</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>K575 EVM 100 avg (dB) - Min</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-52.76829147</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>K575 EVM 100 avg (dB) - Mean</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-50.64864238580645</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>K575 Time 100 avg (s) - Max</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2.129946708679199</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>K575 Time 100 avg (s) - Min</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2.098606824874878</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>K575 Time 100 avg (s) - Mean</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>2.107244791523103</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>K575 Channel Power 100 avg (dBm) - Max</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>-39.4702758789</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>K575 Channel Power 100 avg (dBm) - Min</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>-40.1381454468</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>K575 Channel Power 100 avg (dBm) - Mean</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-39.70973131733871</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>K575 Lower Adjacent ACLR 100 avg (dB) - Max</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>-56.6183738708</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>K575 Lower Adjacent ACLR 100 avg (dB) - Min</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>-59.4264564514</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>K575 Lower Adjacent ACLR 100 avg (dB) - Mean</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="n">
-        <v>-58.15346477877096</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>K575 Upper Adjacent ACLR 100 avg (dB) - Max</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>-56.202835083</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>K575 Upper Adjacent ACLR 100 avg (dB) - Min</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>-59.6580429077</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>K575 Upper Adjacent ACLR 100 avg (dB) - Mean</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="n">
-        <v>-58.37518975041935</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>K575 ACLR Time 100 avg (s) - Max</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.6441390514373779</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>K575 ACLR Time 100 avg (s) - Min</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>0.5005965232849121</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>K575 ACLR Time 100 avg (s) - Mean</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="n">
-        <v>0.5224250593493062</v>
+        <v>0.552407625244885</v>
       </c>
     </row>
   </sheetData>

--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -679,5742 +679,5742 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B2" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>7.906</v>
+        <v>1.067</v>
       </c>
       <c r="G2" t="n">
-        <v>-39.94556</v>
+        <v>-29.99183</v>
       </c>
       <c r="H2" t="n">
-        <v>-39.91524</v>
+        <v>-29.94154</v>
       </c>
       <c r="I2" t="n">
-        <v>-40.02529907</v>
+        <v>-30.01168823</v>
       </c>
       <c r="J2" t="n">
-        <v>-50.31016922</v>
+        <v>-50.11720657</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1958894729614258</v>
+        <v>0.1951847076416016</v>
       </c>
       <c r="L2" t="n">
-        <v>-39.9678573608</v>
+        <v>-29.9721069336</v>
       </c>
       <c r="M2" t="n">
-        <v>-39.7563323975</v>
+        <v>-49.6815872192</v>
       </c>
       <c r="N2" t="n">
-        <v>-39.7653121948</v>
+        <v>-49.7429199219</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2068743705749512</v>
+        <v>0.2565865516662598</v>
       </c>
       <c r="P2" t="n">
-        <v>-49.18861771</v>
+        <v>-49.15559387</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.613745927810669</v>
+        <v>1.609124898910522</v>
       </c>
       <c r="R2" t="n">
-        <v>-39.950138092</v>
+        <v>-29.9431228638</v>
       </c>
       <c r="S2" t="n">
-        <v>-54.7821769714</v>
+        <v>-64.6927642822</v>
       </c>
       <c r="T2" t="n">
-        <v>-54.8066825867</v>
+        <v>-64.76969909669999</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5725312232971191</v>
+        <v>0.561915397644043</v>
       </c>
       <c r="V2" t="n">
-        <v>-50.09588623</v>
+        <v>-50.11376953</v>
       </c>
       <c r="W2" t="n">
-        <v>2.639135599136353</v>
+        <v>2.654972076416016</v>
       </c>
       <c r="X2" t="n">
-        <v>-39.9470710754</v>
+        <v>-29.9497318268</v>
       </c>
       <c r="Y2" t="n">
-        <v>-54.7609062195</v>
+        <v>-64.67735862729999</v>
       </c>
       <c r="Z2" t="n">
-        <v>-54.8246879578</v>
+        <v>-64.732465744</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5509812831878662</v>
+        <v>0.5486075878143311</v>
       </c>
       <c r="AB2" t="n">
-        <v>-50.73458862</v>
+        <v>-50.68441391</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.811856746673584</v>
+        <v>4.80618953704834</v>
       </c>
       <c r="AD2" t="n">
-        <v>-39.9492835999</v>
+        <v>-29.9498767853</v>
       </c>
       <c r="AE2" t="n">
-        <v>-54.7654304504</v>
+        <v>-64.6790981293</v>
       </c>
       <c r="AF2" t="n">
-        <v>-54.7814064026</v>
+        <v>-64.77030754090001</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.551539421081543</v>
+        <v>0.5478510856628418</v>
       </c>
       <c r="AH2" t="n">
-        <v>-51.14699936</v>
+        <v>-51.12355042</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.35921597480774</v>
+        <v>11.34498476982117</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-39.9483261108</v>
+        <v>-29.9583530426</v>
       </c>
       <c r="AK2" t="n">
-        <v>-54.7255249023</v>
+        <v>-64.6856899261</v>
       </c>
       <c r="AL2" t="n">
-        <v>-54.8086166382</v>
+        <v>-64.74300956730001</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.5491602420806885</v>
+        <v>0.5531406402587891</v>
       </c>
       <c r="AN2" t="n">
-        <v>-51.26725769</v>
+        <v>-51.27462387</v>
       </c>
       <c r="AO2" t="n">
-        <v>22.08109140396118</v>
+        <v>22.17632246017456</v>
       </c>
       <c r="AP2" t="n">
-        <v>-39.9541511536</v>
+        <v>-29.9478302002</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-54.7714042664</v>
+        <v>-64.7086181641</v>
       </c>
       <c r="AR2" t="n">
-        <v>-54.792842865</v>
+        <v>-64.77318572999999</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.5790674686431885</v>
+        <v>0.5512478351593018</v>
       </c>
       <c r="AT2" t="n">
-        <v>49.192</v>
+        <v>49.311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B3" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C3" t="n">
         <v>2.1</v>
       </c>
       <c r="D3" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>7.904</v>
+        <v>1.139</v>
       </c>
       <c r="G3" t="n">
-        <v>-40.01076</v>
+        <v>-30.02746</v>
       </c>
       <c r="H3" t="n">
-        <v>-39.94282</v>
+        <v>-29.97175</v>
       </c>
       <c r="I3" t="n">
-        <v>-40.05857849</v>
+        <v>-30.06080627</v>
       </c>
       <c r="J3" t="n">
-        <v>-49.70457077</v>
+        <v>-49.76128387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1926896572113037</v>
+        <v>0.1959676742553711</v>
       </c>
       <c r="L3" t="n">
-        <v>-39.994140625</v>
+        <v>-29.979265213</v>
       </c>
       <c r="M3" t="n">
-        <v>-39.5280075073</v>
+        <v>-49.4459438324</v>
       </c>
       <c r="N3" t="n">
-        <v>-39.4379882812</v>
+        <v>-49.4294109344</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2073848247528076</v>
+        <v>0.2452809810638428</v>
       </c>
       <c r="P3" t="n">
-        <v>-48.82575989</v>
+        <v>-48.83537674</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.61134934425354</v>
+        <v>1.637399911880493</v>
       </c>
       <c r="R3" t="n">
-        <v>-39.9771080017</v>
+        <v>-29.971162796</v>
       </c>
       <c r="S3" t="n">
-        <v>-54.5375785828</v>
+        <v>-64.4899501801</v>
       </c>
       <c r="T3" t="n">
-        <v>-54.4923362732</v>
+        <v>-64.43140220639999</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5520303249359131</v>
+        <v>0.5516877174377441</v>
       </c>
       <c r="V3" t="n">
-        <v>-49.6876297</v>
+        <v>-49.71257782</v>
       </c>
       <c r="W3" t="n">
-        <v>2.655664205551147</v>
+        <v>2.667152404785156</v>
       </c>
       <c r="X3" t="n">
-        <v>-39.9776878357</v>
+        <v>-29.9632225037</v>
       </c>
       <c r="Y3" t="n">
-        <v>-54.5775871277</v>
+        <v>-64.1500816345</v>
       </c>
       <c r="Z3" t="n">
-        <v>-54.5103340149</v>
+        <v>-64.44038009640001</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.5568327903747559</v>
+        <v>0.5496969223022461</v>
       </c>
       <c r="AB3" t="n">
-        <v>-50.26449585</v>
+        <v>-50.29286957</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.827455282211304</v>
+        <v>4.816349744796753</v>
       </c>
       <c r="AD3" t="n">
-        <v>-39.976184845</v>
+        <v>-29.9680347443</v>
       </c>
       <c r="AE3" t="n">
-        <v>-54.5286750793</v>
+        <v>-64.4860439301</v>
       </c>
       <c r="AF3" t="n">
-        <v>-54.509059906</v>
+        <v>-64.4265727997</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5564818382263184</v>
+        <v>0.5477828979492188</v>
       </c>
       <c r="AH3" t="n">
-        <v>-50.6805191</v>
+        <v>-50.69612122</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.31071972846985</v>
+        <v>11.35605645179749</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-39.9786834717</v>
+        <v>-29.9657459259</v>
       </c>
       <c r="AK3" t="n">
-        <v>-54.561050415</v>
+        <v>-64.4759120941</v>
       </c>
       <c r="AL3" t="n">
-        <v>-54.4988937378</v>
+        <v>-64.4494762421</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.5581376552581787</v>
+        <v>0.5782778263092041</v>
       </c>
       <c r="AN3" t="n">
-        <v>-50.82865906</v>
+        <v>-50.8203125</v>
       </c>
       <c r="AO3" t="n">
-        <v>22.13266277313232</v>
+        <v>22.18238925933838</v>
       </c>
       <c r="AP3" t="n">
-        <v>-39.9787864685</v>
+        <v>-29.9595146179</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-54.5523796082</v>
+        <v>-64.49851608279999</v>
       </c>
       <c r="AR3" t="n">
-        <v>-54.4578895569</v>
+        <v>-64.4597663879</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5527551174163818</v>
+        <v>0.5497403144836426</v>
       </c>
       <c r="AT3" t="n">
-        <v>50.127</v>
+        <v>49.669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B4" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C4" t="n">
         <v>2.2</v>
       </c>
       <c r="D4" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>7.906</v>
+        <v>1.227</v>
       </c>
       <c r="G4" t="n">
-        <v>-40.02452</v>
+        <v>-30.03253</v>
       </c>
       <c r="H4" t="n">
-        <v>-39.97093</v>
+        <v>-30.01278</v>
       </c>
       <c r="I4" t="n">
-        <v>-39.9881897</v>
+        <v>-30.04397964</v>
       </c>
       <c r="J4" t="n">
-        <v>-49.87552643</v>
+        <v>-50.38920593</v>
       </c>
       <c r="K4" t="n">
-        <v>0.201416015625</v>
+        <v>0.194814920425415</v>
       </c>
       <c r="L4" t="n">
-        <v>-39.9440879822</v>
+        <v>-29.9417190552</v>
       </c>
       <c r="M4" t="n">
-        <v>-39.135471344</v>
+        <v>-49.0391845703</v>
       </c>
       <c r="N4" t="n">
-        <v>-38.93516922</v>
+        <v>-48.9186706543</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2082400321960449</v>
+        <v>0.2133817672729492</v>
       </c>
       <c r="P4" t="n">
-        <v>-48.82629776</v>
+        <v>-48.82473755</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.674706220626831</v>
+        <v>1.641287565231323</v>
       </c>
       <c r="R4" t="n">
-        <v>-39.9206695557</v>
+        <v>-29.927778244</v>
       </c>
       <c r="S4" t="n">
-        <v>-54.1641998291</v>
+        <v>-64.0396518707</v>
       </c>
       <c r="T4" t="n">
-        <v>-53.9222869873</v>
+        <v>-63.8806171417</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5513319969177246</v>
+        <v>0.5515027046203613</v>
       </c>
       <c r="V4" t="n">
-        <v>-49.79286957</v>
+        <v>-49.76478577</v>
       </c>
       <c r="W4" t="n">
-        <v>2.662152528762817</v>
+        <v>2.637068510055542</v>
       </c>
       <c r="X4" t="n">
-        <v>-39.9173278809</v>
+        <v>-29.9230537415</v>
       </c>
       <c r="Y4" t="n">
-        <v>-54.1549606323</v>
+        <v>-63.5934791565</v>
       </c>
       <c r="Z4" t="n">
-        <v>-53.9482650757</v>
+        <v>-63.9173851013</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.5517284870147705</v>
+        <v>0.5569446086883545</v>
       </c>
       <c r="AB4" t="n">
-        <v>-50.39369583</v>
+        <v>-50.42041779</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.844696521759033</v>
+        <v>4.831533193588257</v>
       </c>
       <c r="AD4" t="n">
-        <v>-39.9354705811</v>
+        <v>-29.9178657532</v>
       </c>
       <c r="AE4" t="n">
-        <v>-54.1403427124</v>
+        <v>-64.0909004211</v>
       </c>
       <c r="AF4" t="n">
-        <v>-53.9451141357</v>
+        <v>-63.8988685608</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5594782829284668</v>
+        <v>0.5548882484436035</v>
       </c>
       <c r="AH4" t="n">
-        <v>-50.85165024</v>
+        <v>-50.84545517</v>
       </c>
       <c r="AI4" t="n">
-        <v>11.34158515930176</v>
+        <v>11.31892681121826</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-39.9304580688</v>
+        <v>-29.9202957153</v>
       </c>
       <c r="AK4" t="n">
-        <v>-54.1602325439</v>
+        <v>-64.0575790405</v>
       </c>
       <c r="AL4" t="n">
-        <v>-53.9346237183</v>
+        <v>-63.9022674561</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5510609149932861</v>
+        <v>0.5581095218658447</v>
       </c>
       <c r="AN4" t="n">
-        <v>-50.98819733</v>
+        <v>-51.03025436</v>
       </c>
       <c r="AO4" t="n">
-        <v>22.12632966041565</v>
+        <v>22.16168093681335</v>
       </c>
       <c r="AP4" t="n">
-        <v>-39.9204216003</v>
+        <v>-29.9198246002</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-54.1661872864</v>
+        <v>-64.019109726</v>
       </c>
       <c r="AR4" t="n">
-        <v>-53.9868125916</v>
+        <v>-63.8825435638</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5564208030700684</v>
+        <v>0.5522546768188477</v>
       </c>
       <c r="AT4" t="n">
-        <v>49.931</v>
+        <v>49.344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B5" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C5" t="n">
         <v>2.3</v>
       </c>
       <c r="D5" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>7.903</v>
+        <v>1.228</v>
       </c>
       <c r="G5" t="n">
-        <v>-40.09539</v>
+        <v>-30.12811</v>
       </c>
       <c r="H5" t="n">
-        <v>-40.08672</v>
+        <v>-30.1418</v>
       </c>
       <c r="I5" t="n">
-        <v>-40.1733551</v>
+        <v>-30.21173096</v>
       </c>
       <c r="J5" t="n">
-        <v>-49.95409012</v>
+        <v>-50.62717438</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2040398120880127</v>
+        <v>0.1995730400085449</v>
       </c>
       <c r="L5" t="n">
-        <v>-40.1131134033</v>
+        <v>-30.1206436157</v>
       </c>
       <c r="M5" t="n">
-        <v>-38.7540740967</v>
+        <v>-48.7199478149</v>
       </c>
       <c r="N5" t="n">
-        <v>-38.8549423218</v>
+        <v>-48.8097610474</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2044661045074463</v>
+        <v>0.2086672782897949</v>
       </c>
       <c r="P5" t="n">
-        <v>-48.86165619</v>
+        <v>-48.79837036</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.63886284828186</v>
+        <v>1.639145851135254</v>
       </c>
       <c r="R5" t="n">
-        <v>-40.0974273682</v>
+        <v>-30.0938682556</v>
       </c>
       <c r="S5" t="n">
-        <v>-53.8069915771</v>
+        <v>-63.7167701721</v>
       </c>
       <c r="T5" t="n">
-        <v>-53.8274154663</v>
+        <v>-63.829158783</v>
       </c>
       <c r="U5" t="n">
-        <v>0.5508253574371338</v>
+        <v>0.5513877868652344</v>
       </c>
       <c r="V5" t="n">
-        <v>-49.86503983</v>
+        <v>-49.8994751</v>
       </c>
       <c r="W5" t="n">
-        <v>2.663865566253662</v>
+        <v>2.665559053421021</v>
       </c>
       <c r="X5" t="n">
-        <v>-40.0927581787</v>
+        <v>-30.0997695923</v>
       </c>
       <c r="Y5" t="n">
-        <v>-53.8186187744</v>
+        <v>-63.7109909058</v>
       </c>
       <c r="Z5" t="n">
-        <v>-53.8838653564</v>
+        <v>-63.8127441406</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.555833101272583</v>
+        <v>0.5490851402282715</v>
       </c>
       <c r="AB5" t="n">
-        <v>-50.55797195</v>
+        <v>-50.58454132</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.81444525718689</v>
+        <v>4.808042526245117</v>
       </c>
       <c r="AD5" t="n">
-        <v>-40.0902099609</v>
+        <v>-30.1006584167</v>
       </c>
       <c r="AE5" t="n">
-        <v>-53.799156189</v>
+        <v>-63.7080726624</v>
       </c>
       <c r="AF5" t="n">
-        <v>-53.8673095703</v>
+        <v>-63.813419342</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.5815889835357666</v>
+        <v>0.5558567047119141</v>
       </c>
       <c r="AH5" t="n">
-        <v>-51.08657074</v>
+        <v>-51.11560059</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.31375789642334</v>
+        <v>11.31322312355042</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-40.1036987305</v>
+        <v>-30.1042289734</v>
       </c>
       <c r="AK5" t="n">
-        <v>-53.7621612549</v>
+        <v>-63.6873664856</v>
       </c>
       <c r="AL5" t="n">
-        <v>-53.8434906006</v>
+        <v>-63.832660675</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.5509152412414551</v>
+        <v>0.5644781589508057</v>
       </c>
       <c r="AN5" t="n">
-        <v>-51.28696442</v>
+        <v>-51.29343414</v>
       </c>
       <c r="AO5" t="n">
-        <v>22.17356944084167</v>
+        <v>22.20030283927917</v>
       </c>
       <c r="AP5" t="n">
-        <v>-40.0986289978</v>
+        <v>-30.0994586945</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-53.8018913269</v>
+        <v>-63.7179775238</v>
       </c>
       <c r="AR5" t="n">
-        <v>-53.8529701233</v>
+        <v>-63.8139476776</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.5486752986907959</v>
+        <v>0.5511798858642578</v>
       </c>
       <c r="AT5" t="n">
-        <v>49.77</v>
+        <v>49.249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B6" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C6" t="n">
         <v>2.4</v>
       </c>
       <c r="D6" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>7.898</v>
+        <v>1.155</v>
       </c>
       <c r="G6" t="n">
-        <v>-40.08884</v>
+        <v>-30.10502</v>
       </c>
       <c r="H6" t="n">
-        <v>-40.00919</v>
+        <v>-30.03889</v>
       </c>
       <c r="I6" t="n">
-        <v>-40.07135773</v>
+        <v>-30.07444763</v>
       </c>
       <c r="J6" t="n">
-        <v>-49.69599152</v>
+        <v>-50.47222519</v>
       </c>
       <c r="K6" t="n">
-        <v>0.192357063293457</v>
+        <v>0.2003893852233887</v>
       </c>
       <c r="L6" t="n">
-        <v>-40.0031967163</v>
+        <v>-29.9675369263</v>
       </c>
       <c r="M6" t="n">
-        <v>-38.8125305176</v>
+        <v>-48.7813491821</v>
       </c>
       <c r="N6" t="n">
-        <v>-38.7043228149</v>
+        <v>-48.666557312</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2088370323181152</v>
+        <v>0.209416389465332</v>
       </c>
       <c r="P6" t="n">
-        <v>-48.57061386</v>
+        <v>-48.58652115</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.639378786087036</v>
+        <v>1.636088609695435</v>
       </c>
       <c r="R6" t="n">
-        <v>-39.9893264771</v>
+        <v>-29.9511528015</v>
       </c>
       <c r="S6" t="n">
-        <v>-53.796257019</v>
+        <v>-63.7897377014</v>
       </c>
       <c r="T6" t="n">
-        <v>-53.7090530396</v>
+        <v>-63.6980705261</v>
       </c>
       <c r="U6" t="n">
-        <v>0.5524904727935791</v>
+        <v>0.5531296730041504</v>
       </c>
       <c r="V6" t="n">
-        <v>-49.62036896</v>
+        <v>-49.61100769</v>
       </c>
       <c r="W6" t="n">
-        <v>2.640942335128784</v>
+        <v>2.657873868942261</v>
       </c>
       <c r="X6" t="n">
-        <v>-39.9863471985</v>
+        <v>-29.9563407898</v>
       </c>
       <c r="Y6" t="n">
-        <v>-53.8280296326</v>
+        <v>-63.7974510193</v>
       </c>
       <c r="Z6" t="n">
-        <v>-53.7267875671</v>
+        <v>-63.7115211487</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.5691781044006348</v>
+        <v>0.552720308303833</v>
       </c>
       <c r="AB6" t="n">
-        <v>-50.38584137</v>
+        <v>-50.39454651</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.812644958496094</v>
+        <v>4.827441930770874</v>
       </c>
       <c r="AD6" t="n">
-        <v>-39.9908485413</v>
+        <v>-29.957775116</v>
       </c>
       <c r="AE6" t="n">
-        <v>-53.7837486267</v>
+        <v>-63.7692298889</v>
       </c>
       <c r="AF6" t="n">
-        <v>-53.6800270081</v>
+        <v>-63.7276115417</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5506787300109863</v>
+        <v>0.5494832992553711</v>
       </c>
       <c r="AH6" t="n">
-        <v>-50.85428238</v>
+        <v>-50.90503693</v>
       </c>
       <c r="AI6" t="n">
-        <v>11.36546444892883</v>
+        <v>11.34203505516052</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-39.9897613525</v>
+        <v>-29.9569740295</v>
       </c>
       <c r="AK6" t="n">
-        <v>-53.8261795044</v>
+        <v>-63.7735023499</v>
       </c>
       <c r="AL6" t="n">
-        <v>-53.7221069336</v>
+        <v>-63.6923332214</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.5675463676452637</v>
+        <v>0.5518608093261719</v>
       </c>
       <c r="AN6" t="n">
-        <v>-51.08151245</v>
+        <v>-51.06208038</v>
       </c>
       <c r="AO6" t="n">
-        <v>22.10097074508667</v>
+        <v>22.15944409370422</v>
       </c>
       <c r="AP6" t="n">
-        <v>-39.992767334</v>
+        <v>-29.9523010254</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-53.8178405762</v>
+        <v>-63.784866333</v>
       </c>
       <c r="AR6" t="n">
-        <v>-53.7034683228</v>
+        <v>-63.7333297729</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5501117706298828</v>
+        <v>0.5548019409179688</v>
       </c>
       <c r="AT6" t="n">
-        <v>49.736</v>
+        <v>49.251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B7" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C7" t="n">
         <v>2.5</v>
       </c>
       <c r="D7" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>7.906</v>
+        <v>1.07</v>
       </c>
       <c r="G7" t="n">
-        <v>-40.11771</v>
+        <v>-30.16284</v>
       </c>
       <c r="H7" t="n">
-        <v>-40.06392</v>
+        <v>-30.08701</v>
       </c>
       <c r="I7" t="n">
-        <v>-40.14324951</v>
+        <v>-30.09689713</v>
       </c>
       <c r="J7" t="n">
-        <v>-49.12155151</v>
+        <v>-50.04178619</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2035863399505615</v>
+        <v>0.1916728019714355</v>
       </c>
       <c r="L7" t="n">
-        <v>-40.2026596069</v>
+        <v>-30.1673851013</v>
       </c>
       <c r="M7" t="n">
-        <v>-37.2758102417</v>
+        <v>-47.2330589294</v>
       </c>
       <c r="N7" t="n">
-        <v>-37.2696380615</v>
+        <v>-47.2622642517</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2063589096069336</v>
+        <v>0.2095484733581543</v>
       </c>
       <c r="P7" t="n">
-        <v>-47.90587997</v>
+        <v>-47.87514114</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.630587100982666</v>
+        <v>1.644877910614014</v>
       </c>
       <c r="R7" t="n">
-        <v>-40.1891174316</v>
+        <v>-30.152425766</v>
       </c>
       <c r="S7" t="n">
-        <v>-52.2752914429</v>
+        <v>-62.3104496002</v>
       </c>
       <c r="T7" t="n">
-        <v>-52.2226486206</v>
+        <v>-62.2610721588</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5609426498413086</v>
+        <v>0.5522656440734863</v>
       </c>
       <c r="V7" t="n">
-        <v>-49.05772781</v>
+        <v>-49.05886078</v>
       </c>
       <c r="W7" t="n">
-        <v>2.66122841835022</v>
+        <v>2.651320457458496</v>
       </c>
       <c r="X7" t="n">
-        <v>-40.1869125366</v>
+        <v>-30.149553299</v>
       </c>
       <c r="Y7" t="n">
-        <v>-52.3071289062</v>
+        <v>-62.2808208466</v>
       </c>
       <c r="Z7" t="n">
-        <v>-52.258430481</v>
+        <v>-62.256231308</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5593914985656738</v>
+        <v>0.568964958190918</v>
       </c>
       <c r="AB7" t="n">
-        <v>-49.79190826</v>
+        <v>-49.8325882</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.812984704971313</v>
+        <v>4.835589408874512</v>
       </c>
       <c r="AD7" t="n">
-        <v>-40.1777687073</v>
+        <v>-30.1447696686</v>
       </c>
       <c r="AE7" t="n">
-        <v>-52.3211021423</v>
+        <v>-62.2872905731</v>
       </c>
       <c r="AF7" t="n">
-        <v>-52.2904090881</v>
+        <v>-62.276517868</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.548961877822876</v>
+        <v>0.5478911399841309</v>
       </c>
       <c r="AH7" t="n">
-        <v>-50.42164612</v>
+        <v>-50.40068817</v>
       </c>
       <c r="AI7" t="n">
-        <v>11.35714364051819</v>
+        <v>11.30406618118286</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-40.1911621094</v>
+        <v>-30.1469116211</v>
       </c>
       <c r="AK7" t="n">
-        <v>-52.2915878296</v>
+        <v>-62.2809066772</v>
       </c>
       <c r="AL7" t="n">
-        <v>-52.29637146</v>
+        <v>-62.2894058228</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.5552389621734619</v>
+        <v>0.5601348876953125</v>
       </c>
       <c r="AN7" t="n">
-        <v>-50.64878464</v>
+        <v>-50.61244965</v>
       </c>
       <c r="AO7" t="n">
-        <v>22.20161199569702</v>
+        <v>22.20612812042236</v>
       </c>
       <c r="AP7" t="n">
-        <v>-40.1854743958</v>
+        <v>-30.1420288086</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-52.2909355164</v>
+        <v>-62.2645263672</v>
       </c>
       <c r="AR7" t="n">
-        <v>-52.2928733826</v>
+        <v>-62.2871398926</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5633935928344727</v>
+        <v>0.5546672344207764</v>
       </c>
       <c r="AT7" t="n">
-        <v>49.925</v>
+        <v>49.449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B8" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C8" t="n">
         <v>2.6</v>
       </c>
       <c r="D8" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>7.906</v>
+        <v>0.99</v>
       </c>
       <c r="G8" t="n">
-        <v>-40.16945</v>
+        <v>-30.19737</v>
       </c>
       <c r="H8" t="n">
-        <v>-40.17495</v>
+        <v>-30.17624</v>
       </c>
       <c r="I8" t="n">
-        <v>-40.19841766</v>
+        <v>-30.20476913</v>
       </c>
       <c r="J8" t="n">
-        <v>-49.53365707</v>
+        <v>-50.49770355</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2019891738891602</v>
+        <v>0.1918911933898926</v>
       </c>
       <c r="L8" t="n">
-        <v>-40.2606658936</v>
+        <v>-30.2224063873</v>
       </c>
       <c r="M8" t="n">
-        <v>-37.1416625977</v>
+        <v>-47.148267746</v>
       </c>
       <c r="N8" t="n">
-        <v>-38.4508743286</v>
+        <v>-48.4217815399</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2082569599151611</v>
+        <v>0.2110533714294434</v>
       </c>
       <c r="P8" t="n">
-        <v>-47.91414642</v>
+        <v>-47.96458817</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.667577743530273</v>
+        <v>1.621413946151733</v>
       </c>
       <c r="R8" t="n">
-        <v>-40.2366256714</v>
+        <v>-30.1934242249</v>
       </c>
       <c r="S8" t="n">
-        <v>-52.1543960571</v>
+        <v>-62.2045936584</v>
       </c>
       <c r="T8" t="n">
-        <v>-53.4567337036</v>
+        <v>-63.4373970032</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5613183975219727</v>
+        <v>0.5525486469268799</v>
       </c>
       <c r="V8" t="n">
-        <v>-49.19833755</v>
+        <v>-49.27366638</v>
       </c>
       <c r="W8" t="n">
-        <v>2.713690519332886</v>
+        <v>2.682496070861816</v>
       </c>
       <c r="X8" t="n">
-        <v>-40.2461280823</v>
+        <v>-30.2004165649</v>
       </c>
       <c r="Y8" t="n">
-        <v>-52.1952629089</v>
+        <v>-62.1584320068</v>
       </c>
       <c r="Z8" t="n">
-        <v>-53.4662437439</v>
+        <v>-63.4411621094</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5573675632476807</v>
+        <v>0.5561478137969971</v>
       </c>
       <c r="AB8" t="n">
-        <v>-50.12033844</v>
+        <v>-50.15660858</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.849117040634155</v>
+        <v>4.835999488830566</v>
       </c>
       <c r="AD8" t="n">
-        <v>-40.2328643799</v>
+        <v>-30.2024154663</v>
       </c>
       <c r="AE8" t="n">
-        <v>-52.2104263306</v>
+        <v>-62.1592254639</v>
       </c>
       <c r="AF8" t="n">
-        <v>-53.4685974121</v>
+        <v>-63.4458084106</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5603024959564209</v>
+        <v>0.5555896759033203</v>
       </c>
       <c r="AH8" t="n">
-        <v>-50.7558403</v>
+        <v>-50.85616302</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.3285448551178</v>
+        <v>11.33125162124634</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-40.2415122986</v>
+        <v>-30.2003440857</v>
       </c>
       <c r="AK8" t="n">
-        <v>-52.1753883362</v>
+        <v>-62.1638069153</v>
       </c>
       <c r="AL8" t="n">
-        <v>-53.4503288269</v>
+        <v>-63.470790863</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.5688495635986328</v>
+        <v>0.5598130226135254</v>
       </c>
       <c r="AN8" t="n">
-        <v>-51.01512909</v>
+        <v>-51.11691284</v>
       </c>
       <c r="AO8" t="n">
-        <v>22.11381769180298</v>
+        <v>22.13466548919678</v>
       </c>
       <c r="AP8" t="n">
-        <v>-40.2454910278</v>
+        <v>-30.2069015503</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-52.1692428589</v>
+        <v>-62.1625289917</v>
       </c>
       <c r="AR8" t="n">
-        <v>-53.4356231689</v>
+        <v>-63.4651107788</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.554358959197998</v>
+        <v>0.5578000545501709</v>
       </c>
       <c r="AT8" t="n">
-        <v>49.943</v>
+        <v>49.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B9" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C9" t="n">
         <v>2.7</v>
       </c>
       <c r="D9" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>7.897</v>
+        <v>0.914</v>
       </c>
       <c r="G9" t="n">
-        <v>-40.18092</v>
+        <v>-30.19002</v>
       </c>
       <c r="H9" t="n">
-        <v>-40.14658</v>
+        <v>-30.16785</v>
       </c>
       <c r="I9" t="n">
-        <v>-40.32408142</v>
+        <v>-30.29013062</v>
       </c>
       <c r="J9" t="n">
-        <v>-49.347229</v>
+        <v>-50.05475616</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2014448642730713</v>
+        <v>0.1930637359619141</v>
       </c>
       <c r="L9" t="n">
-        <v>-40.1874771118</v>
+        <v>-30.1504402161</v>
       </c>
       <c r="M9" t="n">
-        <v>-38.3603515625</v>
+        <v>-48.2869529724</v>
       </c>
       <c r="N9" t="n">
-        <v>-38.237121582</v>
+        <v>-48.2469902039</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2090530395507812</v>
+        <v>0.2118890285491943</v>
       </c>
       <c r="P9" t="n">
-        <v>-48.1587944</v>
+        <v>-48.13167191</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.629459857940674</v>
+        <v>1.636909484863281</v>
       </c>
       <c r="R9" t="n">
-        <v>-40.177947998</v>
+        <v>-30.1339435577</v>
       </c>
       <c r="S9" t="n">
-        <v>-53.3524703979</v>
+        <v>-63.359670639</v>
       </c>
       <c r="T9" t="n">
-        <v>-53.2565383911</v>
+        <v>-63.2527751923</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5539662837982178</v>
+        <v>0.5599164962768555</v>
       </c>
       <c r="V9" t="n">
-        <v>-49.31439972</v>
+        <v>-49.24245453</v>
       </c>
       <c r="W9" t="n">
-        <v>2.714649677276611</v>
+        <v>2.673163890838623</v>
       </c>
       <c r="X9" t="n">
-        <v>-40.1816139221</v>
+        <v>-30.1510448456</v>
       </c>
       <c r="Y9" t="n">
-        <v>-53.3526268005</v>
+        <v>-63.2919940948</v>
       </c>
       <c r="Z9" t="n">
-        <v>-53.2593650818</v>
+        <v>-63.2339038849</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5530765056610107</v>
+        <v>0.581127405166626</v>
       </c>
       <c r="AB9" t="n">
-        <v>-50.07598877</v>
+        <v>-50.08319855</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.787513494491577</v>
+        <v>4.841316223144531</v>
       </c>
       <c r="AD9" t="n">
-        <v>-40.1785812378</v>
+        <v>-30.144701004</v>
       </c>
       <c r="AE9" t="n">
-        <v>-53.3865890503</v>
+        <v>-63.3294506073</v>
       </c>
       <c r="AF9" t="n">
-        <v>-53.3105392456</v>
+        <v>-63.2304363251</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.5489504337310791</v>
+        <v>0.5493283271789551</v>
       </c>
       <c r="AH9" t="n">
-        <v>-50.69449997</v>
+        <v>-50.61569977</v>
       </c>
       <c r="AI9" t="n">
-        <v>11.33921051025391</v>
+        <v>11.33544683456421</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-40.1839103699</v>
+        <v>-30.1493415833</v>
       </c>
       <c r="AK9" t="n">
-        <v>-53.357585907</v>
+        <v>-63.335849762</v>
       </c>
       <c r="AL9" t="n">
-        <v>-53.2628898621</v>
+        <v>-63.225276947</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.556513786315918</v>
+        <v>0.5509562492370605</v>
       </c>
       <c r="AN9" t="n">
-        <v>-50.85902786</v>
+        <v>-50.77437592</v>
       </c>
       <c r="AO9" t="n">
-        <v>22.17869925498962</v>
+        <v>22.23521947860718</v>
       </c>
       <c r="AP9" t="n">
-        <v>-40.1750183105</v>
+        <v>-30.14635849</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-53.3528594971</v>
+        <v>-63.2999076843</v>
       </c>
       <c r="AR9" t="n">
-        <v>-53.251449585</v>
+        <v>-63.2627296448</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.5704019069671631</v>
+        <v>0.5576300621032715</v>
       </c>
       <c r="AT9" t="n">
-        <v>49.921</v>
+        <v>49.581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B10" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C10" t="n">
         <v>2.8</v>
       </c>
       <c r="D10" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>7.896</v>
+        <v>0.909</v>
       </c>
       <c r="G10" t="n">
-        <v>-40.24881</v>
+        <v>-30.23645</v>
       </c>
       <c r="H10" t="n">
-        <v>-40.17882</v>
+        <v>-30.20802</v>
       </c>
       <c r="I10" t="n">
-        <v>-40.23947906</v>
+        <v>-30.23120117</v>
       </c>
       <c r="J10" t="n">
-        <v>-48.67134857</v>
+        <v>-49.21554184</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2013840675354004</v>
+        <v>0.201430082321167</v>
       </c>
       <c r="L10" t="n">
-        <v>-40.1915931702</v>
+        <v>-30.1624584198</v>
       </c>
       <c r="M10" t="n">
-        <v>-38.1163902283</v>
+        <v>-48.09258461</v>
       </c>
       <c r="N10" t="n">
-        <v>-38.2331809998</v>
+        <v>-48.2298145294</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2089855670928955</v>
+        <v>0.2145628929138184</v>
       </c>
       <c r="P10" t="n">
-        <v>-47.32250977</v>
+        <v>-47.4157486</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.616644144058228</v>
+        <v>1.627848386764526</v>
       </c>
       <c r="R10" t="n">
-        <v>-40.1738166809</v>
+        <v>-30.1465625763</v>
       </c>
       <c r="S10" t="n">
-        <v>-53.1467933655</v>
+        <v>-63.1249141693</v>
       </c>
       <c r="T10" t="n">
-        <v>-53.2399330139</v>
+        <v>-63.233915329</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5621075630187988</v>
+        <v>0.5524497032165527</v>
       </c>
       <c r="V10" t="n">
-        <v>-48.36388016</v>
+        <v>-48.39858246</v>
       </c>
       <c r="W10" t="n">
-        <v>2.682416677474976</v>
+        <v>2.643651008605957</v>
       </c>
       <c r="X10" t="n">
-        <v>-40.16771698</v>
+        <v>-30.1418533325</v>
       </c>
       <c r="Y10" t="n">
-        <v>-53.1595840454</v>
+        <v>-63.1135177612</v>
       </c>
       <c r="Z10" t="n">
-        <v>-53.2324142456</v>
+        <v>-63.2423400879</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.5587708950042725</v>
+        <v>0.5495967864990234</v>
       </c>
       <c r="AB10" t="n">
-        <v>-49.06676865</v>
+        <v>-49.12322998</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.805847644805908</v>
+        <v>4.864220857620239</v>
       </c>
       <c r="AD10" t="n">
-        <v>-40.1827774048</v>
+        <v>-30.1429538727</v>
       </c>
       <c r="AE10" t="n">
-        <v>-53.1256332397</v>
+        <v>-63.1229610443</v>
       </c>
       <c r="AF10" t="n">
-        <v>-53.1909255981</v>
+        <v>-63.2295436859</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5683567523956299</v>
+        <v>0.5624563694000244</v>
       </c>
       <c r="AH10" t="n">
-        <v>-49.54614639</v>
+        <v>-49.61133957</v>
       </c>
       <c r="AI10" t="n">
-        <v>11.34271454811096</v>
+        <v>11.31760120391846</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-40.1772613525</v>
+        <v>-30.1471710205</v>
       </c>
       <c r="AK10" t="n">
-        <v>-53.150642395</v>
+        <v>-63.1124038696</v>
       </c>
       <c r="AL10" t="n">
-        <v>-53.213180542</v>
+        <v>-63.2402496338</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.5500662326812744</v>
+        <v>0.5559515953063965</v>
       </c>
       <c r="AN10" t="n">
-        <v>-49.72285461</v>
+        <v>-49.76700592</v>
       </c>
       <c r="AO10" t="n">
-        <v>22.14330649375916</v>
+        <v>22.19061994552612</v>
       </c>
       <c r="AP10" t="n">
-        <v>-40.177444458</v>
+        <v>-30.1505832672</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-53.1608581543</v>
+        <v>-63.1397075653</v>
       </c>
       <c r="AR10" t="n">
-        <v>-53.2582092285</v>
+        <v>-63.2285671234</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.5684220790863037</v>
+        <v>0.5581860542297363</v>
       </c>
       <c r="AT10" t="n">
-        <v>49.856</v>
+        <v>49.689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B11" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C11" t="n">
         <v>2.9</v>
       </c>
       <c r="D11" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>7.901</v>
+        <v>0.988</v>
       </c>
       <c r="G11" t="n">
-        <v>-40.31631</v>
+        <v>-30.27518</v>
       </c>
       <c r="H11" t="n">
-        <v>-40.23214</v>
+        <v>-30.23056</v>
       </c>
       <c r="I11" t="n">
-        <v>-40.35002899</v>
+        <v>-30.32092285</v>
       </c>
       <c r="J11" t="n">
-        <v>-48.94418716</v>
+        <v>-49.74547958</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2009346485137939</v>
+        <v>0.2033989429473877</v>
       </c>
       <c r="L11" t="n">
-        <v>-40.274143219</v>
+        <v>-30.2258529663</v>
       </c>
       <c r="M11" t="n">
-        <v>-38.5246925354</v>
+        <v>-48.4794464111</v>
       </c>
       <c r="N11" t="n">
-        <v>-38.4342079163</v>
+        <v>-48.4223251343</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2078003883361816</v>
+        <v>0.2061717510223389</v>
       </c>
       <c r="P11" t="n">
-        <v>-47.68457413</v>
+        <v>-47.62208939</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.608782768249512</v>
+        <v>1.609163761138916</v>
       </c>
       <c r="R11" t="n">
-        <v>-40.2640686035</v>
+        <v>-30.2172546387</v>
       </c>
       <c r="S11" t="n">
-        <v>-53.5067825317</v>
+        <v>-63.4834518433</v>
       </c>
       <c r="T11" t="n">
-        <v>-53.4496994019</v>
+        <v>-63.4658508301</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5493330955505371</v>
+        <v>0.5508131980895996</v>
       </c>
       <c r="V11" t="n">
-        <v>-48.85943604</v>
+        <v>-48.77132034</v>
       </c>
       <c r="W11" t="n">
-        <v>2.654137372970581</v>
+        <v>2.663914918899536</v>
       </c>
       <c r="X11" t="n">
-        <v>-40.2635421753</v>
+        <v>-30.2071971893</v>
       </c>
       <c r="Y11" t="n">
-        <v>-53.5149230957</v>
+        <v>-63.5157260895</v>
       </c>
       <c r="Z11" t="n">
-        <v>-53.4549179077</v>
+        <v>-63.4824314117</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5517048835754395</v>
+        <v>0.5912487506866455</v>
       </c>
       <c r="AB11" t="n">
-        <v>-49.62239075</v>
+        <v>-49.58021545</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.830134153366089</v>
+        <v>4.819423913955688</v>
       </c>
       <c r="AD11" t="n">
-        <v>-40.2549057007</v>
+        <v>-30.2191810608</v>
       </c>
       <c r="AE11" t="n">
-        <v>-53.5270080566</v>
+        <v>-63.4847297668</v>
       </c>
       <c r="AF11" t="n">
-        <v>-53.4631347656</v>
+        <v>-63.4723167419</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.5514698028564453</v>
+        <v>0.5565903186798096</v>
       </c>
       <c r="AH11" t="n">
-        <v>-50.25688553</v>
+        <v>-50.13805008</v>
       </c>
       <c r="AI11" t="n">
-        <v>11.37553715705872</v>
+        <v>11.3589015007019</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-40.2712249756</v>
+        <v>-30.2138748169</v>
       </c>
       <c r="AK11" t="n">
-        <v>-53.4963302612</v>
+        <v>-63.4955062866</v>
       </c>
       <c r="AL11" t="n">
-        <v>-53.4628677368</v>
+        <v>-63.4619293213</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.5479717254638672</v>
+        <v>0.5529942512512207</v>
       </c>
       <c r="AN11" t="n">
-        <v>-50.46598053</v>
+        <v>-50.30761719</v>
       </c>
       <c r="AO11" t="n">
-        <v>22.08440518379211</v>
+        <v>22.23734784126282</v>
       </c>
       <c r="AP11" t="n">
-        <v>-40.2580947876</v>
+        <v>-30.2141666412</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-53.5545730591</v>
+        <v>-63.4958934784</v>
       </c>
       <c r="AR11" t="n">
-        <v>-53.4808883667</v>
+        <v>-63.456823349</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.5528717041015625</v>
+        <v>0.5478079319000244</v>
       </c>
       <c r="AT11" t="n">
-        <v>49.779</v>
+        <v>49.829</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B12" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>7.912</v>
+        <v>1.074</v>
       </c>
       <c r="G12" t="n">
-        <v>-40.27487</v>
+        <v>-30.26108</v>
       </c>
       <c r="H12" t="n">
-        <v>-40.23865</v>
+        <v>-30.26076</v>
       </c>
       <c r="I12" t="n">
-        <v>-40.43190765</v>
+        <v>-30.35296631</v>
       </c>
       <c r="J12" t="n">
-        <v>-48.73210907</v>
+        <v>-50.03017807</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1914894580841064</v>
+        <v>0.1969342231750488</v>
       </c>
       <c r="L12" t="n">
-        <v>-40.2949104309</v>
+        <v>-30.2541046143</v>
       </c>
       <c r="M12" t="n">
-        <v>-38.2472496033</v>
+        <v>-48.2123413086</v>
       </c>
       <c r="N12" t="n">
-        <v>-39.7365989685</v>
+        <v>-49.6421890259</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2115886211395264</v>
+        <v>0.2108297348022461</v>
       </c>
       <c r="P12" t="n">
-        <v>-47.32743835</v>
+        <v>-47.34590912</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.634812116622925</v>
+        <v>1.617605924606323</v>
       </c>
       <c r="R12" t="n">
-        <v>-40.2963600159</v>
+        <v>-30.2373332977</v>
       </c>
       <c r="S12" t="n">
-        <v>-53.264705658</v>
+        <v>-63.2734775543</v>
       </c>
       <c r="T12" t="n">
-        <v>-54.6703224182</v>
+        <v>-64.6748981476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5521106719970703</v>
+        <v>0.5637869834899902</v>
       </c>
       <c r="V12" t="n">
-        <v>-48.57595825</v>
+        <v>-48.60548401</v>
       </c>
       <c r="W12" t="n">
-        <v>2.647436141967773</v>
+        <v>2.654644250869751</v>
       </c>
       <c r="X12" t="n">
-        <v>-40.2930297852</v>
+        <v>-30.2412433624</v>
       </c>
       <c r="Y12" t="n">
-        <v>-53.2634506226</v>
+        <v>-63.2518138885</v>
       </c>
       <c r="Z12" t="n">
-        <v>-54.6761474609</v>
+        <v>-64.65745353699999</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5512621402740479</v>
+        <v>0.5600430965423584</v>
       </c>
       <c r="AB12" t="n">
-        <v>-49.47264099</v>
+        <v>-49.42256165</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.819665908813477</v>
+        <v>4.812749624252319</v>
       </c>
       <c r="AD12" t="n">
-        <v>-40.2925453186</v>
+        <v>-30.2346038818</v>
       </c>
       <c r="AE12" t="n">
-        <v>-53.2749595642</v>
+        <v>-63.2807312012</v>
       </c>
       <c r="AF12" t="n">
-        <v>-54.6724815369</v>
+        <v>-64.67161560060001</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5575375556945801</v>
+        <v>0.5612671375274658</v>
       </c>
       <c r="AH12" t="n">
-        <v>-50.11174011</v>
+        <v>-50.12652969</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.33319759368896</v>
+        <v>11.36778140068054</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-40.2890472412</v>
+        <v>-30.2408943176</v>
       </c>
       <c r="AK12" t="n">
-        <v>-53.2554626465</v>
+        <v>-63.2151832581</v>
       </c>
       <c r="AL12" t="n">
-        <v>-54.6923065186</v>
+        <v>-64.6910667419</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.5582003593444824</v>
+        <v>0.5658624172210693</v>
       </c>
       <c r="AN12" t="n">
-        <v>-50.30156708</v>
+        <v>-50.33853912</v>
       </c>
       <c r="AO12" t="n">
-        <v>22.0959324836731</v>
+        <v>22.09295535087585</v>
       </c>
       <c r="AP12" t="n">
-        <v>-40.2857284546</v>
+        <v>-30.2437038422</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-53.2508926392</v>
+        <v>-63.2062091827</v>
       </c>
       <c r="AR12" t="n">
-        <v>-54.7219009399</v>
+        <v>-64.703332901</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5632410049438477</v>
+        <v>0.5743963718414307</v>
       </c>
       <c r="AT12" t="n">
-        <v>49.798</v>
+        <v>49.601</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B13" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C13" t="n">
         <v>3.1</v>
       </c>
       <c r="D13" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>7.896</v>
+        <v>1.313</v>
       </c>
       <c r="G13" t="n">
-        <v>-40.36281</v>
+        <v>-30.35453</v>
       </c>
       <c r="H13" t="n">
-        <v>-40.23098</v>
+        <v>-30.24167</v>
       </c>
       <c r="I13" t="n">
-        <v>-40.31678772</v>
+        <v>-30.2686882</v>
       </c>
       <c r="J13" t="n">
-        <v>-49.29539108</v>
+        <v>-50.36649323</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1933236122131348</v>
+        <v>0.2036399841308594</v>
       </c>
       <c r="L13" t="n">
-        <v>-40.2024879456</v>
+        <v>-30.1407909393</v>
       </c>
       <c r="M13" t="n">
-        <v>-40.1628074646</v>
+        <v>-50.1262454987</v>
       </c>
       <c r="N13" t="n">
-        <v>-40.2460823059</v>
+        <v>-50.2811527252</v>
       </c>
       <c r="O13" t="n">
-        <v>0.209583044052124</v>
+        <v>0.2477920055389404</v>
       </c>
       <c r="P13" t="n">
-        <v>-47.77561569</v>
+        <v>-47.81010056</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.613414287567139</v>
+        <v>1.624513626098633</v>
       </c>
       <c r="R13" t="n">
-        <v>-40.1938934326</v>
+        <v>-30.1387176514</v>
       </c>
       <c r="S13" t="n">
-        <v>-55.1274261475</v>
+        <v>-65.10586547849999</v>
       </c>
       <c r="T13" t="n">
-        <v>-55.2768249512</v>
+        <v>-65.2075424194</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5525600910186768</v>
+        <v>0.5525109767913818</v>
       </c>
       <c r="V13" t="n">
-        <v>-49.0853157</v>
+        <v>-49.09009552</v>
       </c>
       <c r="W13" t="n">
-        <v>2.667211771011353</v>
+        <v>2.66767430305481</v>
       </c>
       <c r="X13" t="n">
-        <v>-40.1871833801</v>
+        <v>-30.1381397247</v>
       </c>
       <c r="Y13" t="n">
-        <v>-55.1478385925</v>
+        <v>-64.560125351</v>
       </c>
       <c r="Z13" t="n">
-        <v>-55.2391624451</v>
+        <v>-65.2666072845</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.5539748668670654</v>
+        <v>0.5556480884552002</v>
       </c>
       <c r="AB13" t="n">
-        <v>-49.96434021</v>
+        <v>-50.0006485</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.812230348587036</v>
+        <v>4.836518049240112</v>
       </c>
       <c r="AD13" t="n">
-        <v>-40.1892166138</v>
+        <v>-30.1286087036</v>
       </c>
       <c r="AE13" t="n">
-        <v>-55.0998001099</v>
+        <v>-65.13971710209999</v>
       </c>
       <c r="AF13" t="n">
-        <v>-55.2321548462</v>
+        <v>-65.2947463989</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.5584707260131836</v>
+        <v>0.5566627979278564</v>
       </c>
       <c r="AH13" t="n">
-        <v>-50.66412354</v>
+        <v>-50.68782043</v>
       </c>
       <c r="AI13" t="n">
-        <v>11.30003547668457</v>
+        <v>11.32418656349182</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-40.1951751709</v>
+        <v>-30.1379508972</v>
       </c>
       <c r="AK13" t="n">
-        <v>-55.1738586426</v>
+        <v>-64.44480514529999</v>
       </c>
       <c r="AL13" t="n">
-        <v>-55.2708129883</v>
+        <v>-65.2405891418</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.5539472103118896</v>
+        <v>0.5509059429168701</v>
       </c>
       <c r="AN13" t="n">
-        <v>-50.87543106</v>
+        <v>-50.89310455</v>
       </c>
       <c r="AO13" t="n">
-        <v>22.10389447212219</v>
+        <v>22.20099258422852</v>
       </c>
       <c r="AP13" t="n">
-        <v>-40.1938285828</v>
+        <v>-30.1272621155</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-55.1360969543</v>
+        <v>-65.13029861450001</v>
       </c>
       <c r="AR13" t="n">
-        <v>-55.2443275452</v>
+        <v>-65.2718238831</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.554354190826416</v>
+        <v>0.5748155117034912</v>
       </c>
       <c r="AT13" t="n">
-        <v>49.749</v>
+        <v>49.737</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B14" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C14" t="n">
         <v>3.2</v>
       </c>
       <c r="D14" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>7.902</v>
+        <v>1.398</v>
       </c>
       <c r="G14" t="n">
-        <v>-40.36923</v>
+        <v>-30.3962</v>
       </c>
       <c r="H14" t="n">
-        <v>-40.28445</v>
+        <v>-30.29686</v>
       </c>
       <c r="I14" t="n">
-        <v>-40.3266983</v>
+        <v>-30.32035065</v>
       </c>
       <c r="J14" t="n">
-        <v>-48.84399414</v>
+        <v>-50.44289017</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2031445503234863</v>
+        <v>0.1972846984863281</v>
       </c>
       <c r="L14" t="n">
-        <v>-40.290512085</v>
+        <v>-30.2445392609</v>
       </c>
       <c r="M14" t="n">
-        <v>-39.0194015503</v>
+        <v>-48.9321193695</v>
       </c>
       <c r="N14" t="n">
-        <v>-39.9732971191</v>
+        <v>-50.0270519257</v>
       </c>
       <c r="O14" t="n">
-        <v>0.209787130355835</v>
+        <v>0.2110044956207275</v>
       </c>
       <c r="P14" t="n">
-        <v>-47.24938202</v>
+        <v>-47.27111435</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.627721071243286</v>
+        <v>1.636707782745361</v>
       </c>
       <c r="R14" t="n">
-        <v>-40.2722206116</v>
+        <v>-30.2276153564</v>
       </c>
       <c r="S14" t="n">
-        <v>-54.0523414612</v>
+        <v>-63.974281311</v>
       </c>
       <c r="T14" t="n">
-        <v>-55.0581016541</v>
+        <v>-65.0368804932</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5568385124206543</v>
+        <v>0.5618669986724854</v>
       </c>
       <c r="V14" t="n">
-        <v>-48.6373558</v>
+        <v>-48.71067429</v>
       </c>
       <c r="W14" t="n">
-        <v>2.638200521469116</v>
+        <v>2.670351505279541</v>
       </c>
       <c r="X14" t="n">
-        <v>-40.2785263062</v>
+        <v>-30.2325325012</v>
       </c>
       <c r="Y14" t="n">
-        <v>-54.0101394653</v>
+        <v>-63.9546928406</v>
       </c>
       <c r="Z14" t="n">
-        <v>-55.0109329224</v>
+        <v>-64.9983940125</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5595138072967529</v>
+        <v>0.5578780174255371</v>
       </c>
       <c r="AB14" t="n">
-        <v>-49.61194611</v>
+        <v>-49.63709259</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.817448616027832</v>
+        <v>4.857747316360474</v>
       </c>
       <c r="AD14" t="n">
-        <v>-40.2722587585</v>
+        <v>-30.223772049</v>
       </c>
       <c r="AE14" t="n">
-        <v>-54.034488678</v>
+        <v>-63.9741420746</v>
       </c>
       <c r="AF14" t="n">
-        <v>-55.028842926</v>
+        <v>-65.0245571136</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.5614879131317139</v>
+        <v>0.5512924194335938</v>
       </c>
       <c r="AH14" t="n">
-        <v>-50.40364075</v>
+        <v>-50.47829437</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.40328049659729</v>
+        <v>11.37629365921021</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-40.2775764465</v>
+        <v>-30.2262802124</v>
       </c>
       <c r="AK14" t="n">
-        <v>-53.9643516541</v>
+        <v>-63.9645385742</v>
       </c>
       <c r="AL14" t="n">
-        <v>-55.0038795471</v>
+        <v>-64.9801101685</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.5584135055541992</v>
+        <v>0.5568029880523682</v>
       </c>
       <c r="AN14" t="n">
-        <v>-50.64231491</v>
+        <v>-50.7336731</v>
       </c>
       <c r="AO14" t="n">
-        <v>21.93080949783325</v>
+        <v>22.27010798454285</v>
       </c>
       <c r="AP14" t="n">
-        <v>-40.2761650085</v>
+        <v>-30.2379112244</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-54.031665802</v>
+        <v>-63.9755058289</v>
       </c>
       <c r="AR14" t="n">
-        <v>-55.0501060486</v>
+        <v>-65.0158729553</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.5638482570648193</v>
+        <v>0.5598568916320801</v>
       </c>
       <c r="AT14" t="n">
-        <v>49.774</v>
+        <v>49.876</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B15" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C15" t="n">
         <v>3.3</v>
       </c>
       <c r="D15" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>7.906</v>
+        <v>1.473</v>
       </c>
       <c r="G15" t="n">
-        <v>-40.39649</v>
+        <v>-30.42339</v>
       </c>
       <c r="H15" t="n">
-        <v>-40.31441</v>
+        <v>-30.34209</v>
       </c>
       <c r="I15" t="n">
-        <v>-40.34705353</v>
+        <v>-30.3584137</v>
       </c>
       <c r="J15" t="n">
-        <v>-49.06555557</v>
+        <v>-50.4144516</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1925680637359619</v>
+        <v>0.1907281875610352</v>
       </c>
       <c r="L15" t="n">
-        <v>-40.3239021301</v>
+        <v>-30.2761249542</v>
       </c>
       <c r="M15" t="n">
-        <v>-40.1869163513</v>
+        <v>-50.1271953583</v>
       </c>
       <c r="N15" t="n">
-        <v>-40.0339622498</v>
+        <v>-50.0747127533</v>
       </c>
       <c r="O15" t="n">
-        <v>0.20953369140625</v>
+        <v>0.2113709449768066</v>
       </c>
       <c r="P15" t="n">
-        <v>-47.4397049</v>
+        <v>-47.48005676</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.618484973907471</v>
+        <v>1.616006851196289</v>
       </c>
       <c r="R15" t="n">
-        <v>-40.3096237183</v>
+        <v>-30.2714138031</v>
       </c>
       <c r="S15" t="n">
-        <v>-55.1740646362</v>
+        <v>-64.78767585750001</v>
       </c>
       <c r="T15" t="n">
-        <v>-55.0638198853</v>
+        <v>-65.0817813873</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5575442314147949</v>
+        <v>0.5501258373260498</v>
       </c>
       <c r="V15" t="n">
-        <v>-48.897789</v>
+        <v>-48.91399765</v>
       </c>
       <c r="W15" t="n">
-        <v>2.642779350280762</v>
+        <v>2.683753967285156</v>
       </c>
       <c r="X15" t="n">
-        <v>-40.3198318481</v>
+        <v>-30.2621555328</v>
       </c>
       <c r="Y15" t="n">
-        <v>-55.18775177</v>
+        <v>-65.10425376889999</v>
       </c>
       <c r="Z15" t="n">
-        <v>-55.0720977783</v>
+        <v>-65.0927333832</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.5544943809509277</v>
+        <v>0.5482006072998047</v>
       </c>
       <c r="AB15" t="n">
-        <v>-49.9072876</v>
+        <v>-49.9837532</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.825700759887695</v>
+        <v>4.83086633682251</v>
       </c>
       <c r="AD15" t="n">
-        <v>-40.3003158569</v>
+        <v>-30.2728729248</v>
       </c>
       <c r="AE15" t="n">
-        <v>-55.2200088501</v>
+        <v>-65.1167984009</v>
       </c>
       <c r="AF15" t="n">
-        <v>-55.0985412598</v>
+        <v>-65.0708389282</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.550825834274292</v>
+        <v>0.5508952140808105</v>
       </c>
       <c r="AH15" t="n">
-        <v>-50.79263306</v>
+        <v>-50.77273941</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.35881900787354</v>
+        <v>11.35716438293457</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-40.3131332397</v>
+        <v>-30.2749519348</v>
       </c>
       <c r="AK15" t="n">
-        <v>-55.1694869995</v>
+        <v>-64.9778022766</v>
       </c>
       <c r="AL15" t="n">
-        <v>-55.0460662842</v>
+        <v>-65.0399284363</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.5505175590515137</v>
+        <v>0.5706081390380859</v>
       </c>
       <c r="AN15" t="n">
-        <v>-51.07418442</v>
+        <v>-51.10516357</v>
       </c>
       <c r="AO15" t="n">
-        <v>21.99752426147461</v>
+        <v>22.26345658302307</v>
       </c>
       <c r="AP15" t="n">
-        <v>-40.3135147095</v>
+        <v>-30.2652721405</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-55.2198257446</v>
+        <v>-65.1605701447</v>
       </c>
       <c r="AR15" t="n">
-        <v>-55.0700302124</v>
+        <v>-65.09757423400001</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.5511832237243652</v>
+        <v>0.5635392665863037</v>
       </c>
       <c r="AT15" t="n">
-        <v>49.617</v>
+        <v>49.766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B16" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C16" t="n">
         <v>3.4</v>
       </c>
       <c r="D16" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>7.905</v>
+        <v>1.473</v>
       </c>
       <c r="G16" t="n">
-        <v>-40.40626</v>
+        <v>-30.42482</v>
       </c>
       <c r="H16" t="n">
-        <v>-40.35206</v>
+        <v>-30.34458</v>
       </c>
       <c r="I16" t="n">
-        <v>-40.50247955</v>
+        <v>-30.45589066</v>
       </c>
       <c r="J16" t="n">
-        <v>-48.92414474</v>
+        <v>-50.92079163</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1966152191162109</v>
+        <v>0.2014918327331543</v>
       </c>
       <c r="L16" t="n">
-        <v>-40.3725852966</v>
+        <v>-30.314245224</v>
       </c>
       <c r="M16" t="n">
-        <v>-40.2195777893</v>
+        <v>-50.1801776886</v>
       </c>
       <c r="N16" t="n">
-        <v>-40.2536201477</v>
+        <v>-50.3050174713</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2061223983764648</v>
+        <v>0.207575798034668</v>
       </c>
       <c r="P16" t="n">
-        <v>-47.30867767</v>
+        <v>-47.22190475</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.618187189102173</v>
+        <v>1.630784749984741</v>
       </c>
       <c r="R16" t="n">
-        <v>-40.3554725647</v>
+        <v>-30.3000469208</v>
       </c>
       <c r="S16" t="n">
-        <v>-55.2549552917</v>
+        <v>-65.2045230865</v>
       </c>
       <c r="T16" t="n">
-        <v>-55.2775688171</v>
+        <v>-65.30446052550001</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5518953800201416</v>
+        <v>0.5639927387237549</v>
       </c>
       <c r="V16" t="n">
-        <v>-48.81522751</v>
+        <v>-48.77209473</v>
       </c>
       <c r="W16" t="n">
-        <v>2.628853559494019</v>
+        <v>2.655742645263672</v>
       </c>
       <c r="X16" t="n">
-        <v>-40.3695602417</v>
+        <v>-30.3017520905</v>
       </c>
       <c r="Y16" t="n">
-        <v>-55.2156906128</v>
+        <v>-65.2193965912</v>
       </c>
       <c r="Z16" t="n">
-        <v>-55.3248672485</v>
+        <v>-65.2864818573</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.5509898662567139</v>
+        <v>0.5527677536010742</v>
       </c>
       <c r="AB16" t="n">
-        <v>-49.91514587</v>
+        <v>-49.83481598</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.808770895004272</v>
+        <v>4.831323146820068</v>
       </c>
       <c r="AD16" t="n">
-        <v>-40.3674354553</v>
+        <v>-30.301399231</v>
       </c>
       <c r="AE16" t="n">
-        <v>-55.2432899475</v>
+        <v>-65.1845550537</v>
       </c>
       <c r="AF16" t="n">
-        <v>-55.3261985779</v>
+        <v>-65.31150054930001</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.5513184070587158</v>
+        <v>0.5587124824523926</v>
       </c>
       <c r="AH16" t="n">
-        <v>-50.75077438</v>
+        <v>-50.68538666</v>
       </c>
       <c r="AI16" t="n">
-        <v>11.29425525665283</v>
+        <v>11.32835817337036</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-40.3615875244</v>
+        <v>-30.2964134216</v>
       </c>
       <c r="AK16" t="n">
-        <v>-55.2231292725</v>
+        <v>-65.1891059875</v>
       </c>
       <c r="AL16" t="n">
-        <v>-55.3104400635</v>
+        <v>-65.32370376590001</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.5529477596282959</v>
+        <v>0.5501036643981934</v>
       </c>
       <c r="AN16" t="n">
-        <v>-51.08448029</v>
+        <v>-50.96317673</v>
       </c>
       <c r="AO16" t="n">
-        <v>22.15823197364807</v>
+        <v>22.29375123977661</v>
       </c>
       <c r="AP16" t="n">
-        <v>-40.362285614</v>
+        <v>-30.3042984009</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-55.2257728577</v>
+        <v>-65.1716384888</v>
       </c>
       <c r="AR16" t="n">
-        <v>-55.3163490295</v>
+        <v>-65.3474731445</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5502870082855225</v>
+        <v>0.5570549964904785</v>
       </c>
       <c r="AT16" t="n">
-        <v>49.725</v>
+        <v>49.746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B17" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C17" t="n">
         <v>3.5</v>
       </c>
       <c r="D17" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>7.895</v>
+        <v>1.397</v>
       </c>
       <c r="G17" t="n">
-        <v>-40.47195</v>
+        <v>-30.47175</v>
       </c>
       <c r="H17" t="n">
-        <v>-40.37042</v>
+        <v>-30.37969</v>
       </c>
       <c r="I17" t="n">
-        <v>-40.40019226</v>
+        <v>-30.30265427</v>
       </c>
       <c r="J17" t="n">
-        <v>-48.52023315</v>
+        <v>-50.39842987</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1967294216156006</v>
+        <v>0.1979525089263916</v>
       </c>
       <c r="L17" t="n">
-        <v>-40.4434928894</v>
+        <v>-30.3827953339</v>
       </c>
       <c r="M17" t="n">
-        <v>-38.8313026428</v>
+        <v>-48.8071308136</v>
       </c>
       <c r="N17" t="n">
-        <v>-38.5206184387</v>
+        <v>-48.5728168488</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2041919231414795</v>
+        <v>0.2846865653991699</v>
       </c>
       <c r="P17" t="n">
-        <v>-48.40102768</v>
+        <v>-48.47581863</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.624842643737793</v>
+        <v>1.606789827346802</v>
       </c>
       <c r="R17" t="n">
-        <v>-40.4376945496</v>
+        <v>-30.3899745941</v>
       </c>
       <c r="S17" t="n">
-        <v>-53.8401451111</v>
+        <v>-63.8076572418</v>
       </c>
       <c r="T17" t="n">
-        <v>-53.5057563782</v>
+        <v>-63.5687961578</v>
       </c>
       <c r="U17" t="n">
-        <v>0.5179088115692139</v>
+        <v>0.5220110416412354</v>
       </c>
       <c r="V17" t="n">
-        <v>-49.47530365</v>
+        <v>-49.48001862</v>
       </c>
       <c r="W17" t="n">
-        <v>2.654870510101318</v>
+        <v>2.669173717498779</v>
       </c>
       <c r="X17" t="n">
-        <v>-40.4287338257</v>
+        <v>-30.3888912201</v>
       </c>
       <c r="Y17" t="n">
-        <v>-53.8743972778</v>
+        <v>-63.8182926178</v>
       </c>
       <c r="Z17" t="n">
-        <v>-53.5468597412</v>
+        <v>-63.5552692413</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.515066385269165</v>
+        <v>0.5202195644378662</v>
       </c>
       <c r="AB17" t="n">
-        <v>-50.14390564</v>
+        <v>-50.17207336</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.823652267456055</v>
+        <v>4.851513385772705</v>
       </c>
       <c r="AD17" t="n">
-        <v>-40.4372596741</v>
+        <v>-30.3947143555</v>
       </c>
       <c r="AE17" t="n">
-        <v>-53.7978172302</v>
+        <v>-63.7782897949</v>
       </c>
       <c r="AF17" t="n">
-        <v>-53.5400047302</v>
+        <v>-63.547164917</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.5207703113555908</v>
+        <v>0.5163717269897461</v>
       </c>
       <c r="AH17" t="n">
-        <v>-50.61448669</v>
+        <v>-50.70724869</v>
       </c>
       <c r="AI17" t="n">
-        <v>11.30822587013245</v>
+        <v>11.41127133369446</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-40.430557251</v>
+        <v>-30.3861904144</v>
       </c>
       <c r="AK17" t="n">
-        <v>-53.8108444214</v>
+        <v>-63.8114948273</v>
       </c>
       <c r="AL17" t="n">
-        <v>-53.5652160645</v>
+        <v>-63.5670261383</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.5192689895629883</v>
+        <v>0.5180790424346924</v>
       </c>
       <c r="AN17" t="n">
-        <v>-50.79909515</v>
+        <v>-50.86515045</v>
       </c>
       <c r="AO17" t="n">
-        <v>22.10260009765625</v>
+        <v>22.19474601745605</v>
       </c>
       <c r="AP17" t="n">
-        <v>-40.4380073547</v>
+        <v>-30.3969955444</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-53.7965736389</v>
+        <v>-63.8322219849</v>
       </c>
       <c r="AR17" t="n">
-        <v>-53.546245575</v>
+        <v>-63.5354156494</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.5227651596069336</v>
+        <v>0.5206217765808105</v>
       </c>
       <c r="AT17" t="n">
-        <v>49.55</v>
+        <v>49.685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B18" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C18" t="n">
         <v>3.6</v>
       </c>
       <c r="D18" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>7.906</v>
+        <v>1.223</v>
       </c>
       <c r="G18" t="n">
-        <v>-40.45629</v>
+        <v>-30.50478</v>
       </c>
       <c r="H18" t="n">
-        <v>-40.42131</v>
+        <v>-30.42274</v>
       </c>
       <c r="I18" t="n">
-        <v>-40.44972229</v>
+        <v>-30.34970856</v>
       </c>
       <c r="J18" t="n">
-        <v>-48.68042374</v>
+        <v>-50.24092865</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1942238807678223</v>
+        <v>0.1949710845947266</v>
       </c>
       <c r="L18" t="n">
-        <v>-40.4422798157</v>
+        <v>-30.4101142883</v>
       </c>
       <c r="M18" t="n">
-        <v>-38.6617240906</v>
+        <v>-48.6576499939</v>
       </c>
       <c r="N18" t="n">
-        <v>-38.8995323181</v>
+        <v>-48.8746757507</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2063870429992676</v>
+        <v>0.2107045650482178</v>
       </c>
       <c r="P18" t="n">
-        <v>-48.40487671</v>
+        <v>-48.40901184</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.629452228546143</v>
+        <v>1.640348196029663</v>
       </c>
       <c r="R18" t="n">
-        <v>-40.4297103882</v>
+        <v>-30.3967208862</v>
       </c>
       <c r="S18" t="n">
-        <v>-53.7467269897</v>
+        <v>-63.6857833862</v>
       </c>
       <c r="T18" t="n">
-        <v>-53.918296814</v>
+        <v>-63.8895187378</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5417990684509277</v>
+        <v>0.5222923755645752</v>
       </c>
       <c r="V18" t="n">
-        <v>-49.47375488</v>
+        <v>-49.46852112</v>
       </c>
       <c r="W18" t="n">
-        <v>2.671161413192749</v>
+        <v>2.665205717086792</v>
       </c>
       <c r="X18" t="n">
-        <v>-40.4267311096</v>
+        <v>-30.3977851868</v>
       </c>
       <c r="Y18" t="n">
-        <v>-53.7197151184</v>
+        <v>-63.6735267639</v>
       </c>
       <c r="Z18" t="n">
-        <v>-53.9111213684</v>
+        <v>-63.881603241</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.5184574127197266</v>
+        <v>0.5179414749145508</v>
       </c>
       <c r="AB18" t="n">
-        <v>-50.15616608</v>
+        <v>-50.13513565</v>
       </c>
       <c r="AC18" t="n">
-        <v>4.851907253265381</v>
+        <v>4.836994171142578</v>
       </c>
       <c r="AD18" t="n">
-        <v>-40.425907135</v>
+        <v>-30.3947048187</v>
       </c>
       <c r="AE18" t="n">
-        <v>-53.7302894592</v>
+        <v>-63.6540317535</v>
       </c>
       <c r="AF18" t="n">
-        <v>-53.9234733582</v>
+        <v>-63.8553180695</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.5241000652313232</v>
+        <v>0.5145893096923828</v>
       </c>
       <c r="AH18" t="n">
-        <v>-50.66598892</v>
+        <v>-50.59799576</v>
       </c>
       <c r="AI18" t="n">
-        <v>11.32173824310303</v>
+        <v>11.39033842086792</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-40.4258766174</v>
+        <v>-30.4059753418</v>
       </c>
       <c r="AK18" t="n">
-        <v>-53.6749992371</v>
+        <v>-63.6449584961</v>
       </c>
       <c r="AL18" t="n">
-        <v>-53.9330406189</v>
+        <v>-63.8811416626</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.5194313526153564</v>
+        <v>0.5211141109466553</v>
       </c>
       <c r="AN18" t="n">
-        <v>-50.85935593</v>
+        <v>-50.79267883</v>
       </c>
       <c r="AO18" t="n">
-        <v>22.17640233039856</v>
+        <v>22.17032670974731</v>
       </c>
       <c r="AP18" t="n">
-        <v>-40.4283294678</v>
+        <v>-30.3980712891</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-53.7281646729</v>
+        <v>-63.6706390381</v>
       </c>
       <c r="AR18" t="n">
-        <v>-53.9167938232</v>
+        <v>-63.9086532593</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.530585765838623</v>
+        <v>0.5315768718719482</v>
       </c>
       <c r="AT18" t="n">
-        <v>49.669</v>
+        <v>49.516</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B19" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C19" t="n">
         <v>3.7</v>
       </c>
       <c r="D19" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>7.9</v>
+        <v>1.156</v>
       </c>
       <c r="G19" t="n">
-        <v>-40.52067</v>
+        <v>-30.53618</v>
       </c>
       <c r="H19" t="n">
-        <v>-40.40646</v>
+        <v>-30.40659</v>
       </c>
       <c r="I19" t="n">
-        <v>-40.5226059</v>
+        <v>-30.46234131</v>
       </c>
       <c r="J19" t="n">
-        <v>-48.58109283</v>
+        <v>-50.42573929</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2003703117370605</v>
+        <v>0.1935036182403564</v>
       </c>
       <c r="L19" t="n">
-        <v>-40.4430084229</v>
+        <v>-30.4135169983</v>
       </c>
       <c r="M19" t="n">
-        <v>-39.154624939</v>
+        <v>-49.0715827942</v>
       </c>
       <c r="N19" t="n">
-        <v>-39.1442108154</v>
+        <v>-49.1096992493</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2074503898620605</v>
+        <v>0.2084650993347168</v>
       </c>
       <c r="P19" t="n">
-        <v>-48.57956696</v>
+        <v>-48.628479</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.629811525344849</v>
+        <v>1.628714561462402</v>
       </c>
       <c r="R19" t="n">
-        <v>-40.4345359802</v>
+        <v>-30.4032421112</v>
       </c>
       <c r="S19" t="n">
-        <v>-54.1561546326</v>
+        <v>-64.0990924835</v>
       </c>
       <c r="T19" t="n">
-        <v>-54.1582221985</v>
+        <v>-64.1081562042</v>
       </c>
       <c r="U19" t="n">
-        <v>0.5217483043670654</v>
+        <v>0.5208945274353027</v>
       </c>
       <c r="V19" t="n">
-        <v>-49.55849075</v>
+        <v>-49.63077164</v>
       </c>
       <c r="W19" t="n">
-        <v>2.700085878372192</v>
+        <v>2.633614301681519</v>
       </c>
       <c r="X19" t="n">
-        <v>-40.4298400879</v>
+        <v>-30.3902645111</v>
       </c>
       <c r="Y19" t="n">
-        <v>-54.1989440918</v>
+        <v>-63.5730991364</v>
       </c>
       <c r="Z19" t="n">
-        <v>-54.148979187</v>
+        <v>-64.13904762270001</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.5194237232208252</v>
+        <v>0.519390344619751</v>
       </c>
       <c r="AB19" t="n">
-        <v>-50.24305725</v>
+        <v>-50.28388214</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.82892918586731</v>
+        <v>4.824556589126587</v>
       </c>
       <c r="AD19" t="n">
-        <v>-40.4246063232</v>
+        <v>-30.3952217102</v>
       </c>
       <c r="AE19" t="n">
-        <v>-54.162651062</v>
+        <v>-64.1373100281</v>
       </c>
       <c r="AF19" t="n">
-        <v>-54.1545944214</v>
+        <v>-64.1614494324</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.5200083255767822</v>
+        <v>0.5180518627166748</v>
       </c>
       <c r="AH19" t="n">
-        <v>-50.71399307</v>
+        <v>-50.78499222</v>
       </c>
       <c r="AI19" t="n">
-        <v>11.34961557388306</v>
+        <v>11.3992063999176</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-40.4421577454</v>
+        <v>-30.4042453766</v>
       </c>
       <c r="AK19" t="n">
-        <v>-54.159236908</v>
+        <v>-64.107465744</v>
       </c>
       <c r="AL19" t="n">
-        <v>-54.1360054016</v>
+        <v>-64.1349239349</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.5215113162994385</v>
+        <v>0.5188710689544678</v>
       </c>
       <c r="AN19" t="n">
-        <v>-50.90328979</v>
+        <v>-50.96329117</v>
       </c>
       <c r="AO19" t="n">
-        <v>22.13073539733887</v>
+        <v>22.18945050239563</v>
       </c>
       <c r="AP19" t="n">
-        <v>-40.4320526123</v>
+        <v>-30.3972835541</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-54.191116333</v>
+        <v>-64.11957740779999</v>
       </c>
       <c r="AR19" t="n">
-        <v>-54.1308898926</v>
+        <v>-64.1139850616</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.5291273593902588</v>
+        <v>0.5168254375457764</v>
       </c>
       <c r="AT19" t="n">
-        <v>49.625</v>
+        <v>49.403</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B20" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C20" t="n">
         <v>3.8</v>
       </c>
       <c r="D20" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>7.902</v>
+        <v>1.149</v>
       </c>
       <c r="G20" t="n">
-        <v>-40.54263</v>
+        <v>-30.5697</v>
       </c>
       <c r="H20" t="n">
-        <v>-40.46782</v>
+        <v>-30.46598</v>
       </c>
       <c r="I20" t="n">
-        <v>-40.47089386</v>
+        <v>-30.46706772</v>
       </c>
       <c r="J20" t="n">
-        <v>-48.31899643</v>
+        <v>-50.46482086</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2021932601928711</v>
+        <v>0.1891496181488037</v>
       </c>
       <c r="L20" t="n">
-        <v>-40.4435119629</v>
+        <v>-30.4054298401</v>
       </c>
       <c r="M20" t="n">
-        <v>-39.5998535156</v>
+        <v>-49.5495262146</v>
       </c>
       <c r="N20" t="n">
-        <v>-38.6214904785</v>
+        <v>-48.5980186462</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2084863185882568</v>
+        <v>0.2127313613891602</v>
       </c>
       <c r="P20" t="n">
-        <v>-48.36141586</v>
+        <v>-48.414608</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.605864524841309</v>
+        <v>1.633743524551392</v>
       </c>
       <c r="R20" t="n">
-        <v>-40.4230079651</v>
+        <v>-30.4094333649</v>
       </c>
       <c r="S20" t="n">
-        <v>-54.604763031</v>
+        <v>-64.0978145599</v>
       </c>
       <c r="T20" t="n">
-        <v>-53.6364555359</v>
+        <v>-63.5901699066</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5234649181365967</v>
+        <v>0.5418295860290527</v>
       </c>
       <c r="V20" t="n">
-        <v>-49.35467529</v>
+        <v>-49.38338852</v>
       </c>
       <c r="W20" t="n">
-        <v>2.633094072341919</v>
+        <v>2.653732299804688</v>
       </c>
       <c r="X20" t="n">
-        <v>-40.431427002</v>
+        <v>-30.3975334167</v>
       </c>
       <c r="Y20" t="n">
-        <v>-54.613243103</v>
+        <v>-64.539150238</v>
       </c>
       <c r="Z20" t="n">
-        <v>-53.6207122803</v>
+        <v>-63.5995750427</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.5241565704345703</v>
+        <v>0.5252830982208252</v>
       </c>
       <c r="AB20" t="n">
-        <v>-50.01522064</v>
+        <v>-50.04721069</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.816444635391235</v>
+        <v>4.838475704193115</v>
       </c>
       <c r="AD20" t="n">
-        <v>-40.4288291931</v>
+        <v>-30.4059410095</v>
       </c>
       <c r="AE20" t="n">
-        <v>-54.5929222107</v>
+        <v>-63.8365211487</v>
       </c>
       <c r="AF20" t="n">
-        <v>-53.646320343</v>
+        <v>-63.6266059875</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.521782398223877</v>
+        <v>0.5232267379760742</v>
       </c>
       <c r="AH20" t="n">
-        <v>-50.4681015</v>
+        <v>-50.5313797</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.31505751609802</v>
+        <v>11.33051300048828</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-40.42445755</v>
+        <v>-30.3955364227</v>
       </c>
       <c r="AK20" t="n">
-        <v>-54.59998703</v>
+        <v>-64.5558261871</v>
       </c>
       <c r="AL20" t="n">
-        <v>-53.6531639099</v>
+        <v>-63.5921268463</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.5307843685150146</v>
+        <v>0.5272176265716553</v>
       </c>
       <c r="AN20" t="n">
-        <v>-50.6422081</v>
+        <v>-50.70636368</v>
       </c>
       <c r="AO20" t="n">
-        <v>22.15980648994446</v>
+        <v>22.25887227058411</v>
       </c>
       <c r="AP20" t="n">
-        <v>-40.4253425598</v>
+        <v>-30.4011268616</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-54.6129112244</v>
+        <v>-64.53603744510001</v>
       </c>
       <c r="AR20" t="n">
-        <v>-53.6449699402</v>
+        <v>-63.6152915955</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.5199563503265381</v>
+        <v>0.5316684246063232</v>
       </c>
       <c r="AT20" t="n">
-        <v>49.568</v>
+        <v>49.482</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B21" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C21" t="n">
         <v>3.9</v>
       </c>
       <c r="D21" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>7.908</v>
+        <v>2.072</v>
       </c>
       <c r="G21" t="n">
-        <v>-40.57216</v>
+        <v>-29.5747</v>
       </c>
       <c r="H21" t="n">
-        <v>-40.49525</v>
+        <v>-29.50485</v>
       </c>
       <c r="I21" t="n">
-        <v>-40.56466675</v>
+        <v>-29.50317383</v>
       </c>
       <c r="J21" t="n">
-        <v>-48.01364899</v>
+        <v>-49.8225975</v>
       </c>
       <c r="K21" t="n">
-        <v>0.1983606815338135</v>
+        <v>0.2037720680236816</v>
       </c>
       <c r="L21" t="n">
-        <v>-40.564250946</v>
+        <v>-29.5386543274</v>
       </c>
       <c r="M21" t="n">
-        <v>-39.2131996155</v>
+        <v>-50.1353416443</v>
       </c>
       <c r="N21" t="n">
-        <v>-39.4120292664</v>
+        <v>-50.3460273743</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2094306945800781</v>
+        <v>0.2052161693572998</v>
       </c>
       <c r="P21" t="n">
-        <v>-46.21287537</v>
+        <v>-46.57786942</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6082444190979</v>
+        <v>1.641624212265015</v>
       </c>
       <c r="R21" t="n">
-        <v>-40.5499839783</v>
+        <v>-29.5211009979</v>
       </c>
       <c r="S21" t="n">
-        <v>-54.2438011169</v>
+        <v>-64.77391242980001</v>
       </c>
       <c r="T21" t="n">
-        <v>-54.4254570007</v>
+        <v>-65.380525589</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5523538589477539</v>
+        <v>0.5525987148284912</v>
       </c>
       <c r="V21" t="n">
-        <v>-47.81501007</v>
+        <v>-48.13440704</v>
       </c>
       <c r="W21" t="n">
-        <v>2.647534847259521</v>
+        <v>2.65845251083374</v>
       </c>
       <c r="X21" t="n">
-        <v>-40.547328949</v>
+        <v>-29.518825531</v>
       </c>
       <c r="Y21" t="n">
-        <v>-54.2280006409</v>
+        <v>-65.1260566711</v>
       </c>
       <c r="Z21" t="n">
-        <v>-54.408946991</v>
+        <v>-65.3668861389</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.5685560703277588</v>
+        <v>0.5530674457550049</v>
       </c>
       <c r="AB21" t="n">
-        <v>-49.03985977</v>
+        <v>-49.16364288</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.831019639968872</v>
+        <v>4.819701910018921</v>
       </c>
       <c r="AD21" t="n">
-        <v>-40.5545654297</v>
+        <v>-29.5265884399</v>
       </c>
       <c r="AE21" t="n">
-        <v>-54.2394104004</v>
+        <v>-65.1691207886</v>
       </c>
       <c r="AF21" t="n">
-        <v>-54.382774353</v>
+        <v>-65.3728485107</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.5564231872558594</v>
+        <v>0.5500800609588623</v>
       </c>
       <c r="AH21" t="n">
-        <v>-50.09881973</v>
+        <v>-50.06739807</v>
       </c>
       <c r="AI21" t="n">
-        <v>11.34636545181274</v>
+        <v>11.37544560432434</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-40.5500183105</v>
+        <v>-29.521446228</v>
       </c>
       <c r="AK21" t="n">
-        <v>-54.2468795776</v>
+        <v>-65.13948059080001</v>
       </c>
       <c r="AL21" t="n">
-        <v>-54.4339752197</v>
+        <v>-65.33441925050001</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.5702617168426514</v>
+        <v>0.5539250373840332</v>
       </c>
       <c r="AN21" t="n">
-        <v>-50.4690361</v>
+        <v>-50.40332794</v>
       </c>
       <c r="AO21" t="n">
-        <v>22.11848974227905</v>
+        <v>22.24302983283997</v>
       </c>
       <c r="AP21" t="n">
-        <v>-40.5595397949</v>
+        <v>-29.527929306</v>
       </c>
       <c r="AQ21" t="n">
-        <v>-54.2174987793</v>
+        <v>-65.1485996246</v>
       </c>
       <c r="AR21" t="n">
-        <v>-54.4011001587</v>
+        <v>-65.3191318512</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.5584056377410889</v>
+        <v>0.5481679439544678</v>
       </c>
       <c r="AT21" t="n">
-        <v>49.819</v>
+        <v>49.72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B22" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C22" t="n">
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>7.904</v>
+        <v>1.157</v>
       </c>
       <c r="G22" t="n">
-        <v>-40.5717</v>
+        <v>-30.57518</v>
       </c>
       <c r="H22" t="n">
-        <v>-40.48551</v>
+        <v>-30.49712</v>
       </c>
       <c r="I22" t="n">
-        <v>-40.51560974</v>
+        <v>-30.53131104</v>
       </c>
       <c r="J22" t="n">
-        <v>-48.016922</v>
+        <v>-50.44915009</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1989333629608154</v>
+        <v>0.1950559616088867</v>
       </c>
       <c r="L22" t="n">
-        <v>-40.5334663391</v>
+        <v>-30.4987869263</v>
       </c>
       <c r="M22" t="n">
-        <v>-39.0799369812</v>
+        <v>-49.0435562134</v>
       </c>
       <c r="N22" t="n">
-        <v>-40.8063468933</v>
+        <v>-50.7400360107</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2114841938018799</v>
+        <v>0.2065110206604004</v>
       </c>
       <c r="P22" t="n">
-        <v>-47.92511749</v>
+        <v>-47.97408676</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.609778642654419</v>
+        <v>1.646607637405396</v>
       </c>
       <c r="R22" t="n">
-        <v>-40.5066452026</v>
+        <v>-30.4827480316</v>
       </c>
       <c r="S22" t="n">
-        <v>-54.1150283813</v>
+        <v>-64.0262546539</v>
       </c>
       <c r="T22" t="n">
-        <v>-55.8133010864</v>
+        <v>-65.7782764435</v>
       </c>
       <c r="U22" t="n">
-        <v>0.5228595733642578</v>
+        <v>0.5271375179290771</v>
       </c>
       <c r="V22" t="n">
-        <v>-49.2305336</v>
+        <v>-49.2833786</v>
       </c>
       <c r="W22" t="n">
-        <v>2.668753862380981</v>
+        <v>2.636690616607666</v>
       </c>
       <c r="X22" t="n">
-        <v>-40.5132102966</v>
+        <v>-30.4800071716</v>
       </c>
       <c r="Y22" t="n">
-        <v>-54.0814781189</v>
+        <v>-64.0536003113</v>
       </c>
       <c r="Z22" t="n">
-        <v>-55.7940788269</v>
+        <v>-65.7299308777</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5380775928497314</v>
+        <v>0.5208494663238525</v>
       </c>
       <c r="AB22" t="n">
-        <v>-50.16103745</v>
+        <v>-50.15601349</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.852776765823364</v>
+        <v>4.807125568389893</v>
       </c>
       <c r="AD22" t="n">
-        <v>-40.5133285522</v>
+        <v>-30.4727191925</v>
       </c>
       <c r="AE22" t="n">
-        <v>-54.0919113159</v>
+        <v>-64.0558986664</v>
       </c>
       <c r="AF22" t="n">
-        <v>-55.8076934814</v>
+        <v>-65.75179862980001</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.5157387256622314</v>
+        <v>0.519740104675293</v>
       </c>
       <c r="AH22" t="n">
-        <v>-50.87145996</v>
+        <v>-50.87863541</v>
       </c>
       <c r="AI22" t="n">
-        <v>11.37870860099792</v>
+        <v>11.30219912528992</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-40.5162467957</v>
+        <v>-30.4817466736</v>
       </c>
       <c r="AK22" t="n">
-        <v>-54.0794868469</v>
+        <v>-64.0795402527</v>
       </c>
       <c r="AL22" t="n">
-        <v>-55.8062934875</v>
+        <v>-65.7106895447</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.5192172527313232</v>
+        <v>0.5201897621154785</v>
       </c>
       <c r="AN22" t="n">
-        <v>-51.09989166</v>
+        <v>-51.09408951</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.23483037948608</v>
+        <v>22.12133646011353</v>
       </c>
       <c r="AP22" t="n">
-        <v>-40.5084609985</v>
+        <v>-30.4854164124</v>
       </c>
       <c r="AQ22" t="n">
-        <v>-54.1015472412</v>
+        <v>-64.0530433655</v>
       </c>
       <c r="AR22" t="n">
-        <v>-55.8011398315</v>
+        <v>-65.7667121887</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.5227310657501221</v>
+        <v>0.5195145606994629</v>
       </c>
       <c r="AT22" t="n">
-        <v>49.79</v>
+        <v>49.314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B23" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C23" t="n">
         <v>4.1</v>
       </c>
       <c r="D23" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>15.851</v>
+        <v>2.433</v>
       </c>
       <c r="G23" t="n">
-        <v>-39.6929</v>
+        <v>-29.64944</v>
       </c>
       <c r="H23" t="n">
-        <v>-39.61023</v>
+        <v>-29.57607</v>
       </c>
       <c r="I23" t="n">
-        <v>-39.66984558</v>
+        <v>-29.572052</v>
       </c>
       <c r="J23" t="n">
-        <v>-48.86896133</v>
+        <v>-48.80854034</v>
       </c>
       <c r="K23" t="n">
-        <v>0.1929166316986084</v>
+        <v>0.199582576751709</v>
       </c>
       <c r="L23" t="n">
-        <v>-39.5683326721</v>
+        <v>-29.5436000824</v>
       </c>
       <c r="M23" t="n">
-        <v>-41.3250007629</v>
+        <v>-51.2401599884</v>
       </c>
       <c r="N23" t="n">
-        <v>-41.268573761</v>
+        <v>-51.1905078888</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2087404727935791</v>
+        <v>0.2484970092773438</v>
       </c>
       <c r="P23" t="n">
-        <v>-47.48975754</v>
+        <v>-47.45456314</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.630509614944458</v>
+        <v>1.623725891113281</v>
       </c>
       <c r="R23" t="n">
-        <v>-39.5488739014</v>
+        <v>-29.5207576752</v>
       </c>
       <c r="S23" t="n">
-        <v>-56.3135223389</v>
+        <v>-65.4367313385</v>
       </c>
       <c r="T23" t="n">
-        <v>-56.2953948975</v>
+        <v>-65.0404453278</v>
       </c>
       <c r="U23" t="n">
-        <v>0.5536177158355713</v>
+        <v>0.5588920116424561</v>
       </c>
       <c r="V23" t="n">
-        <v>-48.7793541</v>
+        <v>-48.82469559</v>
       </c>
       <c r="W23" t="n">
-        <v>2.661100149154663</v>
+        <v>2.689358949661255</v>
       </c>
       <c r="X23" t="n">
-        <v>-39.5457344055</v>
+        <v>-29.5205116272</v>
       </c>
       <c r="Y23" t="n">
-        <v>-56.371471405</v>
+        <v>-65.2010231018</v>
       </c>
       <c r="Z23" t="n">
-        <v>-56.2925376892</v>
+        <v>-65.8711204529</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.5663673877716064</v>
+        <v>0.5492546558380127</v>
       </c>
       <c r="AB23" t="n">
-        <v>-49.7577858</v>
+        <v>-49.75684738</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.800684213638306</v>
+        <v>4.830731868743896</v>
       </c>
       <c r="AD23" t="n">
-        <v>-39.5396347046</v>
+        <v>-29.5363769531</v>
       </c>
       <c r="AE23" t="n">
-        <v>-56.3577804565</v>
+        <v>-64.382194519</v>
       </c>
       <c r="AF23" t="n">
-        <v>-56.3073120117</v>
+        <v>-65.46380615229999</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.5581827163696289</v>
+        <v>0.5576679706573486</v>
       </c>
       <c r="AH23" t="n">
-        <v>-50.52090073</v>
+        <v>-50.50522232</v>
       </c>
       <c r="AI23" t="n">
-        <v>11.34048581123352</v>
+        <v>11.33792734146118</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-39.5540809631</v>
+        <v>-29.5336551666</v>
       </c>
       <c r="AK23" t="n">
-        <v>-56.3206596375</v>
+        <v>-65.5269832611</v>
       </c>
       <c r="AL23" t="n">
-        <v>-56.2709693909</v>
+        <v>-64.61656761170001</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.5575072765350342</v>
+        <v>0.5647423267364502</v>
       </c>
       <c r="AN23" t="n">
-        <v>-50.80457306</v>
+        <v>-50.76625443</v>
       </c>
       <c r="AO23" t="n">
-        <v>22.18776035308838</v>
+        <v>22.16917657852173</v>
       </c>
       <c r="AP23" t="n">
-        <v>-39.5465965271</v>
+        <v>-29.537153244</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-56.3813209534</v>
+        <v>-64.6452960968</v>
       </c>
       <c r="AR23" t="n">
-        <v>-56.3004798889</v>
+        <v>-64.9803791046</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5530006885528564</v>
+        <v>0.5513937473297119</v>
       </c>
       <c r="AT23" t="n">
-        <v>49.198</v>
+        <v>49.443</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B24" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C24" t="n">
         <v>4.2</v>
       </c>
       <c r="D24" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>7.896</v>
+        <v>2.63</v>
       </c>
       <c r="G24" t="n">
-        <v>-40.65138</v>
+        <v>-29.61972</v>
       </c>
       <c r="H24" t="n">
-        <v>-40.49397</v>
+        <v>-29.50106</v>
       </c>
       <c r="I24" t="n">
-        <v>-40.41648102</v>
+        <v>-29.34648514</v>
       </c>
       <c r="J24" t="n">
-        <v>-48.13695526</v>
+        <v>-49.49835205</v>
       </c>
       <c r="K24" t="n">
-        <v>0.19783616065979</v>
+        <v>0.2030408382415771</v>
       </c>
       <c r="L24" t="n">
-        <v>-40.4923095703</v>
+        <v>-29.4607124329</v>
       </c>
       <c r="M24" t="n">
-        <v>-39.8951873779</v>
+        <v>-50.7783317566</v>
       </c>
       <c r="N24" t="n">
-        <v>-38.329208374</v>
+        <v>-49.2541999817</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2145540714263916</v>
+        <v>0.2084174156188965</v>
       </c>
       <c r="P24" t="n">
-        <v>-48.59755707</v>
+        <v>-46.924263</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.621852874755859</v>
+        <v>1.613548040390015</v>
       </c>
       <c r="R24" t="n">
-        <v>-40.4607810974</v>
+        <v>-29.436132431</v>
       </c>
       <c r="S24" t="n">
-        <v>-54.9415092468</v>
+        <v>-64.1179065704</v>
       </c>
       <c r="T24" t="n">
-        <v>-53.3980293274</v>
+        <v>-64.3084049225</v>
       </c>
       <c r="U24" t="n">
-        <v>0.5219409465789795</v>
+        <v>0.5644879341125488</v>
       </c>
       <c r="V24" t="n">
-        <v>-49.42602158</v>
+        <v>-48.33749771</v>
       </c>
       <c r="W24" t="n">
-        <v>2.649046659469604</v>
+        <v>2.638890504837036</v>
       </c>
       <c r="X24" t="n">
-        <v>-40.4675445557</v>
+        <v>-29.4342250824</v>
       </c>
       <c r="Y24" t="n">
-        <v>-54.9016265869</v>
+        <v>-63.3031177521</v>
       </c>
       <c r="Z24" t="n">
-        <v>-53.3768768311</v>
+        <v>-64.17988014220001</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.5283505916595459</v>
+        <v>0.5589706897735596</v>
       </c>
       <c r="AB24" t="n">
-        <v>-49.95497894</v>
+        <v>-49.2889061</v>
       </c>
       <c r="AC24" t="n">
-        <v>4.819461107254028</v>
+        <v>4.850277900695801</v>
       </c>
       <c r="AD24" t="n">
-        <v>-40.463973999</v>
+        <v>-29.4349327087</v>
       </c>
       <c r="AE24" t="n">
-        <v>-54.9508209229</v>
+        <v>-64.8941383362</v>
       </c>
       <c r="AF24" t="n">
-        <v>-53.3508224487</v>
+        <v>-64.32873153689999</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.5467727184295654</v>
+        <v>0.5569360256195068</v>
       </c>
       <c r="AH24" t="n">
-        <v>-50.33283997</v>
+        <v>-50.01415634</v>
       </c>
       <c r="AI24" t="n">
-        <v>11.3533821105957</v>
+        <v>11.29568386077881</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-40.4688072205</v>
+        <v>-29.4250106812</v>
       </c>
       <c r="AK24" t="n">
-        <v>-54.8960990906</v>
+        <v>-63.8674621582</v>
       </c>
       <c r="AL24" t="n">
-        <v>-53.3786430359</v>
+        <v>-64.3380737305</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.5248267650604248</v>
+        <v>0.5593833923339844</v>
       </c>
       <c r="AN24" t="n">
-        <v>-50.42314148</v>
+        <v>-50.23751831</v>
       </c>
       <c r="AO24" t="n">
-        <v>22.13779711723328</v>
+        <v>22.14963936805725</v>
       </c>
       <c r="AP24" t="n">
-        <v>-40.4568939209</v>
+        <v>-29.4354076385</v>
       </c>
       <c r="AQ24" t="n">
-        <v>-54.9058914185</v>
+        <v>-65.0046024323</v>
       </c>
       <c r="AR24" t="n">
-        <v>-53.4150161743</v>
+        <v>-64.2838916779</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.5300354957580566</v>
+        <v>0.5616791248321533</v>
       </c>
       <c r="AT24" t="n">
-        <v>49.041</v>
+        <v>49.184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B25" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C25" t="n">
         <v>4.3</v>
       </c>
       <c r="D25" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>15.865</v>
+        <v>2.84</v>
       </c>
       <c r="G25" t="n">
-        <v>-39.71885</v>
+        <v>-29.67623</v>
       </c>
       <c r="H25" t="n">
-        <v>-39.60424</v>
+        <v>-29.54846</v>
       </c>
       <c r="I25" t="n">
-        <v>-39.81484985</v>
+        <v>-29.59303284</v>
       </c>
       <c r="J25" t="n">
-        <v>-48.75088501</v>
+        <v>-48.7804985</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1922576427459717</v>
+        <v>0.2010223865509033</v>
       </c>
       <c r="L25" t="n">
-        <v>-39.5703735352</v>
+        <v>-29.5167713165</v>
       </c>
       <c r="M25" t="n">
-        <v>-40.3065795898</v>
+        <v>-50.1916255951</v>
       </c>
       <c r="N25" t="n">
-        <v>-40.1730422974</v>
+        <v>-50.142911911</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2076916694641113</v>
+        <v>0.2385084629058838</v>
       </c>
       <c r="P25" t="n">
-        <v>-47.18206406</v>
+        <v>-47.15221405</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.629793405532837</v>
+        <v>1.632681369781494</v>
       </c>
       <c r="R25" t="n">
-        <v>-39.5571212769</v>
+        <v>-29.491727829</v>
       </c>
       <c r="S25" t="n">
-        <v>-55.2983932495</v>
+        <v>-64.8430576324</v>
       </c>
       <c r="T25" t="n">
-        <v>-55.2359619141</v>
+        <v>-65.16365242000001</v>
       </c>
       <c r="U25" t="n">
-        <v>0.5509445667266846</v>
+        <v>0.5519545078277588</v>
       </c>
       <c r="V25" t="n">
-        <v>-48.57463837</v>
+        <v>-48.62221527</v>
       </c>
       <c r="W25" t="n">
-        <v>2.660095930099487</v>
+        <v>2.677804708480835</v>
       </c>
       <c r="X25" t="n">
-        <v>-39.5542259216</v>
+        <v>-29.4965457916</v>
       </c>
       <c r="Y25" t="n">
-        <v>-55.3039588928</v>
+        <v>-64.0206432343</v>
       </c>
       <c r="Z25" t="n">
-        <v>-55.1987800598</v>
+        <v>-64.7097072601</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.5661499500274658</v>
+        <v>0.5471386909484863</v>
       </c>
       <c r="AB25" t="n">
-        <v>-49.63101196</v>
+        <v>-49.585495</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.828916549682617</v>
+        <v>4.811314821243286</v>
       </c>
       <c r="AD25" t="n">
-        <v>-39.5635032654</v>
+        <v>-29.4893627167</v>
       </c>
       <c r="AE25" t="n">
-        <v>-55.3150138855</v>
+        <v>-63.6496448517</v>
       </c>
       <c r="AF25" t="n">
-        <v>-55.195514679</v>
+        <v>-64.8473834991</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.551365852355957</v>
+        <v>0.5555419921875</v>
       </c>
       <c r="AH25" t="n">
-        <v>-50.4250412</v>
+        <v>-50.36323929</v>
       </c>
       <c r="AI25" t="n">
-        <v>11.3124086856842</v>
+        <v>11.33302879333496</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-39.5529670715</v>
+        <v>-29.4929656982</v>
       </c>
       <c r="AK25" t="n">
-        <v>-55.3067893982</v>
+        <v>-65.25666809080001</v>
       </c>
       <c r="AL25" t="n">
-        <v>-55.1916694641</v>
+        <v>-65.1552581787</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.5474731922149658</v>
+        <v>0.5508575439453125</v>
       </c>
       <c r="AN25" t="n">
-        <v>-50.68983459</v>
+        <v>-50.67723846</v>
       </c>
       <c r="AO25" t="n">
-        <v>22.13804006576538</v>
+        <v>22.21481800079346</v>
       </c>
       <c r="AP25" t="n">
-        <v>-39.5645065308</v>
+        <v>-29.4970932007</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-55.2973098755</v>
+        <v>-63.7780914307</v>
       </c>
       <c r="AR25" t="n">
-        <v>-55.1879348755</v>
+        <v>-65.13274383540001</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.550553560256958</v>
+        <v>0.5502867698669434</v>
       </c>
       <c r="AT25" t="n">
-        <v>49.477</v>
+        <v>49.52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B26" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C26" t="n">
         <v>4.4</v>
       </c>
       <c r="D26" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>15.85</v>
+        <v>3.123</v>
       </c>
       <c r="G26" t="n">
-        <v>-39.75991</v>
+        <v>-29.70818</v>
       </c>
       <c r="H26" t="n">
-        <v>-39.63918</v>
+        <v>-29.62831</v>
       </c>
       <c r="I26" t="n">
-        <v>-39.78252411</v>
+        <v>-29.6713829</v>
       </c>
       <c r="J26" t="n">
-        <v>-48.700737</v>
+        <v>-48.82372284</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2001829147338867</v>
+        <v>0.2014641761779785</v>
       </c>
       <c r="L26" t="n">
-        <v>-39.6647644043</v>
+        <v>-29.6368293762</v>
       </c>
       <c r="M26" t="n">
-        <v>-39.6084136963</v>
+        <v>-49.5375175476</v>
       </c>
       <c r="N26" t="n">
-        <v>-39.6214752197</v>
+        <v>-49.604434967</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2100203037261963</v>
+        <v>0.2385058403015137</v>
       </c>
       <c r="P26" t="n">
-        <v>-47.33185577</v>
+        <v>-47.32765198</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.618933439254761</v>
+        <v>1.614855527877808</v>
       </c>
       <c r="R26" t="n">
-        <v>-39.6534767151</v>
+        <v>-29.6257953644</v>
       </c>
       <c r="S26" t="n">
-        <v>-54.6467552185</v>
+        <v>-64.33179283139999</v>
       </c>
       <c r="T26" t="n">
-        <v>-54.67760849</v>
+        <v>-63.6366481781</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5711514949798584</v>
+        <v>0.5507023334503174</v>
       </c>
       <c r="V26" t="n">
-        <v>-48.68835068</v>
+        <v>-48.78968811</v>
       </c>
       <c r="W26" t="n">
-        <v>2.668880939483643</v>
+        <v>2.660367965698242</v>
       </c>
       <c r="X26" t="n">
-        <v>-39.6525726318</v>
+        <v>-29.6179618835</v>
       </c>
       <c r="Y26" t="n">
-        <v>-54.6345443726</v>
+        <v>-64.3521003723</v>
       </c>
       <c r="Z26" t="n">
-        <v>-54.6782684326</v>
+        <v>-64.6294898987</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.5577282905578613</v>
+        <v>0.5477631092071533</v>
       </c>
       <c r="AB26" t="n">
-        <v>-49.75276566</v>
+        <v>-49.80524063</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.827221155166626</v>
+        <v>4.816593170166016</v>
       </c>
       <c r="AD26" t="n">
-        <v>-39.6541557312</v>
+        <v>-29.6180953979</v>
       </c>
       <c r="AE26" t="n">
-        <v>-54.6384315491</v>
+        <v>-64.313621521</v>
       </c>
       <c r="AF26" t="n">
-        <v>-54.7074241638</v>
+        <v>-64.6089630127</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.5695531368255615</v>
+        <v>0.5631985664367676</v>
       </c>
       <c r="AH26" t="n">
-        <v>-50.50837708</v>
+        <v>-50.59147644</v>
       </c>
       <c r="AI26" t="n">
-        <v>11.29939436912537</v>
+        <v>11.31304788589478</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-39.6513519287</v>
+        <v>-29.6084766388</v>
       </c>
       <c r="AK26" t="n">
-        <v>-54.6415863037</v>
+        <v>-63.5925807953</v>
       </c>
       <c r="AL26" t="n">
-        <v>-54.69896698</v>
+        <v>-63.4734096527</v>
       </c>
       <c r="AM26" t="n">
-        <v>0.5671596527099609</v>
+        <v>0.5501406192779541</v>
       </c>
       <c r="AN26" t="n">
-        <v>-50.75652313</v>
+        <v>-50.83654404</v>
       </c>
       <c r="AO26" t="n">
-        <v>22.1975245475769</v>
+        <v>22.07801032066345</v>
       </c>
       <c r="AP26" t="n">
-        <v>-39.6538887024</v>
+        <v>-29.6218528748</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-54.637638092</v>
+        <v>-64.2764778137</v>
       </c>
       <c r="AR26" t="n">
-        <v>-54.6758842468</v>
+        <v>-64.5098762512</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.5568969249725342</v>
+        <v>0.5517284870147705</v>
       </c>
       <c r="AT26" t="n">
-        <v>49.307</v>
+        <v>49.26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B27" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C27" t="n">
         <v>4.5</v>
       </c>
       <c r="D27" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>15.851</v>
+        <v>2.996</v>
       </c>
       <c r="G27" t="n">
-        <v>-39.7939</v>
+        <v>-29.761</v>
       </c>
       <c r="H27" t="n">
-        <v>-39.64656</v>
+        <v>-29.65686</v>
       </c>
       <c r="I27" t="n">
-        <v>-39.55980682</v>
+        <v>-29.5850296</v>
       </c>
       <c r="J27" t="n">
-        <v>-48.63582611</v>
+        <v>-49.9661026</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1903886795043945</v>
+        <v>0.1999211311340332</v>
       </c>
       <c r="L27" t="n">
-        <v>-39.6884078979</v>
+        <v>-29.6800823212</v>
       </c>
       <c r="M27" t="n">
-        <v>-39.0187225342</v>
+        <v>-49.0016651154</v>
       </c>
       <c r="N27" t="n">
-        <v>-39.0927352905</v>
+        <v>-49.0069828033</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2108809947967529</v>
+        <v>0.2098877429962158</v>
       </c>
       <c r="P27" t="n">
-        <v>-47.04323196</v>
+        <v>-47.17384338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.63098669052124</v>
+        <v>1.628033638000488</v>
       </c>
       <c r="R27" t="n">
-        <v>-39.6893081665</v>
+        <v>-29.666015625</v>
       </c>
       <c r="S27" t="n">
-        <v>-54.027015686</v>
+        <v>-64.0161514282</v>
       </c>
       <c r="T27" t="n">
-        <v>-54.0570297241</v>
+        <v>-63.3699035645</v>
       </c>
       <c r="U27" t="n">
-        <v>0.5725171566009521</v>
+        <v>0.564680814743042</v>
       </c>
       <c r="V27" t="n">
-        <v>-48.42919159</v>
+        <v>-48.52573776</v>
       </c>
       <c r="W27" t="n">
-        <v>2.650654792785645</v>
+        <v>2.681250095367432</v>
       </c>
       <c r="X27" t="n">
-        <v>-39.6591873169</v>
+        <v>-29.6614189148</v>
       </c>
       <c r="Y27" t="n">
-        <v>-54.0957641602</v>
+        <v>-63.9768409729</v>
       </c>
       <c r="Z27" t="n">
-        <v>-54.137878418</v>
+        <v>-64.03361892700001</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.5498769283294678</v>
+        <v>0.5495383739471436</v>
       </c>
       <c r="AB27" t="n">
-        <v>-49.46476364</v>
+        <v>-49.53645706</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.857983589172363</v>
+        <v>4.819001913070679</v>
       </c>
       <c r="AD27" t="n">
-        <v>-39.6792984009</v>
+        <v>-29.6598701477</v>
       </c>
       <c r="AE27" t="n">
-        <v>-54.0983352661</v>
+        <v>-63.993473053</v>
       </c>
       <c r="AF27" t="n">
-        <v>-54.103843689</v>
+        <v>-64.0565605164</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.5553874969482422</v>
+        <v>0.5547683238983154</v>
       </c>
       <c r="AH27" t="n">
-        <v>-50.25110626</v>
+        <v>-50.29296875</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.282470703125</v>
+        <v>11.35255885124207</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-39.6762123108</v>
+        <v>-29.6583213806</v>
       </c>
       <c r="AK27" t="n">
-        <v>-54.0542182922</v>
+        <v>-64.0361061096</v>
       </c>
       <c r="AL27" t="n">
-        <v>-54.0940742493</v>
+        <v>-64.0433998108</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.5476582050323486</v>
+        <v>0.5553016662597656</v>
       </c>
       <c r="AN27" t="n">
-        <v>-50.51397705</v>
+        <v>-50.57709503</v>
       </c>
       <c r="AO27" t="n">
-        <v>22.23444485664368</v>
+        <v>22.23861932754517</v>
       </c>
       <c r="AP27" t="n">
-        <v>-39.6780548096</v>
+        <v>-29.6608314514</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-54.0518493652</v>
+        <v>-63.969455719</v>
       </c>
       <c r="AR27" t="n">
-        <v>-54.0951843262</v>
+        <v>-64.03612899780001</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.5496408939361572</v>
+        <v>0.547102689743042</v>
       </c>
       <c r="AT27" t="n">
-        <v>49.503</v>
+        <v>49.693</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B28" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C28" t="n">
         <v>4.6</v>
       </c>
       <c r="D28" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>15.85</v>
+        <v>2.796</v>
       </c>
       <c r="G28" t="n">
-        <v>-39.79627</v>
+        <v>-29.79663</v>
       </c>
       <c r="H28" t="n">
-        <v>-39.6908</v>
+        <v>-29.70105</v>
       </c>
       <c r="I28" t="n">
-        <v>-39.86437225</v>
+        <v>-29.74876785</v>
       </c>
       <c r="J28" t="n">
-        <v>-48.77695465</v>
+        <v>-48.64884186</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2072687149047852</v>
+        <v>0.1988151073455811</v>
       </c>
       <c r="L28" t="n">
-        <v>-39.7337036133</v>
+        <v>-29.7321662903</v>
       </c>
       <c r="M28" t="n">
-        <v>-40.4618453979</v>
+        <v>-50.3785743713</v>
       </c>
       <c r="N28" t="n">
-        <v>-40.719291687</v>
+        <v>-50.5716743469</v>
       </c>
       <c r="O28" t="n">
-        <v>0.2133095264434814</v>
+        <v>0.2464308738708496</v>
       </c>
       <c r="P28" t="n">
-        <v>-47.25280762</v>
+        <v>-47.18664169</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.634882211685181</v>
+        <v>1.610890865325928</v>
       </c>
       <c r="R28" t="n">
-        <v>-39.7275238037</v>
+        <v>-29.7173843384</v>
       </c>
       <c r="S28" t="n">
-        <v>-55.5128707886</v>
+        <v>-65.40380859379999</v>
       </c>
       <c r="T28" t="n">
-        <v>-55.6777420044</v>
+        <v>-65.6332321167</v>
       </c>
       <c r="U28" t="n">
-        <v>0.5570650100708008</v>
+        <v>0.5531299114227295</v>
       </c>
       <c r="V28" t="n">
-        <v>-48.63879395</v>
+        <v>-48.58278656</v>
       </c>
       <c r="W28" t="n">
-        <v>2.649725675582886</v>
+        <v>2.642316102981567</v>
       </c>
       <c r="X28" t="n">
-        <v>-39.7223625183</v>
+        <v>-29.7208862305</v>
       </c>
       <c r="Y28" t="n">
-        <v>-55.4752845764</v>
+        <v>-64.50187683110001</v>
       </c>
       <c r="Z28" t="n">
-        <v>-55.7008247375</v>
+        <v>-65.61270141599999</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.5576684474945068</v>
+        <v>0.5707883834838867</v>
       </c>
       <c r="AB28" t="n">
-        <v>-49.58131409</v>
+        <v>-49.57089996</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.819054126739502</v>
+        <v>4.82021689414978</v>
       </c>
       <c r="AD28" t="n">
-        <v>-39.7212905884</v>
+        <v>-29.7300128937</v>
       </c>
       <c r="AE28" t="n">
-        <v>-55.5377426147</v>
+        <v>-64.20896720890001</v>
       </c>
       <c r="AF28" t="n">
-        <v>-55.7158813477</v>
+        <v>-65.2745037079</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.5489239692687988</v>
+        <v>0.5607039928436279</v>
       </c>
       <c r="AH28" t="n">
-        <v>-50.41080856</v>
+        <v>-50.34349823</v>
       </c>
       <c r="AI28" t="n">
-        <v>11.3517005443573</v>
+        <v>11.3675320148468</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-39.7243156433</v>
+        <v>-29.7186965942</v>
       </c>
       <c r="AK28" t="n">
-        <v>-55.4978675842</v>
+        <v>-64.3678817749</v>
       </c>
       <c r="AL28" t="n">
-        <v>-55.7052268982</v>
+        <v>-65.6050949097</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.5473058223724365</v>
+        <v>0.5512268543243408</v>
       </c>
       <c r="AN28" t="n">
-        <v>-50.69502258</v>
+        <v>-50.60930634</v>
       </c>
       <c r="AO28" t="n">
-        <v>22.13862991333008</v>
+        <v>22.20885729789734</v>
       </c>
       <c r="AP28" t="n">
-        <v>-39.7181129456</v>
+        <v>-29.7256736755</v>
       </c>
       <c r="AQ28" t="n">
-        <v>-55.5214347839</v>
+        <v>-63.7270545959</v>
       </c>
       <c r="AR28" t="n">
-        <v>-55.6854438782</v>
+        <v>-65.62317276</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.5593326091766357</v>
+        <v>0.5525023937225342</v>
       </c>
       <c r="AT28" t="n">
-        <v>49.208</v>
+        <v>49.492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B29" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C29" t="n">
         <v>4.7</v>
       </c>
       <c r="D29" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>15.851</v>
+        <v>2.569</v>
       </c>
       <c r="G29" t="n">
-        <v>-39.80979</v>
+        <v>-29.78223</v>
       </c>
       <c r="H29" t="n">
-        <v>-39.66952</v>
+        <v>-29.68214</v>
       </c>
       <c r="I29" t="n">
-        <v>-39.93252563</v>
+        <v>-29.86686325</v>
       </c>
       <c r="J29" t="n">
-        <v>-48.82125092</v>
+        <v>-50.01796722</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1935269832611084</v>
+        <v>0.193350076675415</v>
       </c>
       <c r="L29" t="n">
-        <v>-39.755569458</v>
+        <v>-29.7367553711</v>
       </c>
       <c r="M29" t="n">
-        <v>-40.9615325928</v>
+        <v>-50.8249664307</v>
       </c>
       <c r="N29" t="n">
-        <v>-41.0054016113</v>
+        <v>-50.9231719971</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2088987827301025</v>
+        <v>0.2089722156524658</v>
       </c>
       <c r="P29" t="n">
-        <v>-47.43895721</v>
+        <v>-47.3825531</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.619207382202148</v>
+        <v>1.613119840621948</v>
       </c>
       <c r="R29" t="n">
-        <v>-39.7359466553</v>
+        <v>-29.7153682709</v>
       </c>
       <c r="S29" t="n">
-        <v>-56.008026123</v>
+        <v>-65.1420459747</v>
       </c>
       <c r="T29" t="n">
-        <v>-56.0052108765</v>
+        <v>-65.9578418732</v>
       </c>
       <c r="U29" t="n">
-        <v>0.5514841079711914</v>
+        <v>0.5547003746032715</v>
       </c>
       <c r="V29" t="n">
-        <v>-48.81008911</v>
+        <v>-48.81445312</v>
       </c>
       <c r="W29" t="n">
-        <v>2.725957870483398</v>
+        <v>2.638194799423218</v>
       </c>
       <c r="X29" t="n">
-        <v>-39.7431907654</v>
+        <v>-29.714225769</v>
       </c>
       <c r="Y29" t="n">
-        <v>-55.9912834167</v>
+        <v>-65.15770721440001</v>
       </c>
       <c r="Z29" t="n">
-        <v>-56.0137672424</v>
+        <v>-65.2149734497</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.5521340370178223</v>
+        <v>0.5527896881103516</v>
       </c>
       <c r="AB29" t="n">
-        <v>-49.74048615</v>
+        <v>-49.81687546</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.813787937164307</v>
+        <v>4.813947677612305</v>
       </c>
       <c r="AD29" t="n">
-        <v>-39.7414169312</v>
+        <v>-29.7129745483</v>
       </c>
       <c r="AE29" t="n">
-        <v>-55.9644470215</v>
+        <v>-64.9609832764</v>
       </c>
       <c r="AF29" t="n">
-        <v>-56.0510787964</v>
+        <v>-65.9627609253</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.5577363967895508</v>
+        <v>0.5554268360137939</v>
       </c>
       <c r="AH29" t="n">
-        <v>-50.44164276</v>
+        <v>-50.60004807</v>
       </c>
       <c r="AI29" t="n">
-        <v>11.2718722820282</v>
+        <v>11.36741805076599</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-39.735710144</v>
+        <v>-29.7159557343</v>
       </c>
       <c r="AK29" t="n">
-        <v>-55.9828414917</v>
+        <v>-64.57371711730001</v>
       </c>
       <c r="AL29" t="n">
-        <v>-56.0654067993</v>
+        <v>-64.9750537872</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.5541617870330811</v>
+        <v>0.5496439933776855</v>
       </c>
       <c r="AN29" t="n">
-        <v>-42.43836212</v>
+        <v>-50.86128616</v>
       </c>
       <c r="AO29" t="n">
-        <v>22.1279354095459</v>
+        <v>22.22301387786865</v>
       </c>
       <c r="AP29" t="n">
-        <v>-39.7329368591</v>
+        <v>-29.7153282166</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-55.9687232971</v>
+        <v>-65.52618026730001</v>
       </c>
       <c r="AR29" t="n">
-        <v>-56.0377693176</v>
+        <v>-65.562953949</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.5584836006164551</v>
+        <v>0.5556867122650146</v>
       </c>
       <c r="AT29" t="n">
-        <v>49.405</v>
+        <v>49.307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B30" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C30" t="n">
         <v>4.8</v>
       </c>
       <c r="D30" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>15.855</v>
+        <v>2.312</v>
       </c>
       <c r="G30" t="n">
-        <v>-39.79661</v>
+        <v>-29.83723</v>
       </c>
       <c r="H30" t="n">
-        <v>-39.73264</v>
+        <v>-29.76874</v>
       </c>
       <c r="I30" t="n">
-        <v>-39.73049164</v>
+        <v>-29.81239319</v>
       </c>
       <c r="J30" t="n">
-        <v>-48.68385696</v>
+        <v>-49.80176926</v>
       </c>
       <c r="K30" t="n">
-        <v>0.2021617889404297</v>
+        <v>0.191070556640625</v>
       </c>
       <c r="L30" t="n">
-        <v>-39.8034591675</v>
+        <v>-29.8219871521</v>
       </c>
       <c r="M30" t="n">
-        <v>-40.9255599976</v>
+        <v>-50.786365509</v>
       </c>
       <c r="N30" t="n">
-        <v>-39.8759002686</v>
+        <v>-49.7404823303</v>
       </c>
       <c r="O30" t="n">
-        <v>0.2094073295593262</v>
+        <v>0.2108697891235352</v>
       </c>
       <c r="P30" t="n">
-        <v>-47.12751007</v>
+        <v>-47.08300018</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.635041952133179</v>
+        <v>1.632226705551147</v>
       </c>
       <c r="R30" t="n">
-        <v>-39.7859687805</v>
+        <v>-29.7961730957</v>
       </c>
       <c r="S30" t="n">
-        <v>-55.9484443665</v>
+        <v>-64.28373718260001</v>
       </c>
       <c r="T30" t="n">
-        <v>-54.8752555847</v>
+        <v>-64.80917358400001</v>
       </c>
       <c r="U30" t="n">
-        <v>0.561790943145752</v>
+        <v>0.5614547729492188</v>
       </c>
       <c r="V30" t="n">
-        <v>-48.48748016</v>
+        <v>-48.53435898</v>
       </c>
       <c r="W30" t="n">
-        <v>2.633556842803955</v>
+        <v>2.678618192672729</v>
       </c>
       <c r="X30" t="n">
-        <v>-39.7893180847</v>
+        <v>-29.7995681763</v>
       </c>
       <c r="Y30" t="n">
-        <v>-55.9623680115</v>
+        <v>-64.7800445557</v>
       </c>
       <c r="Z30" t="n">
-        <v>-54.8930702209</v>
+        <v>-64.7781906128</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.5629575252532959</v>
+        <v>0.557687520980835</v>
       </c>
       <c r="AB30" t="n">
-        <v>-49.56409454</v>
+        <v>-49.52518082</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.890947580337524</v>
+        <v>4.818856477737427</v>
       </c>
       <c r="AD30" t="n">
-        <v>-39.786819458</v>
+        <v>-29.7975082397</v>
       </c>
       <c r="AE30" t="n">
-        <v>-55.9173583984</v>
+        <v>-64.005027771</v>
       </c>
       <c r="AF30" t="n">
-        <v>-54.9022750854</v>
+        <v>-63.9661560059</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.5707604885101318</v>
+        <v>0.5585019588470459</v>
       </c>
       <c r="AH30" t="n">
-        <v>-50.33826828</v>
+        <v>-50.3242836</v>
       </c>
       <c r="AI30" t="n">
-        <v>11.32891511917114</v>
+        <v>11.29722332954407</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-39.7840270996</v>
+        <v>-29.799489975</v>
       </c>
       <c r="AK30" t="n">
-        <v>-55.9597549438</v>
+        <v>-63.5818119049</v>
       </c>
       <c r="AL30" t="n">
-        <v>-54.9079818726</v>
+        <v>-64.7721195221</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.5604913234710693</v>
+        <v>0.5593836307525635</v>
       </c>
       <c r="AN30" t="n">
-        <v>-50.57381439</v>
+        <v>-50.56244278</v>
       </c>
       <c r="AO30" t="n">
-        <v>22.14575600624084</v>
+        <v>22.26712536811829</v>
       </c>
       <c r="AP30" t="n">
-        <v>-39.7871932983</v>
+        <v>-29.80260849</v>
       </c>
       <c r="AQ30" t="n">
-        <v>-55.9533157349</v>
+        <v>-63.982334137</v>
       </c>
       <c r="AR30" t="n">
-        <v>-54.8964691162</v>
+        <v>-64.3599128723</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5677192211151123</v>
+        <v>0.5615882873535156</v>
       </c>
       <c r="AT30" t="n">
-        <v>49.432</v>
+        <v>49.594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B31" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C31" t="n">
         <v>4.9</v>
       </c>
       <c r="D31" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>15.852</v>
+        <v>2.267</v>
       </c>
       <c r="G31" t="n">
-        <v>-39.80635</v>
+        <v>-29.81946</v>
       </c>
       <c r="H31" t="n">
-        <v>-39.6804</v>
+        <v>-29.70075</v>
       </c>
       <c r="I31" t="n">
-        <v>-39.65577698</v>
+        <v>-29.63398743</v>
       </c>
       <c r="J31" t="n">
-        <v>-48.31613922</v>
+        <v>-49.45521927</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1986417770385742</v>
+        <v>0.2001416683197021</v>
       </c>
       <c r="L31" t="n">
-        <v>-39.7329368591</v>
+        <v>-29.7433872223</v>
       </c>
       <c r="M31" t="n">
-        <v>-38.8144416809</v>
+        <v>-48.7180233002</v>
       </c>
       <c r="N31" t="n">
-        <v>-38.6615028381</v>
+        <v>-48.5777873993</v>
       </c>
       <c r="O31" t="n">
-        <v>0.2119410037994385</v>
+        <v>0.2111613750457764</v>
       </c>
       <c r="P31" t="n">
-        <v>-46.81318665</v>
+        <v>-46.93458939</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.617200613021851</v>
+        <v>1.616343021392822</v>
       </c>
       <c r="R31" t="n">
-        <v>-39.7349090576</v>
+        <v>-29.7279815674</v>
       </c>
       <c r="S31" t="n">
-        <v>-53.8088912964</v>
+        <v>-62.5611801147</v>
       </c>
       <c r="T31" t="n">
-        <v>-53.6531600952</v>
+        <v>-63.564453125</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5531654357910156</v>
+        <v>0.5496175289154053</v>
       </c>
       <c r="V31" t="n">
-        <v>-48.14034271</v>
+        <v>-48.25256348</v>
       </c>
       <c r="W31" t="n">
-        <v>2.659058094024658</v>
+        <v>2.65133810043335</v>
       </c>
       <c r="X31" t="n">
-        <v>-39.7182006836</v>
+        <v>-29.7274780273</v>
       </c>
       <c r="Y31" t="n">
-        <v>-53.8661727905</v>
+        <v>-62.443321228</v>
       </c>
       <c r="Z31" t="n">
-        <v>-53.6636505127</v>
+        <v>-63.5936279297</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.549299955368042</v>
+        <v>0.555797815322876</v>
       </c>
       <c r="AB31" t="n">
-        <v>-49.16921234</v>
+        <v>-49.23586273</v>
       </c>
       <c r="AC31" t="n">
-        <v>4.844877243041992</v>
+        <v>4.824298620223999</v>
       </c>
       <c r="AD31" t="n">
-        <v>-39.7185630798</v>
+        <v>-29.7226867676</v>
       </c>
       <c r="AE31" t="n">
-        <v>-53.8344230652</v>
+        <v>-63.7713928223</v>
       </c>
       <c r="AF31" t="n">
-        <v>-53.6904335022</v>
+        <v>-63.6026000977</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.549368143081665</v>
+        <v>0.5516059398651123</v>
       </c>
       <c r="AH31" t="n">
-        <v>-49.91958237</v>
+        <v>-49.99782181</v>
       </c>
       <c r="AI31" t="n">
-        <v>11.33065009117126</v>
+        <v>11.37870621681213</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-39.7182121277</v>
+        <v>-29.7271652222</v>
       </c>
       <c r="AK31" t="n">
-        <v>-53.8254432678</v>
+        <v>-62.6246261597</v>
       </c>
       <c r="AL31" t="n">
-        <v>-53.639705658</v>
+        <v>-63.5840988159</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.5710208415985107</v>
+        <v>0.5527431964874268</v>
       </c>
       <c r="AN31" t="n">
-        <v>-50.18671036</v>
+        <v>-50.24324036</v>
       </c>
       <c r="AO31" t="n">
-        <v>22.14340591430664</v>
+        <v>22.11300897598267</v>
       </c>
       <c r="AP31" t="n">
-        <v>-39.7160415649</v>
+        <v>-29.7246513367</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-53.8605728149</v>
+        <v>-63.3279151917</v>
       </c>
       <c r="AR31" t="n">
-        <v>-53.6734771729</v>
+        <v>-63.2316246033</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.5581276416778564</v>
+        <v>0.5518970489501953</v>
       </c>
       <c r="AT31" t="n">
-        <v>49.503</v>
+        <v>49.673</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B32" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C32" t="n">
         <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>15.841</v>
+        <v>2.191</v>
       </c>
       <c r="G32" t="n">
-        <v>-39.81934</v>
+        <v>-29.83717</v>
       </c>
       <c r="H32" t="n">
-        <v>-39.76658</v>
+        <v>-29.75499</v>
       </c>
       <c r="I32" t="n">
-        <v>-39.95845032</v>
+        <v>-29.80207062</v>
       </c>
       <c r="J32" t="n">
-        <v>-48.49613571</v>
+        <v>-49.82937241</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2009198665618896</v>
+        <v>0.2015819549560547</v>
       </c>
       <c r="L32" t="n">
-        <v>-39.8294830322</v>
+        <v>-29.8084564209</v>
       </c>
       <c r="M32" t="n">
-        <v>-38.0104827881</v>
+        <v>-47.9517593384</v>
       </c>
       <c r="N32" t="n">
-        <v>-41.8806152344</v>
+        <v>-51.7552490234</v>
       </c>
       <c r="O32" t="n">
-        <v>0.207423210144043</v>
+        <v>0.2091739177703857</v>
       </c>
       <c r="P32" t="n">
-        <v>-47.08616638</v>
+        <v>-47.06242371</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.618685722351074</v>
+        <v>1.619130849838257</v>
       </c>
       <c r="R32" t="n">
-        <v>-39.8043174744</v>
+        <v>-29.8024330139</v>
       </c>
       <c r="S32" t="n">
-        <v>-53.0287361145</v>
+        <v>-62.9553337097</v>
       </c>
       <c r="T32" t="n">
-        <v>-56.9250984192</v>
+        <v>-64.3663749695</v>
       </c>
       <c r="U32" t="n">
-        <v>0.5513455867767334</v>
+        <v>0.5608806610107422</v>
       </c>
       <c r="V32" t="n">
-        <v>-48.50292969</v>
+        <v>-48.44700241</v>
       </c>
       <c r="W32" t="n">
-        <v>2.65212607383728</v>
+        <v>2.665802478790283</v>
       </c>
       <c r="X32" t="n">
-        <v>-39.819316864</v>
+        <v>-29.8053340912</v>
       </c>
       <c r="Y32" t="n">
-        <v>-53.0210075378</v>
+        <v>-62.9571094513</v>
       </c>
       <c r="Z32" t="n">
-        <v>-56.8845710754</v>
+        <v>-65.4543552399</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.5599071979522705</v>
+        <v>0.5698728561401367</v>
       </c>
       <c r="AB32" t="n">
-        <v>-49.5124054</v>
+        <v>-49.52287674</v>
       </c>
       <c r="AC32" t="n">
-        <v>4.827005386352539</v>
+        <v>4.859028100967407</v>
       </c>
       <c r="AD32" t="n">
-        <v>-39.8135414124</v>
+        <v>-29.7973842621</v>
       </c>
       <c r="AE32" t="n">
-        <v>-52.982585907</v>
+        <v>-62.9380817413</v>
       </c>
       <c r="AF32" t="n">
-        <v>-56.9066734314</v>
+        <v>-65.2009220123</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.5565245151519775</v>
+        <v>0.5550606250762939</v>
       </c>
       <c r="AH32" t="n">
-        <v>-50.29605484</v>
+        <v>-50.31529236</v>
       </c>
       <c r="AI32" t="n">
-        <v>11.31997418403625</v>
+        <v>11.31023001670837</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-39.804901123</v>
+        <v>-29.7984142303</v>
       </c>
       <c r="AK32" t="n">
-        <v>-53.0184173584</v>
+        <v>-62.9798221588</v>
       </c>
       <c r="AL32" t="n">
-        <v>-56.9230194092</v>
+        <v>-65.45629310610001</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.5617337226867676</v>
+        <v>0.5525343418121338</v>
       </c>
       <c r="AN32" t="n">
-        <v>-50.57286835</v>
+        <v>-50.56194687</v>
       </c>
       <c r="AO32" t="n">
-        <v>22.18299984931946</v>
+        <v>22.13572072982788</v>
       </c>
       <c r="AP32" t="n">
-        <v>-39.8055267334</v>
+        <v>-29.8073406219</v>
       </c>
       <c r="AQ32" t="n">
-        <v>-53.054725647</v>
+        <v>-62.9541873932</v>
       </c>
       <c r="AR32" t="n">
-        <v>-56.9287414551</v>
+        <v>-65.32682991030001</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.5602138042449951</v>
+        <v>0.5776877403259277</v>
       </c>
       <c r="AT32" t="n">
-        <v>49.887</v>
+        <v>49.402</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B33" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C33" t="n">
         <v>5.1</v>
       </c>
       <c r="D33" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>15.856</v>
+        <v>2.263</v>
       </c>
       <c r="G33" t="n">
-        <v>-39.83723</v>
+        <v>-29.80898</v>
       </c>
       <c r="H33" t="n">
-        <v>-39.70234</v>
+        <v>-29.69733</v>
       </c>
       <c r="I33" t="n">
-        <v>-39.84358215</v>
+        <v>-29.92282486</v>
       </c>
       <c r="J33" t="n">
-        <v>-48.92909622</v>
+        <v>-50.12133026</v>
       </c>
       <c r="K33" t="n">
-        <v>0.1958036422729492</v>
+        <v>0.1991062164306641</v>
       </c>
       <c r="L33" t="n">
-        <v>-39.7166633606</v>
+        <v>-29.7051067352</v>
       </c>
       <c r="M33" t="n">
-        <v>-41.9846992493</v>
+        <v>-51.9577503204</v>
       </c>
       <c r="N33" t="n">
-        <v>-42.1071434021</v>
+        <v>-52.0018634796</v>
       </c>
       <c r="O33" t="n">
-        <v>0.2068636417388916</v>
+        <v>0.2107186317443848</v>
       </c>
       <c r="P33" t="n">
-        <v>-47.36196518</v>
+        <v>-47.33899689</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.621240139007568</v>
+        <v>1.639841794967651</v>
       </c>
       <c r="R33" t="n">
-        <v>-39.7080459595</v>
+        <v>-29.6902942657</v>
       </c>
       <c r="S33" t="n">
-        <v>-57.0419692993</v>
+        <v>-66.9413280487</v>
       </c>
       <c r="T33" t="n">
-        <v>-57.0992050171</v>
+        <v>-65.7508449554</v>
       </c>
       <c r="U33" t="n">
-        <v>0.5502631664276123</v>
+        <v>0.5581564903259277</v>
       </c>
       <c r="V33" t="n">
-        <v>-48.82695007</v>
+        <v>-48.8258934</v>
       </c>
       <c r="W33" t="n">
-        <v>2.651756763458252</v>
+        <v>2.668658018112183</v>
       </c>
       <c r="X33" t="n">
-        <v>-39.7054138184</v>
+        <v>-29.684381485</v>
       </c>
       <c r="Y33" t="n">
-        <v>-57.0270767212</v>
+        <v>-66.9557933807</v>
       </c>
       <c r="Z33" t="n">
-        <v>-57.0971755981</v>
+        <v>-66.41930198670001</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.5557129383087158</v>
+        <v>0.5603103637695312</v>
       </c>
       <c r="AB33" t="n">
-        <v>-49.89271545</v>
+        <v>-49.94813538</v>
       </c>
       <c r="AC33" t="n">
-        <v>4.916976928710938</v>
+        <v>4.823436260223389</v>
       </c>
       <c r="AD33" t="n">
-        <v>-39.7013130188</v>
+        <v>-29.6947784424</v>
       </c>
       <c r="AE33" t="n">
-        <v>-57.058971405</v>
+        <v>-66.0588684082</v>
       </c>
       <c r="AF33" t="n">
-        <v>-57.1379737854</v>
+        <v>-66.6002731323</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.5488870143890381</v>
+        <v>0.5488638877868652</v>
       </c>
       <c r="AH33" t="n">
-        <v>-50.76583862</v>
+        <v>-50.76752472</v>
       </c>
       <c r="AI33" t="n">
-        <v>11.31013751029968</v>
+        <v>11.29243230819702</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-39.7087173462</v>
+        <v>-29.6899585724</v>
       </c>
       <c r="AK33" t="n">
-        <v>-57.0447463989</v>
+        <v>-66.9579296112</v>
       </c>
       <c r="AL33" t="n">
-        <v>-57.1410751343</v>
+        <v>-67.0780315399</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.5500085353851318</v>
+        <v>0.556269645690918</v>
       </c>
       <c r="AN33" t="n">
-        <v>-51.05987167</v>
+        <v>-51.03160477</v>
       </c>
       <c r="AO33" t="n">
-        <v>22.16895270347595</v>
+        <v>22.17753672599792</v>
       </c>
       <c r="AP33" t="n">
-        <v>-39.7055511475</v>
+        <v>-29.6883277893</v>
       </c>
       <c r="AQ33" t="n">
-        <v>-57.0416946411</v>
+        <v>-64.97744369510001</v>
       </c>
       <c r="AR33" t="n">
-        <v>-57.1049041748</v>
+        <v>-66.6385688782</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.5598323345184326</v>
+        <v>0.5513455867767334</v>
       </c>
       <c r="AT33" t="n">
-        <v>49.7</v>
+        <v>49.493</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B34" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C34" t="n">
         <v>5.2</v>
       </c>
       <c r="D34" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>15.839</v>
+        <v>2.553</v>
       </c>
       <c r="G34" t="n">
-        <v>-39.93581</v>
+        <v>-29.90207</v>
       </c>
       <c r="H34" t="n">
-        <v>-39.77335</v>
+        <v>-29.75052</v>
       </c>
       <c r="I34" t="n">
-        <v>-39.84257507</v>
+        <v>-29.81574249</v>
       </c>
       <c r="J34" t="n">
-        <v>-48.55767822</v>
+        <v>-50.19271469</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1927523612976074</v>
+        <v>0.194683313369751</v>
       </c>
       <c r="L34" t="n">
-        <v>-39.7139053345</v>
+        <v>-29.6890525818</v>
       </c>
       <c r="M34" t="n">
-        <v>-42.5134811401</v>
+        <v>-52.4573860168</v>
       </c>
       <c r="N34" t="n">
-        <v>-42.4216384888</v>
+        <v>-52.3669319153</v>
       </c>
       <c r="O34" t="n">
-        <v>0.2660431861877441</v>
+        <v>0.2172982692718506</v>
       </c>
       <c r="P34" t="n">
-        <v>-46.93512344</v>
+        <v>-50.51422119</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.633060455322266</v>
+        <v>1.620566606521606</v>
       </c>
       <c r="R34" t="n">
-        <v>-39.6927719116</v>
+        <v>-29.6733322144</v>
       </c>
       <c r="S34" t="n">
-        <v>-57.5699691772</v>
+        <v>-65.176902771</v>
       </c>
       <c r="T34" t="n">
-        <v>-57.4636001587</v>
+        <v>-67.1350021362</v>
       </c>
       <c r="U34" t="n">
-        <v>0.5514335632324219</v>
+        <v>0.5117363929748535</v>
       </c>
       <c r="V34" t="n">
-        <v>-48.3556366</v>
+        <v>-50.65173721</v>
       </c>
       <c r="W34" t="n">
-        <v>2.638985633850098</v>
+        <v>2.645272731781006</v>
       </c>
       <c r="X34" t="n">
-        <v>-39.6961174011</v>
+        <v>-29.6861534119</v>
       </c>
       <c r="Y34" t="n">
-        <v>-57.540851593</v>
+        <v>-67.45056533810001</v>
       </c>
       <c r="Z34" t="n">
-        <v>-57.4335212708</v>
+        <v>-67.1333045959</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.5547919273376465</v>
+        <v>0.5181472301483154</v>
       </c>
       <c r="AB34" t="n">
-        <v>-49.4712677</v>
+        <v>-50.74492645</v>
       </c>
       <c r="AC34" t="n">
-        <v>4.83503794670105</v>
+        <v>4.824575185775757</v>
       </c>
       <c r="AD34" t="n">
-        <v>-39.6899604797</v>
+        <v>-29.6784191132</v>
       </c>
       <c r="AE34" t="n">
-        <v>-57.5562019348</v>
+        <v>-67.2556018829</v>
       </c>
       <c r="AF34" t="n">
-        <v>-57.4606971741</v>
+        <v>-66.2266101837</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.5690240859985352</v>
+        <v>0.5147800445556641</v>
       </c>
       <c r="AH34" t="n">
-        <v>-50.26692963</v>
+        <v>-50.76712799</v>
       </c>
       <c r="AI34" t="n">
-        <v>11.26365375518799</v>
+        <v>11.34330749511719</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-39.6872062683</v>
+        <v>-29.6739349365</v>
       </c>
       <c r="AK34" t="n">
-        <v>-57.5213050842</v>
+        <v>-66.6469039917</v>
       </c>
       <c r="AL34" t="n">
-        <v>-57.457408905</v>
+        <v>-67.3494186401</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.5582067966461182</v>
+        <v>0.5277397632598877</v>
       </c>
       <c r="AN34" t="n">
-        <v>-50.58620453</v>
+        <v>-50.79455566</v>
       </c>
       <c r="AO34" t="n">
-        <v>22.14184522628784</v>
+        <v>22.13474559783936</v>
       </c>
       <c r="AP34" t="n">
-        <v>-39.6904907227</v>
+        <v>-29.6736068726</v>
       </c>
       <c r="AQ34" t="n">
-        <v>-57.5618591309</v>
+        <v>-67.4819641113</v>
       </c>
       <c r="AR34" t="n">
-        <v>-57.4489898682</v>
+        <v>-67.2834777832</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.5708215236663818</v>
+        <v>0.5195152759552002</v>
       </c>
       <c r="AT34" t="n">
-        <v>49.238</v>
+        <v>49.122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B35" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C35" t="n">
         <v>5.3</v>
       </c>
       <c r="D35" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>15.842</v>
+        <v>2.727</v>
       </c>
       <c r="G35" t="n">
-        <v>-39.90959</v>
+        <v>-29.90134</v>
       </c>
       <c r="H35" t="n">
-        <v>-39.83928</v>
+        <v>-29.81685</v>
       </c>
       <c r="I35" t="n">
-        <v>-39.94747162</v>
+        <v>-29.9125061</v>
       </c>
       <c r="J35" t="n">
-        <v>-48.61087418</v>
+        <v>-50.38381958</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2022607326507568</v>
+        <v>0.2016069889068604</v>
       </c>
       <c r="L35" t="n">
-        <v>-39.7602806091</v>
+        <v>-29.756149292</v>
       </c>
       <c r="M35" t="n">
-        <v>-41.7894630432</v>
+        <v>-51.6826400757</v>
       </c>
       <c r="N35" t="n">
-        <v>-41.6839942932</v>
+        <v>-51.6098556519</v>
       </c>
       <c r="O35" t="n">
-        <v>0.2070841789245605</v>
+        <v>0.2076330184936523</v>
       </c>
       <c r="P35" t="n">
-        <v>-46.95433044</v>
+        <v>-50.72933197</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.624803304672241</v>
+        <v>1.625555753707886</v>
       </c>
       <c r="R35" t="n">
-        <v>-39.7605285645</v>
+        <v>-29.7448253632</v>
       </c>
       <c r="S35" t="n">
-        <v>-56.8005523682</v>
+        <v>-65.9832859039</v>
       </c>
       <c r="T35" t="n">
-        <v>-56.6373748779</v>
+        <v>-66.5996875763</v>
       </c>
       <c r="U35" t="n">
-        <v>0.5543131828308105</v>
+        <v>0.5214974880218506</v>
       </c>
       <c r="V35" t="n">
-        <v>-48.50809097</v>
+        <v>-50.8760643</v>
       </c>
       <c r="W35" t="n">
-        <v>2.649574518203735</v>
+        <v>2.673806428909302</v>
       </c>
       <c r="X35" t="n">
-        <v>-39.7422714233</v>
+        <v>-29.7454452515</v>
       </c>
       <c r="Y35" t="n">
-        <v>-56.7973022461</v>
+        <v>-66.25965118409999</v>
       </c>
       <c r="Z35" t="n">
-        <v>-56.7053985596</v>
+        <v>-66.6154251099</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.5488204956054688</v>
+        <v>0.5173895359039307</v>
       </c>
       <c r="AB35" t="n">
-        <v>-49.58217239</v>
+        <v>-50.95657349</v>
       </c>
       <c r="AC35" t="n">
-        <v>4.872591495513916</v>
+        <v>4.834343910217285</v>
       </c>
       <c r="AD35" t="n">
-        <v>-39.7466392517</v>
+        <v>-29.7349777222</v>
       </c>
       <c r="AE35" t="n">
-        <v>-56.8228340149</v>
+        <v>-66.7369003296</v>
       </c>
       <c r="AF35" t="n">
-        <v>-56.6863746643</v>
+        <v>-66.62818145750001</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.5672190189361572</v>
+        <v>0.5279417037963867</v>
       </c>
       <c r="AH35" t="n">
-        <v>-50.49110031</v>
+        <v>-51.03160858</v>
       </c>
       <c r="AI35" t="n">
-        <v>11.37329435348511</v>
+        <v>11.31336998939514</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-39.7531394958</v>
+        <v>-29.7409858704</v>
       </c>
       <c r="AK35" t="n">
-        <v>-56.7980613708</v>
+        <v>-66.7174110413</v>
       </c>
       <c r="AL35" t="n">
-        <v>-56.7157402039</v>
+        <v>-66.6201896667</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.5562782287597656</v>
+        <v>0.5129432678222656</v>
       </c>
       <c r="AN35" t="n">
-        <v>-50.78656006</v>
+        <v>-51.05015564</v>
       </c>
       <c r="AO35" t="n">
-        <v>22.24257397651672</v>
+        <v>22.11163687705994</v>
       </c>
       <c r="AP35" t="n">
-        <v>-39.7442512512</v>
+        <v>-29.742729187</v>
       </c>
       <c r="AQ35" t="n">
-        <v>-56.8083381653</v>
+        <v>-66.7134933472</v>
       </c>
       <c r="AR35" t="n">
-        <v>-56.7096748352</v>
+        <v>-66.6119918823</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.5494005680084229</v>
+        <v>0.5184762477874756</v>
       </c>
       <c r="AT35" t="n">
-        <v>49.604</v>
+        <v>49.075</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B36" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C36" t="n">
         <v>5.4</v>
       </c>
       <c r="D36" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>15.841</v>
+        <v>3.188</v>
       </c>
       <c r="G36" t="n">
-        <v>-39.95487</v>
+        <v>-29.92959</v>
       </c>
       <c r="H36" t="n">
-        <v>-39.82526</v>
+        <v>-29.79089</v>
       </c>
       <c r="I36" t="n">
-        <v>-39.9727478</v>
+        <v>-29.91345215</v>
       </c>
       <c r="J36" t="n">
-        <v>-48.59211731</v>
+        <v>-50.56715393</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1995892524719238</v>
+        <v>0.2043726444244385</v>
       </c>
       <c r="L36" t="n">
-        <v>-39.8224067688</v>
+        <v>-29.7979946136</v>
       </c>
       <c r="M36" t="n">
-        <v>-41.7035636902</v>
+        <v>-51.6814899445</v>
       </c>
       <c r="N36" t="n">
-        <v>-41.8441734314</v>
+        <v>-51.7364749908</v>
       </c>
       <c r="O36" t="n">
-        <v>0.2509491443634033</v>
+        <v>0.2366650104522705</v>
       </c>
       <c r="P36" t="n">
-        <v>-46.93243027</v>
+        <v>-50.84522247</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.616730928421021</v>
+        <v>1.663840055465698</v>
       </c>
       <c r="R36" t="n">
-        <v>-39.8211860657</v>
+        <v>-29.7978191376</v>
       </c>
       <c r="S36" t="n">
-        <v>-56.7430229187</v>
+        <v>-65.53925514220001</v>
       </c>
       <c r="T36" t="n">
-        <v>-56.8269767761</v>
+        <v>-66.7422199249</v>
       </c>
       <c r="U36" t="n">
-        <v>0.5713770389556885</v>
+        <v>0.5769274234771729</v>
       </c>
       <c r="V36" t="n">
-        <v>-48.48189545</v>
+        <v>-51.05290222</v>
       </c>
       <c r="W36" t="n">
-        <v>2.661936283111572</v>
+        <v>2.704758405685425</v>
       </c>
       <c r="X36" t="n">
-        <v>-39.8084182739</v>
+        <v>-29.811876297</v>
       </c>
       <c r="Y36" t="n">
-        <v>-56.7395248413</v>
+        <v>-66.6637935638</v>
       </c>
       <c r="Z36" t="n">
-        <v>-56.8181762695</v>
+        <v>-66.7379207611</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.5584511756896973</v>
+        <v>0.5378015041351318</v>
       </c>
       <c r="AB36" t="n">
-        <v>-49.75278854</v>
+        <v>-51.121315</v>
       </c>
       <c r="AC36" t="n">
-        <v>4.836736679077148</v>
+        <v>4.904190301895142</v>
       </c>
       <c r="AD36" t="n">
-        <v>-39.809135437</v>
+        <v>-29.8025932312</v>
       </c>
       <c r="AE36" t="n">
-        <v>-56.7404632568</v>
+        <v>-66.67406082150001</v>
       </c>
       <c r="AF36" t="n">
-        <v>-56.8368301392</v>
+        <v>-65.90959548950001</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.555091381072998</v>
+        <v>0.5502824783325195</v>
       </c>
       <c r="AH36" t="n">
-        <v>-50.66970825</v>
+        <v>-51.18844986</v>
       </c>
       <c r="AI36" t="n">
-        <v>11.35626363754272</v>
+        <v>11.50811052322388</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-39.8094978333</v>
+        <v>-29.7987194061</v>
       </c>
       <c r="AK36" t="n">
-        <v>-56.7304878235</v>
+        <v>-66.6690235138</v>
       </c>
       <c r="AL36" t="n">
-        <v>-56.8568077087</v>
+        <v>-66.76521492000001</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.5569489002227783</v>
+        <v>0.5506184101104736</v>
       </c>
       <c r="AN36" t="n">
-        <v>-50.99954224</v>
+        <v>-51.19923019</v>
       </c>
       <c r="AO36" t="n">
-        <v>22.21858143806458</v>
+        <v>22.37231755256653</v>
       </c>
       <c r="AP36" t="n">
-        <v>-39.8096237183</v>
+        <v>-29.7958526611</v>
       </c>
       <c r="AQ36" t="n">
-        <v>-56.7862854004</v>
+        <v>-65.9627075195</v>
       </c>
       <c r="AR36" t="n">
-        <v>-56.8171615601</v>
+        <v>-66.7956695557</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.552138090133667</v>
+        <v>0.5289883613586426</v>
       </c>
       <c r="AT36" t="n">
-        <v>49.799</v>
+        <v>49.823</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B37" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C37" t="n">
         <v>5.5</v>
       </c>
       <c r="D37" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>15.858</v>
+        <v>3.427</v>
       </c>
       <c r="G37" t="n">
-        <v>-39.96942</v>
+        <v>-29.94488</v>
       </c>
       <c r="H37" t="n">
-        <v>-39.81828</v>
+        <v>-29.82351</v>
       </c>
       <c r="I37" t="n">
-        <v>-39.94126129</v>
+        <v>-29.91514587</v>
       </c>
       <c r="J37" t="n">
-        <v>-48.0872879</v>
+        <v>-50.02423859</v>
       </c>
       <c r="K37" t="n">
-        <v>0.193354606628418</v>
+        <v>0.2015423774719238</v>
       </c>
       <c r="L37" t="n">
-        <v>-39.8026504517</v>
+        <v>-29.8032932281</v>
       </c>
       <c r="M37" t="n">
-        <v>-41.7871017456</v>
+        <v>-51.7331905365</v>
       </c>
       <c r="N37" t="n">
-        <v>-41.8657302856</v>
+        <v>-51.7540798187</v>
       </c>
       <c r="O37" t="n">
-        <v>0.2080585956573486</v>
+        <v>0.2085039615631104</v>
       </c>
       <c r="P37" t="n">
-        <v>-46.33155441</v>
+        <v>-50.51288605</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.621760368347168</v>
+        <v>1.623565435409546</v>
       </c>
       <c r="R37" t="n">
-        <v>-39.7988166809</v>
+        <v>-29.787733078</v>
       </c>
       <c r="S37" t="n">
-        <v>-56.8374900818</v>
+        <v>-66.7276325226</v>
       </c>
       <c r="T37" t="n">
-        <v>-56.8529853821</v>
+        <v>-66.7770938873</v>
       </c>
       <c r="U37" t="n">
-        <v>0.5505890846252441</v>
+        <v>0.5229358673095703</v>
       </c>
       <c r="V37" t="n">
-        <v>-47.94748688</v>
+        <v>-50.66554642</v>
       </c>
       <c r="W37" t="n">
-        <v>2.668477535247803</v>
+        <v>2.642730712890625</v>
       </c>
       <c r="X37" t="n">
-        <v>-39.7923049927</v>
+        <v>-29.7892723083</v>
       </c>
       <c r="Y37" t="n">
-        <v>-56.8343505859</v>
+        <v>-65.7270011902</v>
       </c>
       <c r="Z37" t="n">
-        <v>-56.8641433716</v>
+        <v>-65.81315231320001</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.5582606792449951</v>
+        <v>0.5106468200683594</v>
       </c>
       <c r="AB37" t="n">
-        <v>-49.15771103</v>
+        <v>-50.74576569</v>
       </c>
       <c r="AC37" t="n">
-        <v>4.874156713485718</v>
+        <v>4.838998079299927</v>
       </c>
       <c r="AD37" t="n">
-        <v>-39.7986907959</v>
+        <v>-29.7934074402</v>
       </c>
       <c r="AE37" t="n">
-        <v>-56.8520431519</v>
+        <v>-66.3667106628</v>
       </c>
       <c r="AF37" t="n">
-        <v>-56.8867797852</v>
+        <v>-66.3165626526</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.5505471229553223</v>
+        <v>0.5206100940704346</v>
       </c>
       <c r="AH37" t="n">
-        <v>-50.14852524</v>
+        <v>-50.8263588</v>
       </c>
       <c r="AI37" t="n">
-        <v>11.33129954338074</v>
+        <v>11.32990694046021</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-39.7904167175</v>
+        <v>-29.7921829224</v>
       </c>
       <c r="AK37" t="n">
-        <v>-56.8523139954</v>
+        <v>-66.7364578247</v>
       </c>
       <c r="AL37" t="n">
-        <v>-56.8688926697</v>
+        <v>-65.9071960449</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.5497756004333496</v>
+        <v>0.5094904899597168</v>
       </c>
       <c r="AN37" t="n">
-        <v>-50.61790848</v>
+        <v>-50.81960678</v>
       </c>
       <c r="AO37" t="n">
-        <v>22.19848346710205</v>
+        <v>22.19508671760559</v>
       </c>
       <c r="AP37" t="n">
-        <v>-39.7830123901</v>
+        <v>-29.7896289825</v>
       </c>
       <c r="AQ37" t="n">
-        <v>-56.8343276978</v>
+        <v>-66.7350215912</v>
       </c>
       <c r="AR37" t="n">
-        <v>-56.8696975708</v>
+        <v>-66.8257045746</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.5497009754180908</v>
+        <v>0.5313093662261963</v>
       </c>
       <c r="AT37" t="n">
-        <v>49.607</v>
+        <v>48.774</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B38" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C38" t="n">
         <v>5.6</v>
       </c>
       <c r="D38" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>15.841</v>
+        <v>3.119</v>
       </c>
       <c r="G38" t="n">
-        <v>-39.90894</v>
+        <v>-29.90898</v>
       </c>
       <c r="H38" t="n">
-        <v>-39.75351</v>
+        <v>-29.72939</v>
       </c>
       <c r="I38" t="n">
-        <v>-39.98446655</v>
+        <v>-29.93525696</v>
       </c>
       <c r="J38" t="n">
-        <v>-48.25080872</v>
+        <v>-49.91500473</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1928939819335938</v>
+        <v>0.1942241191864014</v>
       </c>
       <c r="L38" t="n">
-        <v>-39.7455406189</v>
+        <v>-29.7507820129</v>
       </c>
       <c r="M38" t="n">
-        <v>-41.82239151</v>
+        <v>-51.7160606384</v>
       </c>
       <c r="N38" t="n">
-        <v>-41.9035453796</v>
+        <v>-51.7719993591</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2082741260528564</v>
+        <v>0.2082281112670898</v>
       </c>
       <c r="P38" t="n">
-        <v>-46.40196991</v>
+        <v>-50.36407089</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.614795923233032</v>
+        <v>1.62153959274292</v>
       </c>
       <c r="R38" t="n">
-        <v>-39.7282333374</v>
+        <v>-29.7329521179</v>
       </c>
       <c r="S38" t="n">
-        <v>-56.8625411987</v>
+        <v>-65.9848213196</v>
       </c>
       <c r="T38" t="n">
-        <v>-56.9315109253</v>
+        <v>-66.7237892151</v>
       </c>
       <c r="U38" t="n">
-        <v>0.5724165439605713</v>
+        <v>0.5118420124053955</v>
       </c>
       <c r="V38" t="n">
-        <v>-48.02236557</v>
+        <v>-50.55450058</v>
       </c>
       <c r="W38" t="n">
-        <v>2.677461385726929</v>
+        <v>2.652691841125488</v>
       </c>
       <c r="X38" t="n">
-        <v>-39.7275085449</v>
+        <v>-29.7262210846</v>
       </c>
       <c r="Y38" t="n">
-        <v>-56.8753051758</v>
+        <v>-65.5724544525</v>
       </c>
       <c r="Z38" t="n">
-        <v>-56.8962173462</v>
+        <v>-66.5921840668</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.551722526550293</v>
+        <v>0.5219969749450684</v>
       </c>
       <c r="AB38" t="n">
-        <v>-49.16057587</v>
+        <v>-50.64131927</v>
       </c>
       <c r="AC38" t="n">
-        <v>4.850651502609253</v>
+        <v>4.795837163925171</v>
       </c>
       <c r="AD38" t="n">
-        <v>-39.7329483032</v>
+        <v>-29.7402496338</v>
       </c>
       <c r="AE38" t="n">
-        <v>-56.8308563232</v>
+        <v>-65.3037567139</v>
       </c>
       <c r="AF38" t="n">
-        <v>-56.9296340942</v>
+        <v>-66.3060531616</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.5506258010864258</v>
+        <v>0.5201542377471924</v>
       </c>
       <c r="AH38" t="n">
-        <v>-50.07809448</v>
+        <v>-50.69613647</v>
       </c>
       <c r="AI38" t="n">
-        <v>11.33037853240967</v>
+        <v>11.26386523246765</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-39.7252578735</v>
+        <v>-29.7417602539</v>
       </c>
       <c r="AK38" t="n">
-        <v>-56.8817138672</v>
+        <v>-66.76193237299999</v>
       </c>
       <c r="AL38" t="n">
-        <v>-56.9051818848</v>
+        <v>-66.3545379639</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.5515151023864746</v>
+        <v>0.5182123184204102</v>
       </c>
       <c r="AN38" t="n">
-        <v>-50.43697357</v>
+        <v>-50.68601227</v>
       </c>
       <c r="AO38" t="n">
-        <v>22.18142914772034</v>
+        <v>22.16471004486084</v>
       </c>
       <c r="AP38" t="n">
-        <v>-39.7234954834</v>
+        <v>-29.7295608521</v>
       </c>
       <c r="AQ38" t="n">
-        <v>-56.8809738159</v>
+        <v>-65.3368759155</v>
       </c>
       <c r="AR38" t="n">
-        <v>-56.9533233643</v>
+        <v>-66.5775146484</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.5518181324005127</v>
+        <v>0.5215041637420654</v>
       </c>
       <c r="AT38" t="n">
-        <v>49.616</v>
+        <v>48.646</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B39" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C39" t="n">
         <v>5.7</v>
       </c>
       <c r="D39" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>15.851</v>
+        <v>3.447</v>
       </c>
       <c r="G39" t="n">
-        <v>-40.05827</v>
+        <v>-30.03122</v>
       </c>
       <c r="H39" t="n">
-        <v>-39.91038</v>
+        <v>-29.89207</v>
       </c>
       <c r="I39" t="n">
-        <v>-40.04183197</v>
+        <v>-30.00800705</v>
       </c>
       <c r="J39" t="n">
-        <v>-48.64674377</v>
+        <v>-50.61096191</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1941936016082764</v>
+        <v>0.1926460266113281</v>
       </c>
       <c r="L39" t="n">
-        <v>-39.8873176575</v>
+        <v>-29.8933429718</v>
       </c>
       <c r="M39" t="n">
-        <v>-41.9636192322</v>
+        <v>-51.8777294159</v>
       </c>
       <c r="N39" t="n">
-        <v>-41.9599266052</v>
+        <v>-51.8808116913</v>
       </c>
       <c r="O39" t="n">
-        <v>0.2068288326263428</v>
+        <v>0.20916748046875</v>
       </c>
       <c r="P39" t="n">
-        <v>-46.93261719</v>
+        <v>-50.71271896</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.627446413040161</v>
+        <v>1.628235578536987</v>
       </c>
       <c r="R39" t="n">
-        <v>-39.8769454956</v>
+        <v>-29.8830127716</v>
       </c>
       <c r="S39" t="n">
-        <v>-56.975769043</v>
+        <v>-65.6079540253</v>
       </c>
       <c r="T39" t="n">
-        <v>-56.9566726685</v>
+        <v>-64.9421520233</v>
       </c>
       <c r="U39" t="n">
-        <v>0.5511696338653564</v>
+        <v>0.513690710067749</v>
       </c>
       <c r="V39" t="n">
-        <v>-48.44045639</v>
+        <v>-50.92064285</v>
       </c>
       <c r="W39" t="n">
-        <v>2.640430212020874</v>
+        <v>2.681447744369507</v>
       </c>
       <c r="X39" t="n">
-        <v>-39.8735618591</v>
+        <v>-29.8737735748</v>
       </c>
       <c r="Y39" t="n">
-        <v>-57.0033149719</v>
+        <v>-66.4377117157</v>
       </c>
       <c r="Z39" t="n">
-        <v>-56.9370918274</v>
+        <v>-64.8277797699</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.5593502521514893</v>
+        <v>0.5199179649353027</v>
       </c>
       <c r="AB39" t="n">
-        <v>-49.63652039</v>
+        <v>-50.99728394</v>
       </c>
       <c r="AC39" t="n">
-        <v>4.81317400932312</v>
+        <v>4.870586395263672</v>
       </c>
       <c r="AD39" t="n">
-        <v>-39.8835334778</v>
+        <v>-29.8822479248</v>
       </c>
       <c r="AE39" t="n">
-        <v>-56.9759178162</v>
+        <v>-66.9087524414</v>
       </c>
       <c r="AF39" t="n">
-        <v>-56.9458427429</v>
+        <v>-65.7259979248</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.5503911972045898</v>
+        <v>0.5204176902770996</v>
       </c>
       <c r="AH39" t="n">
-        <v>-50.54674149</v>
+        <v>-51.01815033</v>
       </c>
       <c r="AI39" t="n">
-        <v>11.29971480369568</v>
+        <v>11.31079292297363</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-39.8802871704</v>
+        <v>-29.8835544586</v>
       </c>
       <c r="AK39" t="n">
-        <v>-56.9800567627</v>
+        <v>-65.5924892426</v>
       </c>
       <c r="AL39" t="n">
-        <v>-56.9966278076</v>
+        <v>-65.59406089780001</v>
       </c>
       <c r="AM39" t="n">
-        <v>0.5713038444519043</v>
+        <v>0.5196774005889893</v>
       </c>
       <c r="AN39" t="n">
-        <v>-50.88630295</v>
+        <v>-51.0594902</v>
       </c>
       <c r="AO39" t="n">
-        <v>22.27783989906311</v>
+        <v>22.16341042518616</v>
       </c>
       <c r="AP39" t="n">
-        <v>-39.8787994385</v>
+        <v>-29.8886680603</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-56.9951248169</v>
+        <v>-66.37048721310001</v>
       </c>
       <c r="AR39" t="n">
-        <v>-56.9517822266</v>
+        <v>-65.88620376590001</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.5538816452026367</v>
+        <v>0.5119526386260986</v>
       </c>
       <c r="AT39" t="n">
-        <v>49.435</v>
+        <v>48.866</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B40" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C40" t="n">
         <v>5.8</v>
       </c>
       <c r="D40" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>15.863</v>
+        <v>2.982</v>
       </c>
       <c r="G40" t="n">
-        <v>-40.05242</v>
+        <v>-29.97642</v>
       </c>
       <c r="H40" t="n">
-        <v>-39.86447</v>
+        <v>-29.84468</v>
       </c>
       <c r="I40" t="n">
-        <v>-39.97886658</v>
+        <v>-29.92641449</v>
       </c>
       <c r="J40" t="n">
-        <v>-48.46015167</v>
+        <v>-50.26934814</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1991946697235107</v>
+        <v>0.2044441699981689</v>
       </c>
       <c r="L40" t="n">
-        <v>-39.8664894104</v>
+        <v>-29.8851490021</v>
       </c>
       <c r="M40" t="n">
-        <v>-41.4854774475</v>
+        <v>-51.3660564423</v>
       </c>
       <c r="N40" t="n">
-        <v>-41.4398231506</v>
+        <v>-51.315038681</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2055881023406982</v>
+        <v>0.214552640914917</v>
       </c>
       <c r="P40" t="n">
-        <v>-46.85699844</v>
+        <v>-50.59374237</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.634900808334351</v>
+        <v>1.609926700592041</v>
       </c>
       <c r="R40" t="n">
-        <v>-39.8554382324</v>
+        <v>-29.8712825775</v>
       </c>
       <c r="S40" t="n">
-        <v>-56.5327911377</v>
+        <v>-65.2053623199</v>
       </c>
       <c r="T40" t="n">
-        <v>-56.4506454468</v>
+        <v>-66.3348178864</v>
       </c>
       <c r="U40" t="n">
-        <v>0.5563478469848633</v>
+        <v>0.5140128135681152</v>
       </c>
       <c r="V40" t="n">
-        <v>-48.34237671</v>
+        <v>-50.72322083</v>
       </c>
       <c r="W40" t="n">
-        <v>2.722587585449219</v>
+        <v>2.652109622955322</v>
       </c>
       <c r="X40" t="n">
-        <v>-39.8763046265</v>
+        <v>-29.8782234192</v>
       </c>
       <c r="Y40" t="n">
-        <v>-56.4659805298</v>
+        <v>-64.5652580261</v>
       </c>
       <c r="Z40" t="n">
-        <v>-56.4358901978</v>
+        <v>-65.6133460999</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.5544602870941162</v>
+        <v>0.5224618911743164</v>
       </c>
       <c r="AB40" t="n">
-        <v>-49.51402283</v>
+        <v>-50.7978363</v>
       </c>
       <c r="AC40" t="n">
-        <v>4.811914443969727</v>
+        <v>4.802574872970581</v>
       </c>
       <c r="AD40" t="n">
-        <v>-39.8815612793</v>
+        <v>-29.8839015961</v>
       </c>
       <c r="AE40" t="n">
-        <v>-56.4581680298</v>
+        <v>-66.3629398346</v>
       </c>
       <c r="AF40" t="n">
-        <v>-56.4166107178</v>
+        <v>-66.11445045470001</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.5598142147064209</v>
+        <v>0.5151872634887695</v>
       </c>
       <c r="AH40" t="n">
-        <v>-50.35144043</v>
+        <v>-50.85773849</v>
       </c>
       <c r="AI40" t="n">
-        <v>11.36025094985962</v>
+        <v>11.28847885131836</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-39.862285614</v>
+        <v>-29.8848171234</v>
       </c>
       <c r="AK40" t="n">
-        <v>-56.4743156433</v>
+        <v>-66.3651371002</v>
       </c>
       <c r="AL40" t="n">
-        <v>-56.4194908142</v>
+        <v>-65.74946022029999</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.5606486797332764</v>
+        <v>0.5421957969665527</v>
       </c>
       <c r="AN40" t="n">
-        <v>-50.7299614</v>
+        <v>-50.89382553</v>
       </c>
       <c r="AO40" t="n">
-        <v>22.06775951385498</v>
+        <v>22.02571678161621</v>
       </c>
       <c r="AP40" t="n">
-        <v>-39.8683509827</v>
+        <v>-29.8755950928</v>
       </c>
       <c r="AQ40" t="n">
-        <v>-56.4659233093</v>
+        <v>-66.3629989624</v>
       </c>
       <c r="AR40" t="n">
-        <v>-56.3995628357</v>
+        <v>-64.4081115723</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.5531833171844482</v>
+        <v>0.5182802677154541</v>
       </c>
       <c r="AT40" t="n">
-        <v>49.457</v>
+        <v>48.669</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B41" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C41" t="n">
         <v>5.9</v>
       </c>
       <c r="D41" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>15.852</v>
+        <v>2.848</v>
       </c>
       <c r="G41" t="n">
-        <v>-40.07186</v>
+        <v>-30.03004</v>
       </c>
       <c r="H41" t="n">
-        <v>-39.9225</v>
+        <v>-29.91324</v>
       </c>
       <c r="I41" t="n">
-        <v>-40.23074341</v>
+        <v>-30.18470001</v>
       </c>
       <c r="J41" t="n">
-        <v>-48.37924194</v>
+        <v>-50.09106064</v>
       </c>
       <c r="K41" t="n">
-        <v>0.1989021301269531</v>
+        <v>0.1910674571990967</v>
       </c>
       <c r="L41" t="n">
-        <v>-39.9262695312</v>
+        <v>-29.9483661652</v>
       </c>
       <c r="M41" t="n">
-        <v>-41.1832733154</v>
+        <v>-51.0554714203</v>
       </c>
       <c r="N41" t="n">
-        <v>-41.267288208</v>
+        <v>-51.1518688202</v>
       </c>
       <c r="O41" t="n">
-        <v>0.2068531513214111</v>
+        <v>0.2105371952056885</v>
       </c>
       <c r="P41" t="n">
-        <v>-46.71594238</v>
+        <v>-50.44699097</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.620197296142578</v>
+        <v>1.631500005722046</v>
       </c>
       <c r="R41" t="n">
-        <v>-39.9291419983</v>
+        <v>-29.9394989014</v>
       </c>
       <c r="S41" t="n">
-        <v>-56.2000236511</v>
+        <v>-65.8987121582</v>
       </c>
       <c r="T41" t="n">
-        <v>-56.2567558289</v>
+        <v>-66.1406326294</v>
       </c>
       <c r="U41" t="n">
-        <v>0.5515248775482178</v>
+        <v>0.5120718479156494</v>
       </c>
       <c r="V41" t="n">
-        <v>-48.16389084</v>
+        <v>-50.63642502</v>
       </c>
       <c r="W41" t="n">
-        <v>2.661081552505493</v>
+        <v>2.658700227737427</v>
       </c>
       <c r="X41" t="n">
-        <v>-39.9137382507</v>
+        <v>-29.9329738617</v>
       </c>
       <c r="Y41" t="n">
-        <v>-56.1897773743</v>
+        <v>-66.1069965363</v>
       </c>
       <c r="Z41" t="n">
-        <v>-56.267665863</v>
+        <v>-65.2714176178</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.5504980087280273</v>
+        <v>0.5201022624969482</v>
       </c>
       <c r="AB41" t="n">
-        <v>-49.30111694</v>
+        <v>-50.69235229</v>
       </c>
       <c r="AC41" t="n">
-        <v>4.829947233200073</v>
+        <v>4.802509307861328</v>
       </c>
       <c r="AD41" t="n">
-        <v>-39.9220657349</v>
+        <v>-29.929391861</v>
       </c>
       <c r="AE41" t="n">
-        <v>-56.2154769897</v>
+        <v>-65.67270469669999</v>
       </c>
       <c r="AF41" t="n">
-        <v>-56.257522583</v>
+        <v>-64.2876644135</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.5489118099212646</v>
+        <v>0.5209307670593262</v>
       </c>
       <c r="AH41" t="n">
-        <v>-50.26028061</v>
+        <v>-50.74605942</v>
       </c>
       <c r="AI41" t="n">
-        <v>11.29602122306824</v>
+        <v>11.2694137096405</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-39.9093399048</v>
+        <v>-29.9292678833</v>
       </c>
       <c r="AK41" t="n">
-        <v>-56.2346496582</v>
+        <v>-66.1070175171</v>
       </c>
       <c r="AL41" t="n">
-        <v>-56.2359848022</v>
+        <v>-65.33596038819999</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.5581448078155518</v>
+        <v>0.5220251083374023</v>
       </c>
       <c r="AN41" t="n">
-        <v>-50.58631516</v>
+        <v>-50.78329086</v>
       </c>
       <c r="AO41" t="n">
-        <v>22.1540219783783</v>
+        <v>22.13805961608887</v>
       </c>
       <c r="AP41" t="n">
-        <v>-39.9067840576</v>
+        <v>-29.926492691</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-56.196105957</v>
+        <v>-64.4658870697</v>
       </c>
       <c r="AR41" t="n">
-        <v>-56.2596893311</v>
+        <v>-66.1896190643</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.5488145351409912</v>
+        <v>0.5153660774230957</v>
       </c>
       <c r="AT41" t="n">
-        <v>49.332</v>
+        <v>48.631</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
       <c r="B42" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
       <c r="C42" t="n">
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>-40</v>
+        <v>-30</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>15.879</v>
+        <v>2.636</v>
       </c>
       <c r="G42" t="n">
-        <v>-40.06804</v>
+        <v>-30.05614</v>
       </c>
       <c r="H42" t="n">
-        <v>-39.89359</v>
+        <v>-29.89921</v>
       </c>
       <c r="I42" t="n">
-        <v>-39.95522308</v>
+        <v>-29.92322922</v>
       </c>
       <c r="J42" t="n">
-        <v>-48.60898972</v>
+        <v>-50.26495361</v>
       </c>
       <c r="K42" t="n">
-        <v>0.1977643966674805</v>
+        <v>0.1999790668487549</v>
       </c>
       <c r="L42" t="n">
-        <v>-39.8982849121</v>
+        <v>-29.9273757935</v>
       </c>
       <c r="M42" t="n">
-        <v>-41.6622924805</v>
+        <v>-51.5175476074</v>
       </c>
       <c r="N42" t="n">
-        <v>-41.7955093384</v>
+        <v>-51.6451034546</v>
       </c>
       <c r="O42" t="n">
-        <v>0.2052054405212402</v>
+        <v>0.2104623317718506</v>
       </c>
       <c r="P42" t="n">
-        <v>-46.78353119</v>
+        <v>-50.60439682</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.616084337234497</v>
+        <v>1.617996454238892</v>
       </c>
       <c r="R42" t="n">
-        <v>-39.8929672241</v>
+        <v>-29.9201507568</v>
       </c>
       <c r="S42" t="n">
-        <v>-56.7120895386</v>
+        <v>-65.3889541626</v>
       </c>
       <c r="T42" t="n">
-        <v>-56.7818374634</v>
+        <v>-65.87352752690001</v>
       </c>
       <c r="U42" t="n">
-        <v>0.5547657012939453</v>
+        <v>0.5218677520751953</v>
       </c>
       <c r="V42" t="n">
-        <v>-48.3346405</v>
+        <v>-50.76814651</v>
       </c>
       <c r="W42" t="n">
-        <v>2.673156499862671</v>
+        <v>2.649110555648804</v>
       </c>
       <c r="X42" t="n">
-        <v>-39.8862686157</v>
+        <v>-29.9133682251</v>
       </c>
       <c r="Y42" t="n">
-        <v>-56.7018966675</v>
+        <v>-65.81377410890001</v>
       </c>
       <c r="Z42" t="n">
-        <v>-56.7797927856</v>
+        <v>-66.2540893555</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.5590474605560303</v>
+        <v>0.5169639587402344</v>
       </c>
       <c r="AB42" t="n">
-        <v>-49.44614792</v>
+        <v>-50.88415146</v>
       </c>
       <c r="AC42" t="n">
-        <v>4.830100774765015</v>
+        <v>4.824262142181396</v>
       </c>
       <c r="AD42" t="n">
-        <v>-39.8904342651</v>
+        <v>-29.9118709564</v>
       </c>
       <c r="AE42" t="n">
-        <v>-56.6906433105</v>
+        <v>-66.3378696442</v>
       </c>
       <c r="AF42" t="n">
-        <v>-56.8108520508</v>
+        <v>-64.8509464264</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.5501530170440674</v>
+        <v>0.5192723274230957</v>
       </c>
       <c r="AH42" t="n">
-        <v>-50.35076523</v>
+        <v>-50.91888428</v>
       </c>
       <c r="AI42" t="n">
-        <v>11.33582377433777</v>
+        <v>11.3341748714447</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-39.8925094604</v>
+        <v>-29.9087543488</v>
       </c>
       <c r="AK42" t="n">
-        <v>-56.6821975708</v>
+        <v>-65.539396286</v>
       </c>
       <c r="AL42" t="n">
-        <v>-56.7719497681</v>
+        <v>-65.5493831635</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.5494256019592285</v>
+        <v>0.5117487907409668</v>
       </c>
       <c r="AN42" t="n">
-        <v>-50.68456268</v>
+        <v>-50.95327759</v>
       </c>
       <c r="AO42" t="n">
-        <v>22.19405078887939</v>
+        <v>22.11314940452576</v>
       </c>
       <c r="AP42" t="n">
-        <v>-39.8864402771</v>
+        <v>-29.9132919312</v>
       </c>
       <c r="AQ42" t="n">
-        <v>-56.6762733459</v>
+        <v>-65.8932189941</v>
       </c>
       <c r="AR42" t="n">
-        <v>-56.8471565247</v>
+        <v>-65.5502319336</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.5521533489227295</v>
+        <v>0.5192713737487793</v>
       </c>
       <c r="AT42" t="n">
-        <v>49.448</v>
+        <v>48.61</v>
       </c>
     </row>
   </sheetData>
@@ -6465,7 +6465,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>4.299450159072876</v>
+        <v>4.289130210876465</v>
       </c>
     </row>
     <row r="4">
@@ -6475,7 +6475,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>7.686664342880249</v>
+        <v>7.588005065917969</v>
       </c>
     </row>
     <row r="5">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.463414634146341</v>
+        <v>1.51219512195122</v>
       </c>
     </row>
     <row r="8">
@@ -6515,7 +6515,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-48.01364899</v>
+        <v>-48.64884186</v>
       </c>
     </row>
     <row r="9">
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-50.31016922</v>
+        <v>-50.92079163</v>
       </c>
     </row>
     <row r="10">
@@ -6535,7 +6535,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-48.81613475439024</v>
+        <v>-50.02365382073171</v>
       </c>
     </row>
     <row r="11">
@@ -6545,7 +6545,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2072687149047852</v>
+        <v>0.2044441699981689</v>
       </c>
     </row>
     <row r="12">
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1903886795043945</v>
+        <v>0.1891496181488037</v>
       </c>
     </row>
     <row r="13">
@@ -6565,7 +6565,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.1977193530012921</v>
+        <v>0.1976959298296672</v>
       </c>
     </row>
     <row r="14">
@@ -6575,7 +6575,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-39.5683326721</v>
+        <v>-29.4607124329</v>
       </c>
     </row>
     <row r="15">
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-40.564250946</v>
+        <v>-30.4987869263</v>
       </c>
     </row>
     <row r="16">
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-40.03591444434146</v>
+        <v>-29.96649458350488</v>
       </c>
     </row>
     <row r="17">
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.1416625977</v>
+        <v>-47.148267746</v>
       </c>
     </row>
     <row r="18">
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-42.5134811401</v>
+        <v>-52.4573860168</v>
       </c>
     </row>
     <row r="19">
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-39.87817187425853</v>
+        <v>-49.85867076966829</v>
       </c>
     </row>
     <row r="20">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.2696380615</v>
+        <v>-47.2622642517</v>
       </c>
     </row>
     <row r="21">
@@ -6645,7 +6645,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-42.4216384888</v>
+        <v>-52.3669319153</v>
       </c>
     </row>
     <row r="22">
@@ -6655,7 +6655,7 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-40.02163575334634</v>
+        <v>-50.01764204443658</v>
       </c>
     </row>
     <row r="23">
@@ -6665,7 +6665,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2660431861877441</v>
+        <v>0.2846865653991699</v>
       </c>
     </row>
     <row r="24">
@@ -6675,7 +6675,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2041919231414795</v>
+        <v>0.2052161693572998</v>
       </c>
     </row>
     <row r="25">
@@ -6685,7 +6685,7 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.2108516693115234</v>
+        <v>0.2187228668026808</v>
       </c>
     </row>
     <row r="26">
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-46.21287537</v>
+        <v>-46.57786942</v>
       </c>
     </row>
     <row r="27">
@@ -6705,7 +6705,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-49.18861771</v>
+        <v>-50.84522247</v>
       </c>
     </row>
     <row r="28">
@@ -6715,7 +6715,7 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-47.55644160926829</v>
+        <v>-48.36983220170732</v>
       </c>
     </row>
     <row r="29">
@@ -6725,7 +6725,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.674706220626831</v>
+        <v>1.663840055465698</v>
       </c>
     </row>
     <row r="30">
@@ -6735,7 +6735,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.605864524841309</v>
+        <v>1.606789827346802</v>
       </c>
     </row>
     <row r="31">
@@ -6745,7 +6745,7 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.625361518162053</v>
+        <v>1.62716660848478</v>
       </c>
     </row>
     <row r="32">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-39.5488739014</v>
+        <v>-29.436132431</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-40.5499839783</v>
+        <v>-30.4827480316</v>
       </c>
     </row>
     <row r="34">
@@ -6775,7 +6775,7 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-40.02311455331707</v>
+        <v>-29.95243202767805</v>
       </c>
     </row>
     <row r="35">
@@ -6785,7 +6785,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-52.1543960571</v>
+        <v>-62.2045936584</v>
       </c>
     </row>
     <row r="36">
@@ -6795,7 +6795,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-57.5699691772</v>
+        <v>-66.9413280487</v>
       </c>
     </row>
     <row r="37">
@@ -6805,7 +6805,7 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-54.9003276359683</v>
+        <v>-64.47790843682927</v>
       </c>
     </row>
     <row r="38">
@@ -6815,7 +6815,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-52.2226486206</v>
+        <v>-62.2610721588</v>
       </c>
     </row>
     <row r="39">
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-57.4636001587</v>
+        <v>-67.1350021362</v>
       </c>
     </row>
     <row r="40">
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-55.03037829516341</v>
+        <v>-64.79880151516342</v>
       </c>
     </row>
     <row r="41">
@@ -6845,7 +6845,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.5725312232971191</v>
+        <v>0.5769274234771729</v>
       </c>
     </row>
     <row r="42">
@@ -6855,7 +6855,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5179088115692139</v>
+        <v>0.5117363929748535</v>
       </c>
     </row>
     <row r="43">
@@ -6865,7 +6865,7 @@
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.5518825461224812</v>
+        <v>0.5451683881806164</v>
       </c>
     </row>
     <row r="44">
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-47.81501007</v>
+        <v>-48.13440704</v>
       </c>
     </row>
     <row r="45">
@@ -6885,7 +6885,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-50.09588623</v>
+        <v>-51.05290222</v>
       </c>
     </row>
     <row r="46">
@@ -6895,7 +6895,7 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-48.84575541439025</v>
+        <v>-49.38354659682926</v>
       </c>
     </row>
     <row r="47">
@@ -6905,7 +6905,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.725957870483398</v>
+        <v>2.704758405685425</v>
       </c>
     </row>
     <row r="48">
@@ -6915,7 +6915,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.628853559494019</v>
+        <v>2.633614301681519</v>
       </c>
     </row>
     <row r="49">
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.662036971348088</v>
+        <v>2.660961860563697</v>
       </c>
     </row>
     <row r="50">
@@ -6935,7 +6935,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-39.5457344055</v>
+        <v>-29.4342250824</v>
       </c>
     </row>
     <row r="51">
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-40.547328949</v>
+        <v>-30.4800071716</v>
       </c>
     </row>
     <row r="52">
@@ -6955,7 +6955,7 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-40.02161146954634</v>
+        <v>-29.95197947432195</v>
       </c>
     </row>
     <row r="53">
@@ -6965,7 +6965,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-52.1952629089</v>
+        <v>-62.1584320068</v>
       </c>
     </row>
     <row r="54">
@@ -6975,7 +6975,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-57.540851593</v>
+        <v>-67.45056533810001</v>
       </c>
     </row>
     <row r="55">
@@ -6985,7 +6985,7 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-54.90266195157072</v>
+        <v>-64.47343035442195</v>
       </c>
     </row>
     <row r="56">
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-52.258430481</v>
+        <v>-62.256231308</v>
       </c>
     </row>
     <row r="57">
@@ -7005,7 +7005,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-57.4335212708</v>
+        <v>-67.1333045959</v>
       </c>
     </row>
     <row r="58">
@@ -7015,7 +7015,7 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-55.03401258514878</v>
+        <v>-64.80975937261951</v>
       </c>
     </row>
     <row r="59">
@@ -7025,7 +7025,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5691781044006348</v>
+        <v>0.5912487506866455</v>
       </c>
     </row>
     <row r="60">
@@ -7035,7 +7035,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.515066385269165</v>
+        <v>0.5106468200683594</v>
       </c>
     </row>
     <row r="61">
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.5517169266212277</v>
+        <v>0.5448968177888451</v>
       </c>
     </row>
     <row r="62">
@@ -7055,7 +7055,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-49.03985977</v>
+        <v>-49.12322998</v>
       </c>
     </row>
     <row r="63">
@@ -7065,7 +7065,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-50.73458862</v>
+        <v>-51.121315</v>
       </c>
     </row>
     <row r="64">
@@ -7075,7 +7075,7 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-49.77288911414634</v>
+        <v>-50.07716490585366</v>
       </c>
     </row>
     <row r="65">
@@ -7085,7 +7085,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.916976928710938</v>
+        <v>4.904190301895142</v>
       </c>
     </row>
     <row r="66">
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.787513494491577</v>
+        <v>4.795837163925171</v>
       </c>
     </row>
     <row r="67">
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>4.831377285282787</v>
+        <v>4.829738041249717</v>
       </c>
     </row>
     <row r="68">
@@ -7115,7 +7115,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-39.5396347046</v>
+        <v>-29.4349327087</v>
       </c>
     </row>
     <row r="69">
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-40.5545654297</v>
+        <v>-30.4727191925</v>
       </c>
     </row>
     <row r="70">
@@ -7135,7 +7135,7 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-40.02228397276585</v>
+        <v>-29.95244928685853</v>
       </c>
     </row>
     <row r="71">
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-52.2104263306</v>
+        <v>-62.1592254639</v>
       </c>
     </row>
     <row r="72">
@@ -7155,7 +7155,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-57.5562019348</v>
+        <v>-67.2556018829</v>
       </c>
     </row>
     <row r="73">
@@ -7165,7 +7165,7 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-54.89937014695366</v>
+        <v>-64.56682461064634</v>
       </c>
     </row>
     <row r="74">
@@ -7175,7 +7175,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-52.2904090881</v>
+        <v>-62.276517868</v>
       </c>
     </row>
     <row r="75">
@@ -7185,7 +7185,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-57.4606971741</v>
+        <v>-66.62818145750001</v>
       </c>
     </row>
     <row r="76">
@@ -7195,7 +7195,7 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-55.03951170386341</v>
+        <v>-64.73801389554146</v>
       </c>
     </row>
     <row r="77">
@@ -7205,7 +7205,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5815889835357666</v>
+        <v>0.5631985664367676</v>
       </c>
     </row>
     <row r="78">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.5157387256622314</v>
+        <v>0.5145893096923828</v>
       </c>
     </row>
     <row r="79">
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>0.5519881015870629</v>
+        <v>0.5433283084776344</v>
       </c>
     </row>
     <row r="80">
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-49.54614639</v>
+        <v>-49.61133957</v>
       </c>
     </row>
     <row r="81">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-51.14699936</v>
+        <v>-51.18844986</v>
       </c>
     </row>
     <row r="82">
@@ -7255,7 +7255,7 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-50.48353288243903</v>
+        <v>-50.6046871097561</v>
       </c>
     </row>
     <row r="83">
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11.40328049659729</v>
+        <v>11.50811052322388</v>
       </c>
     </row>
     <row r="84">
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11.26365375518799</v>
+        <v>11.26386523246765</v>
       </c>
     </row>
     <row r="85">
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>11.33149475586124</v>
+        <v>11.33884050787949</v>
       </c>
     </row>
     <row r="86">
@@ -7295,7 +7295,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-39.5529670715</v>
+        <v>-29.4250106812</v>
       </c>
     </row>
     <row r="87">
@@ -7305,7 +7305,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-40.5500183105</v>
+        <v>-30.4817466736</v>
       </c>
     </row>
     <row r="88">
@@ -7315,7 +7315,7 @@
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-40.02270917193658</v>
+        <v>-29.95260875980732</v>
       </c>
     </row>
     <row r="89">
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-52.1753883362</v>
+        <v>-62.1638069153</v>
       </c>
     </row>
     <row r="90">
@@ -7335,7 +7335,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-57.5213050842</v>
+        <v>-66.9579296112</v>
       </c>
     </row>
     <row r="91">
@@ -7345,7 +7345,7 @@
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-54.89190078362927</v>
+        <v>-64.55366055558048</v>
       </c>
     </row>
     <row r="92">
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-52.29637146</v>
+        <v>-62.2894058228</v>
       </c>
     </row>
     <row r="93">
@@ -7365,7 +7365,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-57.457408905</v>
+        <v>-67.3494186401</v>
       </c>
     </row>
     <row r="94">
@@ -7375,7 +7375,7 @@
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-55.03876569795366</v>
+        <v>-64.78355970615122</v>
       </c>
     </row>
     <row r="95">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.5713038444519043</v>
+        <v>0.5782778263092041</v>
       </c>
     </row>
     <row r="96">
@@ -7395,7 +7395,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.5192172527313232</v>
+        <v>0.5094904899597168</v>
       </c>
     </row>
     <row r="97">
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>0.5515013845955453</v>
+        <v>0.5452750078061732</v>
       </c>
     </row>
     <row r="98">
@@ -7415,7 +7415,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-42.43836212</v>
+        <v>-49.76700592</v>
       </c>
     </row>
     <row r="99">
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-51.28696442</v>
+        <v>-51.29343414</v>
       </c>
     </row>
     <row r="100">
@@ -7435,7 +7435,7 @@
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-50.53522565902439</v>
+        <v>-50.78345238268293</v>
       </c>
     </row>
     <row r="101">
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>22.27783989906311</v>
+        <v>22.37231755256653</v>
       </c>
     </row>
     <row r="102">
@@ -7455,7 +7455,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>21.93080949783325</v>
+        <v>22.02571678161621</v>
       </c>
     </row>
     <row r="103">
@@ -7465,7 +7465,7 @@
         </is>
       </c>
       <c r="B103" s="2" t="n">
-        <v>22.14696473028602</v>
+        <v>22.18481720947638</v>
       </c>
     </row>
     <row r="104">
@@ -7475,7 +7475,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-39.5465965271</v>
+        <v>-29.4354076385</v>
       </c>
     </row>
     <row r="105">
@@ -7485,7 +7485,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-40.5595397949</v>
+        <v>-30.4854164124</v>
       </c>
     </row>
     <row r="106">
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-40.02112402567074</v>
+        <v>-29.95307154772195</v>
       </c>
     </row>
     <row r="107">
@@ -7505,7 +7505,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-52.1692428589</v>
+        <v>-62.1625289917</v>
       </c>
     </row>
     <row r="108">
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-57.5618591309</v>
+        <v>-67.4819641113</v>
       </c>
     </row>
     <row r="109">
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-54.90316893415365</v>
+        <v>-64.50213869607074</v>
       </c>
     </row>
     <row r="110">
@@ -7535,7 +7535,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-52.2928733826</v>
+        <v>-62.2871398926</v>
       </c>
     </row>
     <row r="111">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-57.4489898682</v>
+        <v>-67.2834777832</v>
       </c>
     </row>
     <row r="112">
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-55.03939568125122</v>
+        <v>-64.82617117718779</v>
       </c>
     </row>
     <row r="113">
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.5790674686431885</v>
+        <v>0.5776877403259277</v>
       </c>
     </row>
     <row r="114">
@@ -7575,7 +7575,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.5199563503265381</v>
+        <v>0.5119526386260986</v>
       </c>
     </row>
     <row r="115">
@@ -7585,7 +7585,7 @@
         </is>
       </c>
       <c r="B115" s="2" t="n">
-        <v>0.552407625244885</v>
+        <v>0.5446564976761981</v>
       </c>
     </row>
   </sheetData>
